--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -2278,91 +2278,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2402,129 +2348,96 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2565,6 +2478,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2623,6 +2623,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2696,102 +2792,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,7 +3715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3726,8 +3726,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:I22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3748,82 +3748,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="165" t="s">
+      <c r="A6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="166"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3831,28 +3831,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="170"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="171"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3860,28 +3860,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="152"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3889,45 +3889,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="160" t="s">
+      <c r="G9" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="143" t="s">
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="143" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="144"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="156"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3937,14 +3937,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3965,19 +3965,19 @@
       <c r="F11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="148"/>
-      <c r="O11" s="137" t="s">
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="157"/>
+      <c r="O11" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="169"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3998,21 +3998,21 @@
       <c r="F12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4033,21 +4033,21 @@
       <c r="F13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="132" t="s">
+      <c r="P13" s="165" t="s">
         <v>229</v>
       </c>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4068,21 +4068,21 @@
       <c r="F14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="129" t="s">
+      <c r="P14" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4103,21 +4103,21 @@
       <c r="F15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4138,21 +4138,21 @@
       <c r="F16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="140" t="s">
+      <c r="P16" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="172"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4173,21 +4173,21 @@
       <c r="F17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4208,13 +4208,13 @@
       <c r="F18" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4235,13 +4235,13 @@
       <c r="F19" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4260,13 +4260,13 @@
       <c r="F20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4287,13 +4287,13 @@
       <c r="F21" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4317,13 +4317,13 @@
       <c r="F22" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4350,13 +4350,13 @@
       <c r="F23" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4383,13 +4383,13 @@
       <c r="F24" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4416,13 +4416,13 @@
       <c r="F25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4449,13 +4449,13 @@
       <c r="F26" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4482,13 +4482,13 @@
       <c r="F27" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F28" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F29" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F30" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F31" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4643,13 +4643,13 @@
       <c r="F32" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4676,13 +4676,13 @@
       <c r="F33" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4693,13 +4693,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4710,13 +4710,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4727,13 +4727,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4744,13 +4744,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4761,13 +4761,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4778,13 +4778,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4795,13 +4795,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4812,13 +4812,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4829,13 +4829,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4846,13 +4846,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4863,13 +4863,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4880,13 +4880,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4897,13 +4897,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4914,13 +4914,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4931,13 +4931,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4948,13 +4948,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4965,13 +4965,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="153"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4982,13 +4982,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4999,13 +4999,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5016,13 +5016,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5033,13 +5033,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5050,13 +5050,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5067,13 +5067,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5084,13 +5084,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="153"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5101,13 +5101,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5118,13 +5118,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5135,13 +5135,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5152,13 +5152,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5169,13 +5169,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5186,13 +5186,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5203,13 +5203,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5220,13 +5220,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5237,13 +5237,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5254,13 +5254,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5271,13 +5271,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5288,13 +5288,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="134"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5305,13 +5305,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="135"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5322,13 +5322,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5336,195 +5336,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5549,6 +5360,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5809,9 +5809,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM26" sqref="BM26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5825,452 +5825,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
-      <c r="BR2" s="136"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="136"/>
-      <c r="BU2" s="136"/>
-      <c r="BV2" s="136"/>
-      <c r="BW2" s="136"/>
-      <c r="BX2" s="136"/>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="136"/>
-      <c r="CK2" s="136"/>
-      <c r="CL2" s="136"/>
-      <c r="CM2" s="136"/>
-      <c r="CN2" s="136"/>
-      <c r="CO2" s="136"/>
-      <c r="CP2" s="136"/>
-      <c r="CQ2" s="136"/>
-      <c r="CR2" s="136"/>
-      <c r="CS2" s="136"/>
-      <c r="CT2" s="136"/>
-      <c r="CU2" s="136"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="166"/>
+      <c r="AY2" s="166"/>
+      <c r="AZ2" s="166"/>
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
+      <c r="BI2" s="166"/>
+      <c r="BJ2" s="166"/>
+      <c r="BK2" s="166"/>
+      <c r="BL2" s="166"/>
+      <c r="BM2" s="166"/>
+      <c r="BN2" s="166"/>
+      <c r="BO2" s="166"/>
+      <c r="BP2" s="166"/>
+      <c r="BQ2" s="166"/>
+      <c r="BR2" s="166"/>
+      <c r="BS2" s="166"/>
+      <c r="BT2" s="166"/>
+      <c r="BU2" s="166"/>
+      <c r="BV2" s="166"/>
+      <c r="BW2" s="166"/>
+      <c r="BX2" s="166"/>
+      <c r="BY2" s="166"/>
+      <c r="BZ2" s="166"/>
+      <c r="CA2" s="166"/>
+      <c r="CB2" s="166"/>
+      <c r="CC2" s="166"/>
+      <c r="CD2" s="166"/>
+      <c r="CE2" s="166"/>
+      <c r="CF2" s="166"/>
+      <c r="CG2" s="166"/>
+      <c r="CH2" s="166"/>
+      <c r="CI2" s="166"/>
+      <c r="CJ2" s="166"/>
+      <c r="CK2" s="166"/>
+      <c r="CL2" s="166"/>
+      <c r="CM2" s="166"/>
+      <c r="CN2" s="166"/>
+      <c r="CO2" s="166"/>
+      <c r="CP2" s="166"/>
+      <c r="CQ2" s="166"/>
+      <c r="CR2" s="166"/>
+      <c r="CS2" s="166"/>
+      <c r="CT2" s="166"/>
+      <c r="CU2" s="166"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
-      <c r="CG3" s="136"/>
-      <c r="CH3" s="136"/>
-      <c r="CI3" s="136"/>
-      <c r="CJ3" s="136"/>
-      <c r="CK3" s="136"/>
-      <c r="CL3" s="136"/>
-      <c r="CM3" s="136"/>
-      <c r="CN3" s="136"/>
-      <c r="CO3" s="136"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="136"/>
-      <c r="CR3" s="136"/>
-      <c r="CS3" s="136"/>
-      <c r="CT3" s="136"/>
-      <c r="CU3" s="136"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="166"/>
+      <c r="AU3" s="166"/>
+      <c r="AV3" s="166"/>
+      <c r="AW3" s="166"/>
+      <c r="AX3" s="166"/>
+      <c r="AY3" s="166"/>
+      <c r="AZ3" s="166"/>
+      <c r="BA3" s="166"/>
+      <c r="BB3" s="166"/>
+      <c r="BC3" s="166"/>
+      <c r="BD3" s="166"/>
+      <c r="BE3" s="166"/>
+      <c r="BF3" s="166"/>
+      <c r="BG3" s="166"/>
+      <c r="BH3" s="166"/>
+      <c r="BI3" s="166"/>
+      <c r="BJ3" s="166"/>
+      <c r="BK3" s="166"/>
+      <c r="BL3" s="166"/>
+      <c r="BM3" s="166"/>
+      <c r="BN3" s="166"/>
+      <c r="BO3" s="166"/>
+      <c r="BP3" s="166"/>
+      <c r="BQ3" s="166"/>
+      <c r="BR3" s="166"/>
+      <c r="BS3" s="166"/>
+      <c r="BT3" s="166"/>
+      <c r="BU3" s="166"/>
+      <c r="BV3" s="166"/>
+      <c r="BW3" s="166"/>
+      <c r="BX3" s="166"/>
+      <c r="BY3" s="166"/>
+      <c r="BZ3" s="166"/>
+      <c r="CA3" s="166"/>
+      <c r="CB3" s="166"/>
+      <c r="CC3" s="166"/>
+      <c r="CD3" s="166"/>
+      <c r="CE3" s="166"/>
+      <c r="CF3" s="166"/>
+      <c r="CG3" s="166"/>
+      <c r="CH3" s="166"/>
+      <c r="CI3" s="166"/>
+      <c r="CJ3" s="166"/>
+      <c r="CK3" s="166"/>
+      <c r="CL3" s="166"/>
+      <c r="CM3" s="166"/>
+      <c r="CN3" s="166"/>
+      <c r="CO3" s="166"/>
+      <c r="CP3" s="166"/>
+      <c r="CQ3" s="166"/>
+      <c r="CR3" s="166"/>
+      <c r="CS3" s="166"/>
+      <c r="CT3" s="166"/>
+      <c r="CU3" s="166"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="204"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="204"/>
-      <c r="AF5" s="204"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="204"/>
-      <c r="AI5" s="204"/>
-      <c r="AJ5" s="204"/>
-      <c r="AK5" s="204"/>
-      <c r="AL5" s="204"/>
-      <c r="AM5" s="204"/>
-      <c r="AN5" s="204"/>
-      <c r="AO5" s="204"/>
-      <c r="AP5" s="204"/>
-      <c r="AQ5" s="204"/>
-      <c r="AR5" s="204"/>
-      <c r="AS5" s="204"/>
-      <c r="AT5" s="204"/>
-      <c r="AU5" s="204"/>
-      <c r="AV5" s="204"/>
-      <c r="AW5" s="204"/>
-      <c r="AX5" s="204"/>
-      <c r="AY5" s="204"/>
-      <c r="AZ5" s="204"/>
-      <c r="BA5" s="204"/>
-      <c r="BB5" s="204"/>
-      <c r="BC5" s="204"/>
-      <c r="BD5" s="205"/>
-      <c r="BE5" s="206" t="s">
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="179"/>
+      <c r="AJ5" s="179"/>
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179"/>
+      <c r="AO5" s="179"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="179"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="179"/>
+      <c r="AX5" s="179"/>
+      <c r="AY5" s="179"/>
+      <c r="AZ5" s="179"/>
+      <c r="BA5" s="179"/>
+      <c r="BB5" s="179"/>
+      <c r="BC5" s="179"/>
+      <c r="BD5" s="180"/>
+      <c r="BE5" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="207"/>
-      <c r="BG5" s="207"/>
-      <c r="BH5" s="207"/>
-      <c r="BI5" s="207"/>
-      <c r="BJ5" s="207"/>
-      <c r="BK5" s="207"/>
-      <c r="BL5" s="207"/>
-      <c r="BM5" s="207"/>
-      <c r="BN5" s="207"/>
-      <c r="BO5" s="207"/>
-      <c r="BP5" s="207"/>
-      <c r="BQ5" s="207"/>
-      <c r="BR5" s="207"/>
-      <c r="BS5" s="207"/>
-      <c r="BT5" s="207"/>
-      <c r="BU5" s="207"/>
-      <c r="BV5" s="207"/>
-      <c r="BW5" s="207"/>
-      <c r="BX5" s="207"/>
-      <c r="BY5" s="207"/>
-      <c r="BZ5" s="207"/>
-      <c r="CA5" s="207"/>
-      <c r="CB5" s="207"/>
-      <c r="CC5" s="207"/>
-      <c r="CD5" s="207"/>
-      <c r="CE5" s="207"/>
-      <c r="CF5" s="207"/>
-      <c r="CG5" s="207"/>
-      <c r="CH5" s="207"/>
-      <c r="CI5" s="207"/>
-      <c r="CJ5" s="207"/>
-      <c r="CK5" s="207"/>
-      <c r="CL5" s="207"/>
-      <c r="CM5" s="207"/>
-      <c r="CN5" s="207"/>
-      <c r="CO5" s="207"/>
-      <c r="CP5" s="207"/>
-      <c r="CQ5" s="207"/>
-      <c r="CR5" s="208"/>
-      <c r="CS5" s="195" t="s">
+      <c r="BF5" s="182"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="182"/>
+      <c r="BI5" s="182"/>
+      <c r="BJ5" s="182"/>
+      <c r="BK5" s="182"/>
+      <c r="BL5" s="182"/>
+      <c r="BM5" s="182"/>
+      <c r="BN5" s="182"/>
+      <c r="BO5" s="182"/>
+      <c r="BP5" s="182"/>
+      <c r="BQ5" s="182"/>
+      <c r="BR5" s="182"/>
+      <c r="BS5" s="182"/>
+      <c r="BT5" s="182"/>
+      <c r="BU5" s="182"/>
+      <c r="BV5" s="182"/>
+      <c r="BW5" s="182"/>
+      <c r="BX5" s="182"/>
+      <c r="BY5" s="182"/>
+      <c r="BZ5" s="182"/>
+      <c r="CA5" s="182"/>
+      <c r="CB5" s="182"/>
+      <c r="CC5" s="182"/>
+      <c r="CD5" s="182"/>
+      <c r="CE5" s="182"/>
+      <c r="CF5" s="182"/>
+      <c r="CG5" s="182"/>
+      <c r="CH5" s="182"/>
+      <c r="CI5" s="182"/>
+      <c r="CJ5" s="182"/>
+      <c r="CK5" s="182"/>
+      <c r="CL5" s="182"/>
+      <c r="CM5" s="182"/>
+      <c r="CN5" s="182"/>
+      <c r="CO5" s="182"/>
+      <c r="CP5" s="182"/>
+      <c r="CQ5" s="182"/>
+      <c r="CR5" s="183"/>
+      <c r="CS5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="196"/>
-      <c r="CU5" s="197"/>
+      <c r="CT5" s="189"/>
+      <c r="CU5" s="190"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="200"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="178" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="181" t="s">
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="194" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="181"/>
-      <c r="AA6" s="181"/>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="181"/>
-      <c r="AF6" s="181"/>
-      <c r="AG6" s="181"/>
-      <c r="AH6" s="181"/>
-      <c r="AI6" s="181"/>
-      <c r="AJ6" s="181"/>
-      <c r="AK6" s="181"/>
-      <c r="AL6" s="181"/>
-      <c r="AM6" s="181"/>
-      <c r="AN6" s="181"/>
-      <c r="AO6" s="181" t="s">
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="194"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="194"/>
+      <c r="AK6" s="194"/>
+      <c r="AL6" s="194"/>
+      <c r="AM6" s="194"/>
+      <c r="AN6" s="194"/>
+      <c r="AO6" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="181"/>
-      <c r="AQ6" s="181"/>
-      <c r="AR6" s="181"/>
-      <c r="AS6" s="181" t="s">
+      <c r="AP6" s="194"/>
+      <c r="AQ6" s="194"/>
+      <c r="AR6" s="194"/>
+      <c r="AS6" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="181"/>
-      <c r="AU6" s="181"/>
-      <c r="AV6" s="181" t="s">
+      <c r="AT6" s="194"/>
+      <c r="AU6" s="194"/>
+      <c r="AV6" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="181"/>
-      <c r="AX6" s="181"/>
-      <c r="AY6" s="181"/>
-      <c r="AZ6" s="181"/>
-      <c r="BA6" s="181"/>
-      <c r="BB6" s="181"/>
-      <c r="BC6" s="188" t="s">
+      <c r="AW6" s="194"/>
+      <c r="AX6" s="194"/>
+      <c r="AY6" s="194"/>
+      <c r="AZ6" s="194"/>
+      <c r="BA6" s="194"/>
+      <c r="BB6" s="194"/>
+      <c r="BC6" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="189"/>
-      <c r="BE6" s="190" t="s">
+      <c r="BD6" s="199"/>
+      <c r="BE6" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="191"/>
-      <c r="BG6" s="191"/>
-      <c r="BH6" s="191"/>
-      <c r="BI6" s="191"/>
-      <c r="BJ6" s="191"/>
-      <c r="BK6" s="192"/>
-      <c r="BL6" s="193" t="s">
+      <c r="BF6" s="201"/>
+      <c r="BG6" s="201"/>
+      <c r="BH6" s="201"/>
+      <c r="BI6" s="201"/>
+      <c r="BJ6" s="201"/>
+      <c r="BK6" s="202"/>
+      <c r="BL6" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="191"/>
-      <c r="BN6" s="191"/>
-      <c r="BO6" s="191"/>
-      <c r="BP6" s="191"/>
-      <c r="BQ6" s="191"/>
-      <c r="BR6" s="191"/>
-      <c r="BS6" s="191"/>
-      <c r="BT6" s="191"/>
-      <c r="BU6" s="191"/>
-      <c r="BV6" s="191"/>
-      <c r="BW6" s="191"/>
-      <c r="BX6" s="191"/>
-      <c r="BY6" s="191"/>
-      <c r="BZ6" s="191"/>
-      <c r="CA6" s="191"/>
-      <c r="CB6" s="191"/>
-      <c r="CC6" s="191"/>
-      <c r="CD6" s="191"/>
-      <c r="CE6" s="191"/>
-      <c r="CF6" s="191"/>
-      <c r="CG6" s="191"/>
-      <c r="CH6" s="191"/>
-      <c r="CI6" s="191"/>
-      <c r="CJ6" s="191"/>
-      <c r="CK6" s="191"/>
-      <c r="CL6" s="191"/>
-      <c r="CM6" s="191"/>
-      <c r="CN6" s="191"/>
-      <c r="CO6" s="191"/>
-      <c r="CP6" s="191"/>
-      <c r="CQ6" s="198" t="s">
+      <c r="BM6" s="201"/>
+      <c r="BN6" s="201"/>
+      <c r="BO6" s="201"/>
+      <c r="BP6" s="201"/>
+      <c r="BQ6" s="201"/>
+      <c r="BR6" s="201"/>
+      <c r="BS6" s="201"/>
+      <c r="BT6" s="201"/>
+      <c r="BU6" s="201"/>
+      <c r="BV6" s="201"/>
+      <c r="BW6" s="201"/>
+      <c r="BX6" s="201"/>
+      <c r="BY6" s="201"/>
+      <c r="BZ6" s="201"/>
+      <c r="CA6" s="201"/>
+      <c r="CB6" s="201"/>
+      <c r="CC6" s="201"/>
+      <c r="CD6" s="201"/>
+      <c r="CE6" s="201"/>
+      <c r="CF6" s="201"/>
+      <c r="CG6" s="201"/>
+      <c r="CH6" s="201"/>
+      <c r="CI6" s="201"/>
+      <c r="CJ6" s="201"/>
+      <c r="CK6" s="201"/>
+      <c r="CL6" s="201"/>
+      <c r="CM6" s="201"/>
+      <c r="CN6" s="201"/>
+      <c r="CO6" s="201"/>
+      <c r="CP6" s="201"/>
+      <c r="CQ6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="198"/>
-      <c r="CS6" s="194" t="s">
+      <c r="CR6" s="191"/>
+      <c r="CS6" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="194" t="s">
+      <c r="CT6" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="185" t="s">
+      <c r="CU6" s="195" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="200"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
+      <c r="A7" s="175"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6279,324 +6279,324 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="186">
         <v>42982</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="184">
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="187">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="184"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="186"/>
+      <c r="Z7" s="186"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="186"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
+      <c r="AH7" s="186"/>
+      <c r="AI7" s="186"/>
+      <c r="AJ7" s="186"/>
+      <c r="AK7" s="186"/>
+      <c r="AL7" s="186"/>
+      <c r="AM7" s="186"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180"/>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="184">
+      <c r="AO7" s="186"/>
+      <c r="AP7" s="186"/>
+      <c r="AQ7" s="186"/>
+      <c r="AR7" s="186"/>
+      <c r="AS7" s="187">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="184"/>
+      <c r="AT7" s="187"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180"/>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="184">
+      <c r="AV7" s="186"/>
+      <c r="AW7" s="186"/>
+      <c r="AX7" s="186"/>
+      <c r="AY7" s="186"/>
+      <c r="AZ7" s="187">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="184"/>
+      <c r="BA7" s="187"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="188"/>
-      <c r="BD7" s="189"/>
-      <c r="BE7" s="180"/>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180"/>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="184">
+      <c r="BC7" s="198"/>
+      <c r="BD7" s="199"/>
+      <c r="BE7" s="186"/>
+      <c r="BF7" s="186"/>
+      <c r="BG7" s="186"/>
+      <c r="BH7" s="186"/>
+      <c r="BI7" s="187">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="184"/>
+      <c r="BJ7" s="187"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="186">
         <v>42982</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="186"/>
+      <c r="BN7" s="186">
         <v>42982</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="186"/>
+      <c r="BP7" s="186">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180"/>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180"/>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180"/>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180"/>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180"/>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180"/>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180"/>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="184"/>
-      <c r="CO7" s="184"/>
+      <c r="BQ7" s="186"/>
+      <c r="BR7" s="186"/>
+      <c r="BS7" s="186"/>
+      <c r="BT7" s="186"/>
+      <c r="BU7" s="186"/>
+      <c r="BV7" s="186"/>
+      <c r="BW7" s="186"/>
+      <c r="BX7" s="186"/>
+      <c r="BY7" s="186"/>
+      <c r="BZ7" s="186"/>
+      <c r="CA7" s="186"/>
+      <c r="CB7" s="186"/>
+      <c r="CC7" s="186"/>
+      <c r="CD7" s="186"/>
+      <c r="CE7" s="186"/>
+      <c r="CF7" s="186"/>
+      <c r="CG7" s="186"/>
+      <c r="CH7" s="186"/>
+      <c r="CI7" s="186"/>
+      <c r="CJ7" s="186"/>
+      <c r="CK7" s="186"/>
+      <c r="CL7" s="186"/>
+      <c r="CM7" s="186"/>
+      <c r="CN7" s="187"/>
+      <c r="CO7" s="187"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="198"/>
-      <c r="CR7" s="198"/>
-      <c r="CS7" s="194"/>
-      <c r="CT7" s="194"/>
-      <c r="CU7" s="186"/>
+      <c r="CQ7" s="191"/>
+      <c r="CR7" s="191"/>
+      <c r="CS7" s="173"/>
+      <c r="CT7" s="173"/>
+      <c r="CU7" s="196"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="200"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="209" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="173" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173" t="s">
+      <c r="K8" s="185"/>
+      <c r="L8" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173" t="s">
+      <c r="M8" s="185"/>
+      <c r="N8" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173" t="s">
+      <c r="O8" s="185"/>
+      <c r="P8" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173" t="s">
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173" t="s">
+      <c r="S8" s="185"/>
+      <c r="T8" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173" t="s">
+      <c r="U8" s="185"/>
+      <c r="V8" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173" t="s">
+      <c r="W8" s="185"/>
+      <c r="X8" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173" t="s">
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173" t="s">
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173" t="s">
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173" t="s">
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173" t="s">
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173" t="s">
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="173" t="s">
+      <c r="AK8" s="185"/>
+      <c r="AL8" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="173"/>
+      <c r="AM8" s="185"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="173" t="s">
+      <c r="AO8" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="173"/>
-      <c r="AQ8" s="173" t="s">
+      <c r="AP8" s="185"/>
+      <c r="AQ8" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="173"/>
-      <c r="AS8" s="173" t="s">
+      <c r="AR8" s="185"/>
+      <c r="AS8" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="173"/>
+      <c r="AT8" s="185"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="173" t="s">
+      <c r="AV8" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="173"/>
-      <c r="AX8" s="173" t="s">
+      <c r="AW8" s="185"/>
+      <c r="AX8" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="173"/>
-      <c r="AZ8" s="173" t="s">
+      <c r="AY8" s="185"/>
+      <c r="AZ8" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="173"/>
+      <c r="BA8" s="185"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="188"/>
-      <c r="BD8" s="189"/>
-      <c r="BE8" s="183" t="s">
+      <c r="BC8" s="198"/>
+      <c r="BD8" s="199"/>
+      <c r="BE8" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="182"/>
-      <c r="BG8" s="182" t="s">
+      <c r="BF8" s="204"/>
+      <c r="BG8" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="182"/>
-      <c r="BI8" s="182" t="s">
+      <c r="BH8" s="204"/>
+      <c r="BI8" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="182"/>
+      <c r="BJ8" s="204"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="176" t="s">
+      <c r="BL8" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="177"/>
-      <c r="BN8" s="176" t="s">
+      <c r="BM8" s="206"/>
+      <c r="BN8" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="177"/>
-      <c r="BP8" s="176" t="s">
+      <c r="BO8" s="206"/>
+      <c r="BP8" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="177"/>
-      <c r="BR8" s="176" t="s">
+      <c r="BQ8" s="206"/>
+      <c r="BR8" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="177"/>
-      <c r="BT8" s="176" t="s">
+      <c r="BS8" s="206"/>
+      <c r="BT8" s="205" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="177"/>
-      <c r="BV8" s="174" t="s">
+      <c r="BU8" s="206"/>
+      <c r="BV8" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="175"/>
-      <c r="BX8" s="174" t="s">
+      <c r="BW8" s="193"/>
+      <c r="BX8" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="175"/>
-      <c r="BZ8" s="174" t="s">
+      <c r="BY8" s="193"/>
+      <c r="BZ8" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="175"/>
-      <c r="CB8" s="174" t="s">
+      <c r="CA8" s="193"/>
+      <c r="CB8" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="175"/>
-      <c r="CD8" s="174" t="s">
+      <c r="CC8" s="193"/>
+      <c r="CD8" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="175"/>
-      <c r="CF8" s="174" t="s">
+      <c r="CE8" s="193"/>
+      <c r="CF8" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="175"/>
-      <c r="CH8" s="174" t="s">
+      <c r="CG8" s="193"/>
+      <c r="CH8" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="175"/>
-      <c r="CJ8" s="174" t="s">
+      <c r="CI8" s="193"/>
+      <c r="CJ8" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="175"/>
-      <c r="CL8" s="174" t="s">
+      <c r="CK8" s="193"/>
+      <c r="CL8" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="175"/>
-      <c r="CN8" s="174" t="s">
+      <c r="CM8" s="193"/>
+      <c r="CN8" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="175"/>
+      <c r="CO8" s="193"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="198"/>
-      <c r="CR8" s="198"/>
-      <c r="CS8" s="194"/>
-      <c r="CT8" s="194"/>
-      <c r="CU8" s="186"/>
+      <c r="CQ8" s="191"/>
+      <c r="CR8" s="191"/>
+      <c r="CS8" s="173"/>
+      <c r="CT8" s="173"/>
+      <c r="CU8" s="196"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6758,9 +6758,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="194"/>
-      <c r="CT9" s="194"/>
-      <c r="CU9" s="187"/>
+      <c r="CS9" s="173"/>
+      <c r="CT9" s="173"/>
+      <c r="CU9" s="197"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7284,15 +7284,15 @@
         <v>Amodente Jefferson R</v>
       </c>
       <c r="D12" s="108">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="92">
         <f t="shared" ref="E12:E70" si="43">(D12/$D$9)*100</f>
-        <v>56.000000000000007</v>
+        <v>56.999999999999993</v>
       </c>
       <c r="F12" s="95">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>17.099999999999998</v>
       </c>
       <c r="G12" s="108"/>
       <c r="H12" s="92" t="e">
@@ -7397,11 +7397,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>27.800000000000004</v>
+        <v>28.1</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92" t="str">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>11.120000000000001</v>
+        <v>11.240000000000002</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10576,15 +10576,15 @@
         <v>Porras Nathalia S</v>
       </c>
       <c r="D25" s="108">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" s="92">
         <f t="shared" si="43"/>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F25" s="95">
         <f t="shared" si="0"/>
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="92" t="e">
@@ -10689,11 +10689,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>39.200000000000003</v>
+        <v>38</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>39.200000000000003</v>
+        <v>38</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92" t="str">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>15.680000000000001</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22009,6 +22009,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22025,88 +22107,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="C10" s="57">
         <f>'RAW GRADES'!F12</f>
-        <v>16.8</v>
+        <v>17.099999999999998</v>
       </c>
       <c r="D10" s="89" t="str">
         <f>'RAW GRADES'!I12</f>
@@ -22460,11 +22460,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>27.800000000000004</v>
+        <v>28.1</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="J10" s="52" t="str">
         <f>'RAW GRADES'!BK12</f>
@@ -22484,7 +22484,7 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>11.120000000000001</v>
+        <v>11.240000000000002</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="C23" s="57">
         <f>'RAW GRADES'!F25</f>
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="D23" s="89" t="str">
         <f>'RAW GRADES'!I25</f>
@@ -23305,11 +23305,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>39.200000000000003</v>
+        <v>38</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>39.200000000000003</v>
+        <v>38</v>
       </c>
       <c r="J23" s="52" t="str">
         <f>'RAW GRADES'!BK25</f>
@@ -23329,7 +23329,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>15.680000000000001</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -26321,106 +26321,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="257"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="262" t="s">
+      <c r="A7" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="262"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="263"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="257"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="264"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="263"/>
-      <c r="B12" s="263"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="266" t="str">
+      <c r="C13" s="233" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26428,12 +26428,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="259" t="str">
+      <c r="C14" s="225" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26441,12 +26441,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="245" t="str">
+      <c r="C15" s="236" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26454,12 +26454,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="245" t="str">
+      <c r="C16" s="236" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26467,12 +26467,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="245" t="str">
+      <c r="C17" s="236" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="245"/>
-      <c r="E17" s="245"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26484,42 +26484,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="249" t="s">
+      <c r="B19" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="246" t="s">
+      <c r="C19" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="246" t="s">
+      <c r="D19" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="251" t="s">
+      <c r="E19" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="246" t="s">
+      <c r="F19" s="237" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="247"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="254"/>
+      <c r="A20" s="238"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="245"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="248"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="255"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="246"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28032,14 +28032,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="229" t="s">
+      <c r="A83" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="230"/>
-      <c r="C83" s="230"/>
-      <c r="D83" s="230"/>
-      <c r="E83" s="230"/>
-      <c r="F83" s="231"/>
+      <c r="B83" s="254"/>
+      <c r="C83" s="254"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="254"/>
+      <c r="F83" s="255"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28072,11 +28072,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="256">
+      <c r="E87" s="247">
         <f ca="1">NOW()</f>
-        <v>43011.574303819441</v>
-      </c>
-      <c r="F87" s="256"/>
+        <v>43014.377816319444</v>
+      </c>
+      <c r="F87" s="247"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28086,10 +28086,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="257" t="s">
+      <c r="E88" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="257"/>
+      <c r="F88" s="226"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28106,8 +28106,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="257"/>
-      <c r="F90" s="257"/>
+      <c r="E90" s="226"/>
+      <c r="F90" s="226"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28223,14 +28223,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="258" t="s">
+      <c r="A105" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="258"/>
-      <c r="C105" s="258"/>
-      <c r="D105" s="258"/>
-      <c r="E105" s="258"/>
-      <c r="F105" s="258"/>
+      <c r="B105" s="248"/>
+      <c r="C105" s="248"/>
+      <c r="D105" s="248"/>
+      <c r="E105" s="248"/>
+      <c r="F105" s="248"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28245,124 +28245,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="242" t="s">
+      <c r="C107" s="266" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="243"/>
-      <c r="E107" s="244" t="s">
+      <c r="D107" s="235"/>
+      <c r="E107" s="234" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="243"/>
+      <c r="F107" s="235"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="238">
+      <c r="C108" s="262">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="239"/>
-      <c r="E108" s="240">
+      <c r="D108" s="263"/>
+      <c r="E108" s="264">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="241"/>
+      <c r="F108" s="265"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="232">
+      <c r="C109" s="256">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="233"/>
-      <c r="E109" s="234">
+      <c r="D109" s="257"/>
+      <c r="E109" s="258">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="235"/>
+      <c r="F109" s="259"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="232">
+      <c r="C110" s="256">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="233"/>
-      <c r="E110" s="234">
+      <c r="D110" s="257"/>
+      <c r="E110" s="258">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="235"/>
+      <c r="F110" s="259"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="232">
+      <c r="C111" s="256">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="233"/>
-      <c r="E111" s="234">
+      <c r="D111" s="257"/>
+      <c r="E111" s="258">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="235"/>
+      <c r="F111" s="259"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="236">
-        <v>0</v>
-      </c>
-      <c r="D112" s="237"/>
-      <c r="E112" s="234">
+      <c r="C112" s="260">
+        <v>0</v>
+      </c>
+      <c r="D112" s="261"/>
+      <c r="E112" s="258">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="235"/>
+      <c r="F112" s="259"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="236">
-        <v>0</v>
-      </c>
-      <c r="D113" s="237"/>
-      <c r="E113" s="234">
+      <c r="C113" s="260">
+        <v>0</v>
+      </c>
+      <c r="D113" s="261"/>
+      <c r="E113" s="258">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="235"/>
+      <c r="F113" s="259"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="225">
+      <c r="C114" s="249">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="226"/>
-      <c r="E114" s="227">
+      <c r="D114" s="250"/>
+      <c r="E114" s="251">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="228"/>
+      <c r="F114" s="252"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28530,32 +28530,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28572,6 +28546,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -2278,37 +2278,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2348,96 +2402,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2478,93 +2565,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2623,102 +2623,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2792,6 +2696,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,7 +3715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3748,82 +3748,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129" t="s">
+      <c r="A6" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="130"/>
+      <c r="F6" s="166"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3831,28 +3831,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="134"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="171"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3860,28 +3860,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3889,45 +3889,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146" t="s">
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="149" t="s">
+      <c r="K9" s="144"/>
+      <c r="L9" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="150"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="142"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3937,14 +3937,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3965,19 +3965,19 @@
       <c r="F11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="157"/>
-      <c r="O11" s="167" t="s">
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="148"/>
+      <c r="O11" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="169"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3998,21 +3998,21 @@
       <c r="F12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="165" t="s">
+      <c r="P12" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4033,21 +4033,21 @@
       <c r="F13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="165" t="s">
+      <c r="P13" s="132" t="s">
         <v>229</v>
       </c>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4068,21 +4068,21 @@
       <c r="F14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="162" t="s">
+      <c r="P14" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4103,21 +4103,21 @@
       <c r="F15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="162" t="s">
+      <c r="P15" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4138,21 +4138,21 @@
       <c r="F16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="170" t="s">
+      <c r="P16" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="172"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4173,21 +4173,21 @@
       <c r="F17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="162" t="s">
+      <c r="P17" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4208,13 +4208,13 @@
       <c r="F18" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4235,13 +4235,13 @@
       <c r="F19" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4260,13 +4260,13 @@
       <c r="F20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4287,13 +4287,13 @@
       <c r="F21" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4317,13 +4317,13 @@
       <c r="F22" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4350,13 +4350,13 @@
       <c r="F23" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4383,13 +4383,13 @@
       <c r="F24" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4416,13 +4416,13 @@
       <c r="F25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4449,13 +4449,13 @@
       <c r="F26" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4482,13 +4482,13 @@
       <c r="F27" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F28" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F29" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F30" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F31" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4643,13 +4643,13 @@
       <c r="F32" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4676,13 +4676,13 @@
       <c r="F33" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4693,13 +4693,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4710,13 +4710,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4727,13 +4727,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4744,13 +4744,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4761,13 +4761,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="153"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4778,13 +4778,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="153"/>
-      <c r="K39" s="153"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4795,13 +4795,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4812,13 +4812,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4829,13 +4829,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4846,13 +4846,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4863,13 +4863,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4880,13 +4880,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="153"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4897,13 +4897,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="153"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4914,13 +4914,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="153"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4931,13 +4931,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="153"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="154"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4948,13 +4948,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="153"/>
-      <c r="K49" s="153"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4965,13 +4965,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="153"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4982,13 +4982,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="153"/>
-      <c r="L51" s="154"/>
-      <c r="M51" s="154"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4999,13 +4999,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="153"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5016,13 +5016,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="153"/>
-      <c r="L53" s="154"/>
-      <c r="M53" s="154"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5033,13 +5033,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="153"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="154"/>
-      <c r="M54" s="154"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5050,13 +5050,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="153"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="154"/>
-      <c r="M55" s="154"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5067,13 +5067,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="154"/>
-      <c r="M56" s="154"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5084,13 +5084,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="153"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="154"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5101,13 +5101,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="153"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5118,13 +5118,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="153"/>
-      <c r="K59" s="153"/>
-      <c r="L59" s="154"/>
-      <c r="M59" s="154"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5135,13 +5135,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="154"/>
-      <c r="M60" s="154"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5152,13 +5152,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="154"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5169,13 +5169,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="154"/>
-      <c r="M62" s="154"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5186,13 +5186,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="154"/>
-      <c r="M63" s="154"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5203,13 +5203,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="154"/>
-      <c r="M64" s="154"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5220,13 +5220,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="154"/>
-      <c r="M65" s="154"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5237,13 +5237,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="154"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5254,13 +5254,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="154"/>
-      <c r="M67" s="154"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5271,13 +5271,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="152"/>
-      <c r="I68" s="152"/>
-      <c r="J68" s="153"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="154"/>
-      <c r="M68" s="154"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="135"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5288,13 +5288,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="153"/>
-      <c r="K69" s="153"/>
-      <c r="L69" s="154"/>
-      <c r="M69" s="154"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5305,13 +5305,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="154"/>
-      <c r="M70" s="154"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5322,13 +5322,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="153"/>
-      <c r="K71" s="153"/>
-      <c r="L71" s="154"/>
-      <c r="M71" s="154"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5336,6 +5336,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5360,195 +5549,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5809,9 +5809,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5825,452 +5825,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="166"/>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
-      <c r="AX2" s="166"/>
-      <c r="AY2" s="166"/>
-      <c r="AZ2" s="166"/>
-      <c r="BA2" s="166"/>
-      <c r="BB2" s="166"/>
-      <c r="BC2" s="166"/>
-      <c r="BD2" s="166"/>
-      <c r="BE2" s="166"/>
-      <c r="BF2" s="166"/>
-      <c r="BG2" s="166"/>
-      <c r="BH2" s="166"/>
-      <c r="BI2" s="166"/>
-      <c r="BJ2" s="166"/>
-      <c r="BK2" s="166"/>
-      <c r="BL2" s="166"/>
-      <c r="BM2" s="166"/>
-      <c r="BN2" s="166"/>
-      <c r="BO2" s="166"/>
-      <c r="BP2" s="166"/>
-      <c r="BQ2" s="166"/>
-      <c r="BR2" s="166"/>
-      <c r="BS2" s="166"/>
-      <c r="BT2" s="166"/>
-      <c r="BU2" s="166"/>
-      <c r="BV2" s="166"/>
-      <c r="BW2" s="166"/>
-      <c r="BX2" s="166"/>
-      <c r="BY2" s="166"/>
-      <c r="BZ2" s="166"/>
-      <c r="CA2" s="166"/>
-      <c r="CB2" s="166"/>
-      <c r="CC2" s="166"/>
-      <c r="CD2" s="166"/>
-      <c r="CE2" s="166"/>
-      <c r="CF2" s="166"/>
-      <c r="CG2" s="166"/>
-      <c r="CH2" s="166"/>
-      <c r="CI2" s="166"/>
-      <c r="CJ2" s="166"/>
-      <c r="CK2" s="166"/>
-      <c r="CL2" s="166"/>
-      <c r="CM2" s="166"/>
-      <c r="CN2" s="166"/>
-      <c r="CO2" s="166"/>
-      <c r="CP2" s="166"/>
-      <c r="CQ2" s="166"/>
-      <c r="CR2" s="166"/>
-      <c r="CS2" s="166"/>
-      <c r="CT2" s="166"/>
-      <c r="CU2" s="166"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="136"/>
+      <c r="CK2" s="136"/>
+      <c r="CL2" s="136"/>
+      <c r="CM2" s="136"/>
+      <c r="CN2" s="136"/>
+      <c r="CO2" s="136"/>
+      <c r="CP2" s="136"/>
+      <c r="CQ2" s="136"/>
+      <c r="CR2" s="136"/>
+      <c r="CS2" s="136"/>
+      <c r="CT2" s="136"/>
+      <c r="CU2" s="136"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="166"/>
-      <c r="AK3" s="166"/>
-      <c r="AL3" s="166"/>
-      <c r="AM3" s="166"/>
-      <c r="AN3" s="166"/>
-      <c r="AO3" s="166"/>
-      <c r="AP3" s="166"/>
-      <c r="AQ3" s="166"/>
-      <c r="AR3" s="166"/>
-      <c r="AS3" s="166"/>
-      <c r="AT3" s="166"/>
-      <c r="AU3" s="166"/>
-      <c r="AV3" s="166"/>
-      <c r="AW3" s="166"/>
-      <c r="AX3" s="166"/>
-      <c r="AY3" s="166"/>
-      <c r="AZ3" s="166"/>
-      <c r="BA3" s="166"/>
-      <c r="BB3" s="166"/>
-      <c r="BC3" s="166"/>
-      <c r="BD3" s="166"/>
-      <c r="BE3" s="166"/>
-      <c r="BF3" s="166"/>
-      <c r="BG3" s="166"/>
-      <c r="BH3" s="166"/>
-      <c r="BI3" s="166"/>
-      <c r="BJ3" s="166"/>
-      <c r="BK3" s="166"/>
-      <c r="BL3" s="166"/>
-      <c r="BM3" s="166"/>
-      <c r="BN3" s="166"/>
-      <c r="BO3" s="166"/>
-      <c r="BP3" s="166"/>
-      <c r="BQ3" s="166"/>
-      <c r="BR3" s="166"/>
-      <c r="BS3" s="166"/>
-      <c r="BT3" s="166"/>
-      <c r="BU3" s="166"/>
-      <c r="BV3" s="166"/>
-      <c r="BW3" s="166"/>
-      <c r="BX3" s="166"/>
-      <c r="BY3" s="166"/>
-      <c r="BZ3" s="166"/>
-      <c r="CA3" s="166"/>
-      <c r="CB3" s="166"/>
-      <c r="CC3" s="166"/>
-      <c r="CD3" s="166"/>
-      <c r="CE3" s="166"/>
-      <c r="CF3" s="166"/>
-      <c r="CG3" s="166"/>
-      <c r="CH3" s="166"/>
-      <c r="CI3" s="166"/>
-      <c r="CJ3" s="166"/>
-      <c r="CK3" s="166"/>
-      <c r="CL3" s="166"/>
-      <c r="CM3" s="166"/>
-      <c r="CN3" s="166"/>
-      <c r="CO3" s="166"/>
-      <c r="CP3" s="166"/>
-      <c r="CQ3" s="166"/>
-      <c r="CR3" s="166"/>
-      <c r="CS3" s="166"/>
-      <c r="CT3" s="166"/>
-      <c r="CU3" s="166"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
+      <c r="CG3" s="136"/>
+      <c r="CH3" s="136"/>
+      <c r="CI3" s="136"/>
+      <c r="CJ3" s="136"/>
+      <c r="CK3" s="136"/>
+      <c r="CL3" s="136"/>
+      <c r="CM3" s="136"/>
+      <c r="CN3" s="136"/>
+      <c r="CO3" s="136"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="136"/>
+      <c r="CR3" s="136"/>
+      <c r="CS3" s="136"/>
+      <c r="CT3" s="136"/>
+      <c r="CU3" s="136"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="C5" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="179"/>
-      <c r="Y5" s="179"/>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179"/>
-      <c r="AK5" s="179"/>
-      <c r="AL5" s="179"/>
-      <c r="AM5" s="179"/>
-      <c r="AN5" s="179"/>
-      <c r="AO5" s="179"/>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="179"/>
-      <c r="AR5" s="179"/>
-      <c r="AS5" s="179"/>
-      <c r="AT5" s="179"/>
-      <c r="AU5" s="179"/>
-      <c r="AV5" s="179"/>
-      <c r="AW5" s="179"/>
-      <c r="AX5" s="179"/>
-      <c r="AY5" s="179"/>
-      <c r="AZ5" s="179"/>
-      <c r="BA5" s="179"/>
-      <c r="BB5" s="179"/>
-      <c r="BC5" s="179"/>
-      <c r="BD5" s="180"/>
-      <c r="BE5" s="181" t="s">
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="204"/>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="204"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="204"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="204"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="204"/>
+      <c r="AI5" s="204"/>
+      <c r="AJ5" s="204"/>
+      <c r="AK5" s="204"/>
+      <c r="AL5" s="204"/>
+      <c r="AM5" s="204"/>
+      <c r="AN5" s="204"/>
+      <c r="AO5" s="204"/>
+      <c r="AP5" s="204"/>
+      <c r="AQ5" s="204"/>
+      <c r="AR5" s="204"/>
+      <c r="AS5" s="204"/>
+      <c r="AT5" s="204"/>
+      <c r="AU5" s="204"/>
+      <c r="AV5" s="204"/>
+      <c r="AW5" s="204"/>
+      <c r="AX5" s="204"/>
+      <c r="AY5" s="204"/>
+      <c r="AZ5" s="204"/>
+      <c r="BA5" s="204"/>
+      <c r="BB5" s="204"/>
+      <c r="BC5" s="204"/>
+      <c r="BD5" s="205"/>
+      <c r="BE5" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="182"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="182"/>
-      <c r="BI5" s="182"/>
-      <c r="BJ5" s="182"/>
-      <c r="BK5" s="182"/>
-      <c r="BL5" s="182"/>
-      <c r="BM5" s="182"/>
-      <c r="BN5" s="182"/>
-      <c r="BO5" s="182"/>
-      <c r="BP5" s="182"/>
-      <c r="BQ5" s="182"/>
-      <c r="BR5" s="182"/>
-      <c r="BS5" s="182"/>
-      <c r="BT5" s="182"/>
-      <c r="BU5" s="182"/>
-      <c r="BV5" s="182"/>
-      <c r="BW5" s="182"/>
-      <c r="BX5" s="182"/>
-      <c r="BY5" s="182"/>
-      <c r="BZ5" s="182"/>
-      <c r="CA5" s="182"/>
-      <c r="CB5" s="182"/>
-      <c r="CC5" s="182"/>
-      <c r="CD5" s="182"/>
-      <c r="CE5" s="182"/>
-      <c r="CF5" s="182"/>
-      <c r="CG5" s="182"/>
-      <c r="CH5" s="182"/>
-      <c r="CI5" s="182"/>
-      <c r="CJ5" s="182"/>
-      <c r="CK5" s="182"/>
-      <c r="CL5" s="182"/>
-      <c r="CM5" s="182"/>
-      <c r="CN5" s="182"/>
-      <c r="CO5" s="182"/>
-      <c r="CP5" s="182"/>
-      <c r="CQ5" s="182"/>
-      <c r="CR5" s="183"/>
-      <c r="CS5" s="188" t="s">
+      <c r="BF5" s="207"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="207"/>
+      <c r="BI5" s="207"/>
+      <c r="BJ5" s="207"/>
+      <c r="BK5" s="207"/>
+      <c r="BL5" s="207"/>
+      <c r="BM5" s="207"/>
+      <c r="BN5" s="207"/>
+      <c r="BO5" s="207"/>
+      <c r="BP5" s="207"/>
+      <c r="BQ5" s="207"/>
+      <c r="BR5" s="207"/>
+      <c r="BS5" s="207"/>
+      <c r="BT5" s="207"/>
+      <c r="BU5" s="207"/>
+      <c r="BV5" s="207"/>
+      <c r="BW5" s="207"/>
+      <c r="BX5" s="207"/>
+      <c r="BY5" s="207"/>
+      <c r="BZ5" s="207"/>
+      <c r="CA5" s="207"/>
+      <c r="CB5" s="207"/>
+      <c r="CC5" s="207"/>
+      <c r="CD5" s="207"/>
+      <c r="CE5" s="207"/>
+      <c r="CF5" s="207"/>
+      <c r="CG5" s="207"/>
+      <c r="CH5" s="207"/>
+      <c r="CI5" s="207"/>
+      <c r="CJ5" s="207"/>
+      <c r="CK5" s="207"/>
+      <c r="CL5" s="207"/>
+      <c r="CM5" s="207"/>
+      <c r="CN5" s="207"/>
+      <c r="CO5" s="207"/>
+      <c r="CP5" s="207"/>
+      <c r="CQ5" s="207"/>
+      <c r="CR5" s="208"/>
+      <c r="CS5" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="189"/>
-      <c r="CU5" s="190"/>
+      <c r="CT5" s="196"/>
+      <c r="CU5" s="197"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="175"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="208" t="s">
+      <c r="A6" s="200"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="194" t="s">
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
-      <c r="AF6" s="194"/>
-      <c r="AG6" s="194"/>
-      <c r="AH6" s="194"/>
-      <c r="AI6" s="194"/>
-      <c r="AJ6" s="194"/>
-      <c r="AK6" s="194"/>
-      <c r="AL6" s="194"/>
-      <c r="AM6" s="194"/>
-      <c r="AN6" s="194"/>
-      <c r="AO6" s="194" t="s">
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="181"/>
+      <c r="T6" s="181"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="181"/>
+      <c r="W6" s="181"/>
+      <c r="X6" s="181"/>
+      <c r="Y6" s="181"/>
+      <c r="Z6" s="181"/>
+      <c r="AA6" s="181"/>
+      <c r="AB6" s="181"/>
+      <c r="AC6" s="181"/>
+      <c r="AD6" s="181"/>
+      <c r="AE6" s="181"/>
+      <c r="AF6" s="181"/>
+      <c r="AG6" s="181"/>
+      <c r="AH6" s="181"/>
+      <c r="AI6" s="181"/>
+      <c r="AJ6" s="181"/>
+      <c r="AK6" s="181"/>
+      <c r="AL6" s="181"/>
+      <c r="AM6" s="181"/>
+      <c r="AN6" s="181"/>
+      <c r="AO6" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="194"/>
-      <c r="AQ6" s="194"/>
-      <c r="AR6" s="194"/>
-      <c r="AS6" s="194" t="s">
+      <c r="AP6" s="181"/>
+      <c r="AQ6" s="181"/>
+      <c r="AR6" s="181"/>
+      <c r="AS6" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="194"/>
-      <c r="AU6" s="194"/>
-      <c r="AV6" s="194" t="s">
+      <c r="AT6" s="181"/>
+      <c r="AU6" s="181"/>
+      <c r="AV6" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="194"/>
-      <c r="AX6" s="194"/>
-      <c r="AY6" s="194"/>
-      <c r="AZ6" s="194"/>
-      <c r="BA6" s="194"/>
-      <c r="BB6" s="194"/>
-      <c r="BC6" s="198" t="s">
+      <c r="AW6" s="181"/>
+      <c r="AX6" s="181"/>
+      <c r="AY6" s="181"/>
+      <c r="AZ6" s="181"/>
+      <c r="BA6" s="181"/>
+      <c r="BB6" s="181"/>
+      <c r="BC6" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="199"/>
-      <c r="BE6" s="200" t="s">
+      <c r="BD6" s="189"/>
+      <c r="BE6" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="201"/>
-      <c r="BG6" s="201"/>
-      <c r="BH6" s="201"/>
-      <c r="BI6" s="201"/>
-      <c r="BJ6" s="201"/>
-      <c r="BK6" s="202"/>
-      <c r="BL6" s="203" t="s">
+      <c r="BF6" s="191"/>
+      <c r="BG6" s="191"/>
+      <c r="BH6" s="191"/>
+      <c r="BI6" s="191"/>
+      <c r="BJ6" s="191"/>
+      <c r="BK6" s="192"/>
+      <c r="BL6" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="201"/>
-      <c r="BN6" s="201"/>
-      <c r="BO6" s="201"/>
-      <c r="BP6" s="201"/>
-      <c r="BQ6" s="201"/>
-      <c r="BR6" s="201"/>
-      <c r="BS6" s="201"/>
-      <c r="BT6" s="201"/>
-      <c r="BU6" s="201"/>
-      <c r="BV6" s="201"/>
-      <c r="BW6" s="201"/>
-      <c r="BX6" s="201"/>
-      <c r="BY6" s="201"/>
-      <c r="BZ6" s="201"/>
-      <c r="CA6" s="201"/>
-      <c r="CB6" s="201"/>
-      <c r="CC6" s="201"/>
-      <c r="CD6" s="201"/>
-      <c r="CE6" s="201"/>
-      <c r="CF6" s="201"/>
-      <c r="CG6" s="201"/>
-      <c r="CH6" s="201"/>
-      <c r="CI6" s="201"/>
-      <c r="CJ6" s="201"/>
-      <c r="CK6" s="201"/>
-      <c r="CL6" s="201"/>
-      <c r="CM6" s="201"/>
-      <c r="CN6" s="201"/>
-      <c r="CO6" s="201"/>
-      <c r="CP6" s="201"/>
-      <c r="CQ6" s="191" t="s">
+      <c r="BM6" s="191"/>
+      <c r="BN6" s="191"/>
+      <c r="BO6" s="191"/>
+      <c r="BP6" s="191"/>
+      <c r="BQ6" s="191"/>
+      <c r="BR6" s="191"/>
+      <c r="BS6" s="191"/>
+      <c r="BT6" s="191"/>
+      <c r="BU6" s="191"/>
+      <c r="BV6" s="191"/>
+      <c r="BW6" s="191"/>
+      <c r="BX6" s="191"/>
+      <c r="BY6" s="191"/>
+      <c r="BZ6" s="191"/>
+      <c r="CA6" s="191"/>
+      <c r="CB6" s="191"/>
+      <c r="CC6" s="191"/>
+      <c r="CD6" s="191"/>
+      <c r="CE6" s="191"/>
+      <c r="CF6" s="191"/>
+      <c r="CG6" s="191"/>
+      <c r="CH6" s="191"/>
+      <c r="CI6" s="191"/>
+      <c r="CJ6" s="191"/>
+      <c r="CK6" s="191"/>
+      <c r="CL6" s="191"/>
+      <c r="CM6" s="191"/>
+      <c r="CN6" s="191"/>
+      <c r="CO6" s="191"/>
+      <c r="CP6" s="191"/>
+      <c r="CQ6" s="198" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="191"/>
-      <c r="CS6" s="173" t="s">
+      <c r="CR6" s="198"/>
+      <c r="CS6" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="173" t="s">
+      <c r="CT6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="195" t="s">
+      <c r="CU6" s="185" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="175"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6279,324 +6279,324 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="186">
+      <c r="J7" s="180">
         <v>42982</v>
       </c>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="187">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="184">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="187"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="186"/>
-      <c r="AH7" s="186"/>
-      <c r="AI7" s="186"/>
-      <c r="AJ7" s="186"/>
-      <c r="AK7" s="186"/>
-      <c r="AL7" s="186"/>
-      <c r="AM7" s="186"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="186"/>
-      <c r="AP7" s="186"/>
-      <c r="AQ7" s="186"/>
-      <c r="AR7" s="186"/>
-      <c r="AS7" s="187">
+      <c r="AO7" s="180"/>
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="184">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="187"/>
+      <c r="AT7" s="184"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="186"/>
-      <c r="AW7" s="186"/>
-      <c r="AX7" s="186"/>
-      <c r="AY7" s="186"/>
-      <c r="AZ7" s="187">
+      <c r="AV7" s="180"/>
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="180"/>
+      <c r="AY7" s="180"/>
+      <c r="AZ7" s="184">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="187"/>
+      <c r="BA7" s="184"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="198"/>
-      <c r="BD7" s="199"/>
-      <c r="BE7" s="186"/>
-      <c r="BF7" s="186"/>
-      <c r="BG7" s="186"/>
-      <c r="BH7" s="186"/>
-      <c r="BI7" s="187">
+      <c r="BC7" s="188"/>
+      <c r="BD7" s="189"/>
+      <c r="BE7" s="180"/>
+      <c r="BF7" s="180"/>
+      <c r="BG7" s="180"/>
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="184">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="187"/>
+      <c r="BJ7" s="184"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="186">
+      <c r="BL7" s="180">
         <v>42982</v>
       </c>
-      <c r="BM7" s="186"/>
-      <c r="BN7" s="186">
+      <c r="BM7" s="180"/>
+      <c r="BN7" s="180">
         <v>42982</v>
       </c>
-      <c r="BO7" s="186"/>
-      <c r="BP7" s="186">
+      <c r="BO7" s="180"/>
+      <c r="BP7" s="180">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="186"/>
-      <c r="BR7" s="186"/>
-      <c r="BS7" s="186"/>
-      <c r="BT7" s="186"/>
-      <c r="BU7" s="186"/>
-      <c r="BV7" s="186"/>
-      <c r="BW7" s="186"/>
-      <c r="BX7" s="186"/>
-      <c r="BY7" s="186"/>
-      <c r="BZ7" s="186"/>
-      <c r="CA7" s="186"/>
-      <c r="CB7" s="186"/>
-      <c r="CC7" s="186"/>
-      <c r="CD7" s="186"/>
-      <c r="CE7" s="186"/>
-      <c r="CF7" s="186"/>
-      <c r="CG7" s="186"/>
-      <c r="CH7" s="186"/>
-      <c r="CI7" s="186"/>
-      <c r="CJ7" s="186"/>
-      <c r="CK7" s="186"/>
-      <c r="CL7" s="186"/>
-      <c r="CM7" s="186"/>
-      <c r="CN7" s="187"/>
-      <c r="CO7" s="187"/>
+      <c r="BQ7" s="180"/>
+      <c r="BR7" s="180"/>
+      <c r="BS7" s="180"/>
+      <c r="BT7" s="180"/>
+      <c r="BU7" s="180"/>
+      <c r="BV7" s="180"/>
+      <c r="BW7" s="180"/>
+      <c r="BX7" s="180"/>
+      <c r="BY7" s="180"/>
+      <c r="BZ7" s="180"/>
+      <c r="CA7" s="180"/>
+      <c r="CB7" s="180"/>
+      <c r="CC7" s="180"/>
+      <c r="CD7" s="180"/>
+      <c r="CE7" s="180"/>
+      <c r="CF7" s="180"/>
+      <c r="CG7" s="180"/>
+      <c r="CH7" s="180"/>
+      <c r="CI7" s="180"/>
+      <c r="CJ7" s="180"/>
+      <c r="CK7" s="180"/>
+      <c r="CL7" s="180"/>
+      <c r="CM7" s="180"/>
+      <c r="CN7" s="184"/>
+      <c r="CO7" s="184"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="191"/>
-      <c r="CR7" s="191"/>
-      <c r="CS7" s="173"/>
-      <c r="CT7" s="173"/>
-      <c r="CU7" s="196"/>
+      <c r="CQ7" s="198"/>
+      <c r="CR7" s="198"/>
+      <c r="CS7" s="194"/>
+      <c r="CT7" s="194"/>
+      <c r="CU7" s="186"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="184" t="s">
+      <c r="A8" s="200"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184" t="s">
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185" t="s">
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185" t="s">
+      <c r="K8" s="173"/>
+      <c r="L8" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185" t="s">
+      <c r="M8" s="173"/>
+      <c r="N8" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185" t="s">
+      <c r="O8" s="173"/>
+      <c r="P8" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185" t="s">
+      <c r="Q8" s="173"/>
+      <c r="R8" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185" t="s">
+      <c r="S8" s="173"/>
+      <c r="T8" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185" t="s">
+      <c r="U8" s="173"/>
+      <c r="V8" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185" t="s">
+      <c r="W8" s="173"/>
+      <c r="X8" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="185" t="s">
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="185"/>
-      <c r="AB8" s="185" t="s">
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="185"/>
-      <c r="AD8" s="185" t="s">
+      <c r="AC8" s="173"/>
+      <c r="AD8" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="185" t="s">
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="185"/>
-      <c r="AH8" s="185" t="s">
+      <c r="AG8" s="173"/>
+      <c r="AH8" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="185"/>
-      <c r="AJ8" s="185" t="s">
+      <c r="AI8" s="173"/>
+      <c r="AJ8" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="185"/>
-      <c r="AL8" s="185" t="s">
+      <c r="AK8" s="173"/>
+      <c r="AL8" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="185"/>
+      <c r="AM8" s="173"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="185" t="s">
+      <c r="AO8" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="185"/>
-      <c r="AQ8" s="185" t="s">
+      <c r="AP8" s="173"/>
+      <c r="AQ8" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="185"/>
-      <c r="AS8" s="185" t="s">
+      <c r="AR8" s="173"/>
+      <c r="AS8" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="185"/>
+      <c r="AT8" s="173"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="185" t="s">
+      <c r="AV8" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="185"/>
-      <c r="AX8" s="185" t="s">
+      <c r="AW8" s="173"/>
+      <c r="AX8" s="173" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="185"/>
-      <c r="AZ8" s="185" t="s">
+      <c r="AY8" s="173"/>
+      <c r="AZ8" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="185"/>
+      <c r="BA8" s="173"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="198"/>
-      <c r="BD8" s="199"/>
-      <c r="BE8" s="207" t="s">
+      <c r="BC8" s="188"/>
+      <c r="BD8" s="189"/>
+      <c r="BE8" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="204"/>
-      <c r="BG8" s="204" t="s">
+      <c r="BF8" s="182"/>
+      <c r="BG8" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="204"/>
-      <c r="BI8" s="204" t="s">
+      <c r="BH8" s="182"/>
+      <c r="BI8" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="204"/>
+      <c r="BJ8" s="182"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="205" t="s">
+      <c r="BL8" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="206"/>
-      <c r="BN8" s="205" t="s">
+      <c r="BM8" s="177"/>
+      <c r="BN8" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="206"/>
-      <c r="BP8" s="205" t="s">
+      <c r="BO8" s="177"/>
+      <c r="BP8" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="206"/>
-      <c r="BR8" s="205" t="s">
+      <c r="BQ8" s="177"/>
+      <c r="BR8" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="206"/>
-      <c r="BT8" s="205" t="s">
+      <c r="BS8" s="177"/>
+      <c r="BT8" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="206"/>
-      <c r="BV8" s="192" t="s">
+      <c r="BU8" s="177"/>
+      <c r="BV8" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="193"/>
-      <c r="BX8" s="192" t="s">
+      <c r="BW8" s="175"/>
+      <c r="BX8" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="193"/>
-      <c r="BZ8" s="192" t="s">
+      <c r="BY8" s="175"/>
+      <c r="BZ8" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="193"/>
-      <c r="CB8" s="192" t="s">
+      <c r="CA8" s="175"/>
+      <c r="CB8" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="193"/>
-      <c r="CD8" s="192" t="s">
+      <c r="CC8" s="175"/>
+      <c r="CD8" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="193"/>
-      <c r="CF8" s="192" t="s">
+      <c r="CE8" s="175"/>
+      <c r="CF8" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="193"/>
-      <c r="CH8" s="192" t="s">
+      <c r="CG8" s="175"/>
+      <c r="CH8" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="193"/>
-      <c r="CJ8" s="192" t="s">
+      <c r="CI8" s="175"/>
+      <c r="CJ8" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="193"/>
-      <c r="CL8" s="192" t="s">
+      <c r="CK8" s="175"/>
+      <c r="CL8" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="193"/>
-      <c r="CN8" s="192" t="s">
+      <c r="CM8" s="175"/>
+      <c r="CN8" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="193"/>
+      <c r="CO8" s="175"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="191"/>
-      <c r="CR8" s="191"/>
-      <c r="CS8" s="173"/>
-      <c r="CT8" s="173"/>
-      <c r="CU8" s="196"/>
+      <c r="CQ8" s="198"/>
+      <c r="CR8" s="198"/>
+      <c r="CS8" s="194"/>
+      <c r="CT8" s="194"/>
+      <c r="CU8" s="186"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
+      <c r="A9" s="201"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6758,9 +6758,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="173"/>
-      <c r="CT9" s="173"/>
-      <c r="CU9" s="197"/>
+      <c r="CS9" s="194"/>
+      <c r="CT9" s="194"/>
+      <c r="CU9" s="187"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7027,14 +7027,16 @@
         <f>CONCATENATE(REGISTRATION!C12," ",REGISTRATION!D12," ",REGISTRATION!E12)</f>
         <v>Alvarez Daryl L</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="108">
+        <v>44</v>
+      </c>
       <c r="E11" s="92">
         <f>(D11/$D$9)*100</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F11" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="92" t="e">
@@ -7139,11 +7141,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>13</v>
+        <v>26.2</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>13</v>
+        <v>26.2</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92" t="str">
@@ -7259,7 +7261,7 @@
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>5.2</v>
+        <v>10.48</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9317,14 +9319,16 @@
         <f>CONCATENATE(REGISTRATION!C21," ",REGISTRATION!D21," ",REGISTRATION!E21)</f>
         <v>Eleptico Raygin F.</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="108">
+        <v>34</v>
+      </c>
       <c r="E20" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F20" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="92" t="e">
@@ -9429,11 +9433,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92" t="str">
@@ -9543,7 +9547,7 @@
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>4.8000000000000007</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12095,14 +12099,16 @@
         <f>CONCATENATE(REGISTRATION!C32," ",REGISTRATION!D32," ",REGISTRATION!E32)</f>
         <v>Tequel Marvin B</v>
       </c>
-      <c r="D31" s="108"/>
+      <c r="D31" s="108">
+        <v>42</v>
+      </c>
       <c r="E31" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F31" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="G31" s="108"/>
       <c r="H31" s="92" t="e">
@@ -12207,11 +12213,11 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>26.6</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>26.6</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92" t="str">
@@ -12321,7 +12327,7 @@
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>5.6000000000000005</v>
+        <v>10.64</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22009,6 +22015,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22025,88 +22113,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22375,7 +22381,7 @@
       </c>
       <c r="C9" s="57">
         <f>'RAW GRADES'!F11</f>
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="D9" s="89" t="str">
         <f>'RAW GRADES'!I11</f>
@@ -22395,11 +22401,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>13</v>
+        <v>26.2</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>13</v>
+        <v>26.2</v>
       </c>
       <c r="J9" s="52" t="str">
         <f>'RAW GRADES'!BK11</f>
@@ -22419,7 +22425,7 @@
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>5.2</v>
+        <v>10.48</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22960,7 +22966,7 @@
       </c>
       <c r="C18" s="57">
         <f>'RAW GRADES'!F20</f>
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D18" s="89" t="str">
         <f>'RAW GRADES'!I20</f>
@@ -22980,11 +22986,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="J18" s="52" t="str">
         <f>'RAW GRADES'!BK20</f>
@@ -23004,7 +23010,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>4.8000000000000007</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23675,7 +23681,7 @@
       </c>
       <c r="C29" s="57">
         <f>'RAW GRADES'!F31</f>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="D29" s="89" t="str">
         <f>'RAW GRADES'!I31</f>
@@ -23695,11 +23701,11 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>14</v>
+        <v>26.6</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>14</v>
+        <v>26.6</v>
       </c>
       <c r="J29" s="52" t="str">
         <f>'RAW GRADES'!BK31</f>
@@ -23719,7 +23725,7 @@
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>5.6000000000000005</v>
+        <v>10.64</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -26321,106 +26327,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="226"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="227" t="s">
+      <c r="A4" s="260" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="228"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="261"/>
+      <c r="D5" s="261"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="262" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="229"/>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="B7" s="262"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="262"/>
+      <c r="F7" s="262"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="230"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="A8" s="263"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="226"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
+      <c r="A9" s="257"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="231"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
+      <c r="A10" s="264"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="265" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="230"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
+      <c r="A12" s="263"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="263"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="233" t="str">
+      <c r="C13" s="266" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26428,12 +26434,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="225" t="str">
+      <c r="C14" s="259" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="225"/>
-      <c r="E14" s="225"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26441,12 +26447,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="236" t="str">
+      <c r="C15" s="245" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="236"/>
-      <c r="E15" s="236"/>
+      <c r="D15" s="245"/>
+      <c r="E15" s="245"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26454,12 +26460,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="236" t="str">
+      <c r="C16" s="245" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="236"/>
-      <c r="E16" s="236"/>
+      <c r="D16" s="245"/>
+      <c r="E16" s="245"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26467,12 +26473,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="236" t="str">
+      <c r="C17" s="245" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26484,42 +26490,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="237" t="s">
+      <c r="A19" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="237" t="s">
+      <c r="C19" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="237" t="s">
+      <c r="D19" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="242" t="s">
+      <c r="E19" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="237" t="s">
+      <c r="F19" s="246" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="238"/>
-      <c r="B20" s="241"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="245"/>
+      <c r="A20" s="247"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="254"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="239"/>
+      <c r="A21" s="248"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="D21" s="239"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="246"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="255"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28032,14 +28038,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="253" t="s">
+      <c r="A83" s="229" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="254"/>
-      <c r="C83" s="254"/>
-      <c r="D83" s="254"/>
-      <c r="E83" s="254"/>
-      <c r="F83" s="255"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="230"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="230"/>
+      <c r="F83" s="231"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28072,11 +28078,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="247">
+      <c r="E87" s="256">
         <f ca="1">NOW()</f>
-        <v>43014.377816319444</v>
-      </c>
-      <c r="F87" s="247"/>
+        <v>43019.518719675929</v>
+      </c>
+      <c r="F87" s="256"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28086,10 +28092,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="226" t="s">
+      <c r="E88" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="226"/>
+      <c r="F88" s="257"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28106,8 +28112,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="226"/>
-      <c r="F90" s="226"/>
+      <c r="E90" s="257"/>
+      <c r="F90" s="257"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28223,14 +28229,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="248" t="s">
+      <c r="A105" s="258" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="248"/>
-      <c r="C105" s="248"/>
-      <c r="D105" s="248"/>
-      <c r="E105" s="248"/>
-      <c r="F105" s="248"/>
+      <c r="B105" s="258"/>
+      <c r="C105" s="258"/>
+      <c r="D105" s="258"/>
+      <c r="E105" s="258"/>
+      <c r="F105" s="258"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28245,124 +28251,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="266" t="s">
+      <c r="C107" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="235"/>
-      <c r="E107" s="234" t="s">
+      <c r="D107" s="243"/>
+      <c r="E107" s="244" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="235"/>
+      <c r="F107" s="243"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="262">
+      <c r="C108" s="238">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="263"/>
-      <c r="E108" s="264">
+      <c r="D108" s="239"/>
+      <c r="E108" s="240">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="265"/>
+      <c r="F108" s="241"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="256">
+      <c r="C109" s="232">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="257"/>
-      <c r="E109" s="258">
+      <c r="D109" s="233"/>
+      <c r="E109" s="234">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="259"/>
+      <c r="F109" s="235"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="256">
+      <c r="C110" s="232">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="257"/>
-      <c r="E110" s="258">
+      <c r="D110" s="233"/>
+      <c r="E110" s="234">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="259"/>
+      <c r="F110" s="235"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="256">
+      <c r="C111" s="232">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="257"/>
-      <c r="E111" s="258">
+      <c r="D111" s="233"/>
+      <c r="E111" s="234">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="259"/>
+      <c r="F111" s="235"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="260">
-        <v>0</v>
-      </c>
-      <c r="D112" s="261"/>
-      <c r="E112" s="258">
+      <c r="C112" s="236">
+        <v>0</v>
+      </c>
+      <c r="D112" s="237"/>
+      <c r="E112" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="259"/>
+      <c r="F112" s="235"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="260">
-        <v>0</v>
-      </c>
-      <c r="D113" s="261"/>
-      <c r="E113" s="258">
+      <c r="C113" s="236">
+        <v>0</v>
+      </c>
+      <c r="D113" s="237"/>
+      <c r="E113" s="234">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="259"/>
+      <c r="F113" s="235"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="249">
+      <c r="C114" s="225">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="250"/>
-      <c r="E114" s="251">
+      <c r="D114" s="226"/>
+      <c r="E114" s="227">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="252"/>
+      <c r="F114" s="228"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28530,6 +28536,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28546,32 +28578,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -2278,91 +2278,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2402,129 +2348,96 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2565,6 +2478,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2623,6 +2623,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2696,102 +2792,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3715,7 +3715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3748,82 +3748,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="165" t="s">
+      <c r="A6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="166"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3831,28 +3831,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="167"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="170"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="171" t="s">
+      <c r="E7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="171"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3860,28 +3860,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="171" t="s">
+      <c r="J7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="171"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="152"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3889,45 +3889,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="153" t="s">
+      <c r="J8" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="160" t="s">
+      <c r="G9" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="143" t="s">
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="143" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="144"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="156"/>
-      <c r="B10" s="158"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3937,14 +3937,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3965,19 +3965,19 @@
       <c r="F11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="148"/>
-      <c r="O11" s="137" t="s">
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="157"/>
+      <c r="O11" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="169"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3998,21 +3998,21 @@
       <c r="F12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
+      <c r="Q12" s="165"/>
+      <c r="R12" s="165"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4033,21 +4033,21 @@
       <c r="F13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="132" t="s">
+      <c r="P13" s="165" t="s">
         <v>229</v>
       </c>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="165"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4068,21 +4068,21 @@
       <c r="F14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="129" t="s">
+      <c r="P14" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4103,21 +4103,21 @@
       <c r="F15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4138,21 +4138,21 @@
       <c r="F16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="140" t="s">
+      <c r="P16" s="170" t="s">
         <v>230</v>
       </c>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="172"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4173,21 +4173,21 @@
       <c r="F17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="162" t="s">
         <v>166</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4208,13 +4208,13 @@
       <c r="F18" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4235,13 +4235,13 @@
       <c r="F19" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4260,13 +4260,13 @@
       <c r="F20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4287,13 +4287,13 @@
       <c r="F21" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4317,13 +4317,13 @@
       <c r="F22" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4350,13 +4350,13 @@
       <c r="F23" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4383,13 +4383,13 @@
       <c r="F24" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4416,13 +4416,13 @@
       <c r="F25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4449,13 +4449,13 @@
       <c r="F26" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4482,13 +4482,13 @@
       <c r="F27" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F28" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F29" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F30" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F31" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4643,13 +4643,13 @@
       <c r="F32" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4676,13 +4676,13 @@
       <c r="F33" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="134"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4693,13 +4693,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4710,13 +4710,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4727,13 +4727,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4744,13 +4744,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4761,13 +4761,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="153"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4778,13 +4778,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4795,13 +4795,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4812,13 +4812,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4829,13 +4829,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4846,13 +4846,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4863,13 +4863,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="153"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4880,13 +4880,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4897,13 +4897,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4914,13 +4914,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4931,13 +4931,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="153"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4948,13 +4948,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="153"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4965,13 +4965,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="153"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4982,13 +4982,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4999,13 +4999,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5016,13 +5016,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5033,13 +5033,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5050,13 +5050,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5067,13 +5067,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="153"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5084,13 +5084,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="153"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5101,13 +5101,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="153"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5118,13 +5118,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="153"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5135,13 +5135,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5152,13 +5152,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5169,13 +5169,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5186,13 +5186,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5203,13 +5203,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5220,13 +5220,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5237,13 +5237,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="154"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5254,13 +5254,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5271,13 +5271,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="154"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5288,13 +5288,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="134"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
+      <c r="L69" s="154"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5305,13 +5305,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="135"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5322,13 +5322,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="154"/>
+      <c r="M71" s="154"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5336,195 +5336,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5549,6 +5360,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5809,9 +5809,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP32" sqref="BP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5825,452 +5825,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
-      <c r="BR2" s="136"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="136"/>
-      <c r="BU2" s="136"/>
-      <c r="BV2" s="136"/>
-      <c r="BW2" s="136"/>
-      <c r="BX2" s="136"/>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="136"/>
-      <c r="CK2" s="136"/>
-      <c r="CL2" s="136"/>
-      <c r="CM2" s="136"/>
-      <c r="CN2" s="136"/>
-      <c r="CO2" s="136"/>
-      <c r="CP2" s="136"/>
-      <c r="CQ2" s="136"/>
-      <c r="CR2" s="136"/>
-      <c r="CS2" s="136"/>
-      <c r="CT2" s="136"/>
-      <c r="CU2" s="136"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="166"/>
+      <c r="AY2" s="166"/>
+      <c r="AZ2" s="166"/>
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
+      <c r="BI2" s="166"/>
+      <c r="BJ2" s="166"/>
+      <c r="BK2" s="166"/>
+      <c r="BL2" s="166"/>
+      <c r="BM2" s="166"/>
+      <c r="BN2" s="166"/>
+      <c r="BO2" s="166"/>
+      <c r="BP2" s="166"/>
+      <c r="BQ2" s="166"/>
+      <c r="BR2" s="166"/>
+      <c r="BS2" s="166"/>
+      <c r="BT2" s="166"/>
+      <c r="BU2" s="166"/>
+      <c r="BV2" s="166"/>
+      <c r="BW2" s="166"/>
+      <c r="BX2" s="166"/>
+      <c r="BY2" s="166"/>
+      <c r="BZ2" s="166"/>
+      <c r="CA2" s="166"/>
+      <c r="CB2" s="166"/>
+      <c r="CC2" s="166"/>
+      <c r="CD2" s="166"/>
+      <c r="CE2" s="166"/>
+      <c r="CF2" s="166"/>
+      <c r="CG2" s="166"/>
+      <c r="CH2" s="166"/>
+      <c r="CI2" s="166"/>
+      <c r="CJ2" s="166"/>
+      <c r="CK2" s="166"/>
+      <c r="CL2" s="166"/>
+      <c r="CM2" s="166"/>
+      <c r="CN2" s="166"/>
+      <c r="CO2" s="166"/>
+      <c r="CP2" s="166"/>
+      <c r="CQ2" s="166"/>
+      <c r="CR2" s="166"/>
+      <c r="CS2" s="166"/>
+      <c r="CT2" s="166"/>
+      <c r="CU2" s="166"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
-      <c r="CG3" s="136"/>
-      <c r="CH3" s="136"/>
-      <c r="CI3" s="136"/>
-      <c r="CJ3" s="136"/>
-      <c r="CK3" s="136"/>
-      <c r="CL3" s="136"/>
-      <c r="CM3" s="136"/>
-      <c r="CN3" s="136"/>
-      <c r="CO3" s="136"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="136"/>
-      <c r="CR3" s="136"/>
-      <c r="CS3" s="136"/>
-      <c r="CT3" s="136"/>
-      <c r="CU3" s="136"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="166"/>
+      <c r="AU3" s="166"/>
+      <c r="AV3" s="166"/>
+      <c r="AW3" s="166"/>
+      <c r="AX3" s="166"/>
+      <c r="AY3" s="166"/>
+      <c r="AZ3" s="166"/>
+      <c r="BA3" s="166"/>
+      <c r="BB3" s="166"/>
+      <c r="BC3" s="166"/>
+      <c r="BD3" s="166"/>
+      <c r="BE3" s="166"/>
+      <c r="BF3" s="166"/>
+      <c r="BG3" s="166"/>
+      <c r="BH3" s="166"/>
+      <c r="BI3" s="166"/>
+      <c r="BJ3" s="166"/>
+      <c r="BK3" s="166"/>
+      <c r="BL3" s="166"/>
+      <c r="BM3" s="166"/>
+      <c r="BN3" s="166"/>
+      <c r="BO3" s="166"/>
+      <c r="BP3" s="166"/>
+      <c r="BQ3" s="166"/>
+      <c r="BR3" s="166"/>
+      <c r="BS3" s="166"/>
+      <c r="BT3" s="166"/>
+      <c r="BU3" s="166"/>
+      <c r="BV3" s="166"/>
+      <c r="BW3" s="166"/>
+      <c r="BX3" s="166"/>
+      <c r="BY3" s="166"/>
+      <c r="BZ3" s="166"/>
+      <c r="CA3" s="166"/>
+      <c r="CB3" s="166"/>
+      <c r="CC3" s="166"/>
+      <c r="CD3" s="166"/>
+      <c r="CE3" s="166"/>
+      <c r="CF3" s="166"/>
+      <c r="CG3" s="166"/>
+      <c r="CH3" s="166"/>
+      <c r="CI3" s="166"/>
+      <c r="CJ3" s="166"/>
+      <c r="CK3" s="166"/>
+      <c r="CL3" s="166"/>
+      <c r="CM3" s="166"/>
+      <c r="CN3" s="166"/>
+      <c r="CO3" s="166"/>
+      <c r="CP3" s="166"/>
+      <c r="CQ3" s="166"/>
+      <c r="CR3" s="166"/>
+      <c r="CS3" s="166"/>
+      <c r="CT3" s="166"/>
+      <c r="CU3" s="166"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="202" t="s">
+      <c r="B5" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="202" t="s">
+      <c r="C5" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="204"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="204"/>
-      <c r="P5" s="204"/>
-      <c r="Q5" s="204"/>
-      <c r="R5" s="204"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="204"/>
-      <c r="W5" s="204"/>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="204"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="204"/>
-      <c r="AF5" s="204"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="204"/>
-      <c r="AI5" s="204"/>
-      <c r="AJ5" s="204"/>
-      <c r="AK5" s="204"/>
-      <c r="AL5" s="204"/>
-      <c r="AM5" s="204"/>
-      <c r="AN5" s="204"/>
-      <c r="AO5" s="204"/>
-      <c r="AP5" s="204"/>
-      <c r="AQ5" s="204"/>
-      <c r="AR5" s="204"/>
-      <c r="AS5" s="204"/>
-      <c r="AT5" s="204"/>
-      <c r="AU5" s="204"/>
-      <c r="AV5" s="204"/>
-      <c r="AW5" s="204"/>
-      <c r="AX5" s="204"/>
-      <c r="AY5" s="204"/>
-      <c r="AZ5" s="204"/>
-      <c r="BA5" s="204"/>
-      <c r="BB5" s="204"/>
-      <c r="BC5" s="204"/>
-      <c r="BD5" s="205"/>
-      <c r="BE5" s="206" t="s">
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="179"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="179"/>
+      <c r="W5" s="179"/>
+      <c r="X5" s="179"/>
+      <c r="Y5" s="179"/>
+      <c r="Z5" s="179"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="179"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="179"/>
+      <c r="AE5" s="179"/>
+      <c r="AF5" s="179"/>
+      <c r="AG5" s="179"/>
+      <c r="AH5" s="179"/>
+      <c r="AI5" s="179"/>
+      <c r="AJ5" s="179"/>
+      <c r="AK5" s="179"/>
+      <c r="AL5" s="179"/>
+      <c r="AM5" s="179"/>
+      <c r="AN5" s="179"/>
+      <c r="AO5" s="179"/>
+      <c r="AP5" s="179"/>
+      <c r="AQ5" s="179"/>
+      <c r="AR5" s="179"/>
+      <c r="AS5" s="179"/>
+      <c r="AT5" s="179"/>
+      <c r="AU5" s="179"/>
+      <c r="AV5" s="179"/>
+      <c r="AW5" s="179"/>
+      <c r="AX5" s="179"/>
+      <c r="AY5" s="179"/>
+      <c r="AZ5" s="179"/>
+      <c r="BA5" s="179"/>
+      <c r="BB5" s="179"/>
+      <c r="BC5" s="179"/>
+      <c r="BD5" s="180"/>
+      <c r="BE5" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="207"/>
-      <c r="BG5" s="207"/>
-      <c r="BH5" s="207"/>
-      <c r="BI5" s="207"/>
-      <c r="BJ5" s="207"/>
-      <c r="BK5" s="207"/>
-      <c r="BL5" s="207"/>
-      <c r="BM5" s="207"/>
-      <c r="BN5" s="207"/>
-      <c r="BO5" s="207"/>
-      <c r="BP5" s="207"/>
-      <c r="BQ5" s="207"/>
-      <c r="BR5" s="207"/>
-      <c r="BS5" s="207"/>
-      <c r="BT5" s="207"/>
-      <c r="BU5" s="207"/>
-      <c r="BV5" s="207"/>
-      <c r="BW5" s="207"/>
-      <c r="BX5" s="207"/>
-      <c r="BY5" s="207"/>
-      <c r="BZ5" s="207"/>
-      <c r="CA5" s="207"/>
-      <c r="CB5" s="207"/>
-      <c r="CC5" s="207"/>
-      <c r="CD5" s="207"/>
-      <c r="CE5" s="207"/>
-      <c r="CF5" s="207"/>
-      <c r="CG5" s="207"/>
-      <c r="CH5" s="207"/>
-      <c r="CI5" s="207"/>
-      <c r="CJ5" s="207"/>
-      <c r="CK5" s="207"/>
-      <c r="CL5" s="207"/>
-      <c r="CM5" s="207"/>
-      <c r="CN5" s="207"/>
-      <c r="CO5" s="207"/>
-      <c r="CP5" s="207"/>
-      <c r="CQ5" s="207"/>
-      <c r="CR5" s="208"/>
-      <c r="CS5" s="195" t="s">
+      <c r="BF5" s="182"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="182"/>
+      <c r="BI5" s="182"/>
+      <c r="BJ5" s="182"/>
+      <c r="BK5" s="182"/>
+      <c r="BL5" s="182"/>
+      <c r="BM5" s="182"/>
+      <c r="BN5" s="182"/>
+      <c r="BO5" s="182"/>
+      <c r="BP5" s="182"/>
+      <c r="BQ5" s="182"/>
+      <c r="BR5" s="182"/>
+      <c r="BS5" s="182"/>
+      <c r="BT5" s="182"/>
+      <c r="BU5" s="182"/>
+      <c r="BV5" s="182"/>
+      <c r="BW5" s="182"/>
+      <c r="BX5" s="182"/>
+      <c r="BY5" s="182"/>
+      <c r="BZ5" s="182"/>
+      <c r="CA5" s="182"/>
+      <c r="CB5" s="182"/>
+      <c r="CC5" s="182"/>
+      <c r="CD5" s="182"/>
+      <c r="CE5" s="182"/>
+      <c r="CF5" s="182"/>
+      <c r="CG5" s="182"/>
+      <c r="CH5" s="182"/>
+      <c r="CI5" s="182"/>
+      <c r="CJ5" s="182"/>
+      <c r="CK5" s="182"/>
+      <c r="CL5" s="182"/>
+      <c r="CM5" s="182"/>
+      <c r="CN5" s="182"/>
+      <c r="CO5" s="182"/>
+      <c r="CP5" s="182"/>
+      <c r="CQ5" s="182"/>
+      <c r="CR5" s="183"/>
+      <c r="CS5" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="196"/>
-      <c r="CU5" s="197"/>
+      <c r="CT5" s="189"/>
+      <c r="CU5" s="190"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="200"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="178" t="s">
+      <c r="A6" s="175"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="181" t="s">
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="194" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="181"/>
-      <c r="O6" s="181"/>
-      <c r="P6" s="181"/>
-      <c r="Q6" s="181"/>
-      <c r="R6" s="181"/>
-      <c r="S6" s="181"/>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
-      <c r="W6" s="181"/>
-      <c r="X6" s="181"/>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="181"/>
-      <c r="AA6" s="181"/>
-      <c r="AB6" s="181"/>
-      <c r="AC6" s="181"/>
-      <c r="AD6" s="181"/>
-      <c r="AE6" s="181"/>
-      <c r="AF6" s="181"/>
-      <c r="AG6" s="181"/>
-      <c r="AH6" s="181"/>
-      <c r="AI6" s="181"/>
-      <c r="AJ6" s="181"/>
-      <c r="AK6" s="181"/>
-      <c r="AL6" s="181"/>
-      <c r="AM6" s="181"/>
-      <c r="AN6" s="181"/>
-      <c r="AO6" s="181" t="s">
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="194"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="194"/>
+      <c r="AK6" s="194"/>
+      <c r="AL6" s="194"/>
+      <c r="AM6" s="194"/>
+      <c r="AN6" s="194"/>
+      <c r="AO6" s="194" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="181"/>
-      <c r="AQ6" s="181"/>
-      <c r="AR6" s="181"/>
-      <c r="AS6" s="181" t="s">
+      <c r="AP6" s="194"/>
+      <c r="AQ6" s="194"/>
+      <c r="AR6" s="194"/>
+      <c r="AS6" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="181"/>
-      <c r="AU6" s="181"/>
-      <c r="AV6" s="181" t="s">
+      <c r="AT6" s="194"/>
+      <c r="AU6" s="194"/>
+      <c r="AV6" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="181"/>
-      <c r="AX6" s="181"/>
-      <c r="AY6" s="181"/>
-      <c r="AZ6" s="181"/>
-      <c r="BA6" s="181"/>
-      <c r="BB6" s="181"/>
-      <c r="BC6" s="188" t="s">
+      <c r="AW6" s="194"/>
+      <c r="AX6" s="194"/>
+      <c r="AY6" s="194"/>
+      <c r="AZ6" s="194"/>
+      <c r="BA6" s="194"/>
+      <c r="BB6" s="194"/>
+      <c r="BC6" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="189"/>
-      <c r="BE6" s="190" t="s">
+      <c r="BD6" s="199"/>
+      <c r="BE6" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="191"/>
-      <c r="BG6" s="191"/>
-      <c r="BH6" s="191"/>
-      <c r="BI6" s="191"/>
-      <c r="BJ6" s="191"/>
-      <c r="BK6" s="192"/>
-      <c r="BL6" s="193" t="s">
+      <c r="BF6" s="201"/>
+      <c r="BG6" s="201"/>
+      <c r="BH6" s="201"/>
+      <c r="BI6" s="201"/>
+      <c r="BJ6" s="201"/>
+      <c r="BK6" s="202"/>
+      <c r="BL6" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="191"/>
-      <c r="BN6" s="191"/>
-      <c r="BO6" s="191"/>
-      <c r="BP6" s="191"/>
-      <c r="BQ6" s="191"/>
-      <c r="BR6" s="191"/>
-      <c r="BS6" s="191"/>
-      <c r="BT6" s="191"/>
-      <c r="BU6" s="191"/>
-      <c r="BV6" s="191"/>
-      <c r="BW6" s="191"/>
-      <c r="BX6" s="191"/>
-      <c r="BY6" s="191"/>
-      <c r="BZ6" s="191"/>
-      <c r="CA6" s="191"/>
-      <c r="CB6" s="191"/>
-      <c r="CC6" s="191"/>
-      <c r="CD6" s="191"/>
-      <c r="CE6" s="191"/>
-      <c r="CF6" s="191"/>
-      <c r="CG6" s="191"/>
-      <c r="CH6" s="191"/>
-      <c r="CI6" s="191"/>
-      <c r="CJ6" s="191"/>
-      <c r="CK6" s="191"/>
-      <c r="CL6" s="191"/>
-      <c r="CM6" s="191"/>
-      <c r="CN6" s="191"/>
-      <c r="CO6" s="191"/>
-      <c r="CP6" s="191"/>
-      <c r="CQ6" s="198" t="s">
+      <c r="BM6" s="201"/>
+      <c r="BN6" s="201"/>
+      <c r="BO6" s="201"/>
+      <c r="BP6" s="201"/>
+      <c r="BQ6" s="201"/>
+      <c r="BR6" s="201"/>
+      <c r="BS6" s="201"/>
+      <c r="BT6" s="201"/>
+      <c r="BU6" s="201"/>
+      <c r="BV6" s="201"/>
+      <c r="BW6" s="201"/>
+      <c r="BX6" s="201"/>
+      <c r="BY6" s="201"/>
+      <c r="BZ6" s="201"/>
+      <c r="CA6" s="201"/>
+      <c r="CB6" s="201"/>
+      <c r="CC6" s="201"/>
+      <c r="CD6" s="201"/>
+      <c r="CE6" s="201"/>
+      <c r="CF6" s="201"/>
+      <c r="CG6" s="201"/>
+      <c r="CH6" s="201"/>
+      <c r="CI6" s="201"/>
+      <c r="CJ6" s="201"/>
+      <c r="CK6" s="201"/>
+      <c r="CL6" s="201"/>
+      <c r="CM6" s="201"/>
+      <c r="CN6" s="201"/>
+      <c r="CO6" s="201"/>
+      <c r="CP6" s="201"/>
+      <c r="CQ6" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="198"/>
-      <c r="CS6" s="194" t="s">
+      <c r="CR6" s="191"/>
+      <c r="CS6" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="194" t="s">
+      <c r="CT6" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="185" t="s">
+      <c r="CU6" s="195" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="200"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
+      <c r="A7" s="175"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6279,324 +6279,327 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="186">
         <v>42982</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="184">
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="186"/>
+      <c r="Q7" s="186"/>
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="187">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="184"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="186"/>
+      <c r="Z7" s="186"/>
+      <c r="AA7" s="186"/>
+      <c r="AB7" s="186"/>
+      <c r="AC7" s="186"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="186"/>
+      <c r="AF7" s="186"/>
+      <c r="AG7" s="186"/>
+      <c r="AH7" s="186"/>
+      <c r="AI7" s="186"/>
+      <c r="AJ7" s="186"/>
+      <c r="AK7" s="186"/>
+      <c r="AL7" s="186"/>
+      <c r="AM7" s="186"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180"/>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="184">
+      <c r="AO7" s="186"/>
+      <c r="AP7" s="186"/>
+      <c r="AQ7" s="186"/>
+      <c r="AR7" s="186"/>
+      <c r="AS7" s="187">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="184"/>
+      <c r="AT7" s="187"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180"/>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="184">
+      <c r="AV7" s="186"/>
+      <c r="AW7" s="186"/>
+      <c r="AX7" s="186"/>
+      <c r="AY7" s="186"/>
+      <c r="AZ7" s="187">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="184"/>
+      <c r="BA7" s="187"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="188"/>
-      <c r="BD7" s="189"/>
-      <c r="BE7" s="180"/>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180"/>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="184">
+      <c r="BC7" s="198"/>
+      <c r="BD7" s="199"/>
+      <c r="BE7" s="186"/>
+      <c r="BF7" s="186"/>
+      <c r="BG7" s="186"/>
+      <c r="BH7" s="186"/>
+      <c r="BI7" s="187">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>0</v>
       </c>
-      <c r="BJ7" s="184"/>
+      <c r="BJ7" s="187"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="186">
         <v>42982</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="186"/>
+      <c r="BN7" s="186">
         <v>42982</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="186"/>
+      <c r="BP7" s="186">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180"/>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180"/>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180"/>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180"/>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180"/>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180"/>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180"/>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="184"/>
-      <c r="CO7" s="184"/>
+      <c r="BQ7" s="186"/>
+      <c r="BR7" s="186"/>
+      <c r="BS7" s="186"/>
+      <c r="BT7" s="186"/>
+      <c r="BU7" s="186"/>
+      <c r="BV7" s="186"/>
+      <c r="BW7" s="186"/>
+      <c r="BX7" s="186"/>
+      <c r="BY7" s="186"/>
+      <c r="BZ7" s="186"/>
+      <c r="CA7" s="186"/>
+      <c r="CB7" s="186"/>
+      <c r="CC7" s="186"/>
+      <c r="CD7" s="186"/>
+      <c r="CE7" s="186"/>
+      <c r="CF7" s="186"/>
+      <c r="CG7" s="186"/>
+      <c r="CH7" s="186"/>
+      <c r="CI7" s="186"/>
+      <c r="CJ7" s="186"/>
+      <c r="CK7" s="186"/>
+      <c r="CL7" s="186"/>
+      <c r="CM7" s="186"/>
+      <c r="CN7" s="187">
+        <f>COUNT(BL9,BN9,BP9,BR9,BT9,BV9,BX9,BZ9,CB9,CD9,CF9,CH9,CJ9,CL9,CN9)</f>
+        <v>3</v>
+      </c>
+      <c r="CO7" s="187"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="198"/>
-      <c r="CR7" s="198"/>
-      <c r="CS7" s="194"/>
-      <c r="CT7" s="194"/>
-      <c r="CU7" s="186"/>
+      <c r="CQ7" s="191"/>
+      <c r="CR7" s="191"/>
+      <c r="CS7" s="173"/>
+      <c r="CT7" s="173"/>
+      <c r="CU7" s="196"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="200"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="209" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
-      <c r="J8" s="173" t="s">
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173" t="s">
+      <c r="K8" s="185"/>
+      <c r="L8" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173" t="s">
+      <c r="M8" s="185"/>
+      <c r="N8" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173" t="s">
+      <c r="O8" s="185"/>
+      <c r="P8" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173" t="s">
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173" t="s">
+      <c r="S8" s="185"/>
+      <c r="T8" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173" t="s">
+      <c r="U8" s="185"/>
+      <c r="V8" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173" t="s">
+      <c r="W8" s="185"/>
+      <c r="X8" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173" t="s">
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173" t="s">
+      <c r="AA8" s="185"/>
+      <c r="AB8" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173" t="s">
+      <c r="AC8" s="185"/>
+      <c r="AD8" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173" t="s">
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173" t="s">
+      <c r="AG8" s="185"/>
+      <c r="AH8" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173" t="s">
+      <c r="AI8" s="185"/>
+      <c r="AJ8" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="173" t="s">
+      <c r="AK8" s="185"/>
+      <c r="AL8" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="173"/>
+      <c r="AM8" s="185"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="173" t="s">
+      <c r="AO8" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="173"/>
-      <c r="AQ8" s="173" t="s">
+      <c r="AP8" s="185"/>
+      <c r="AQ8" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="173"/>
-      <c r="AS8" s="173" t="s">
+      <c r="AR8" s="185"/>
+      <c r="AS8" s="185" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="173"/>
+      <c r="AT8" s="185"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="173" t="s">
+      <c r="AV8" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="173"/>
-      <c r="AX8" s="173" t="s">
+      <c r="AW8" s="185"/>
+      <c r="AX8" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="173"/>
-      <c r="AZ8" s="173" t="s">
+      <c r="AY8" s="185"/>
+      <c r="AZ8" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="173"/>
+      <c r="BA8" s="185"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="188"/>
-      <c r="BD8" s="189"/>
-      <c r="BE8" s="183" t="s">
+      <c r="BC8" s="198"/>
+      <c r="BD8" s="199"/>
+      <c r="BE8" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="182"/>
-      <c r="BG8" s="182" t="s">
+      <c r="BF8" s="204"/>
+      <c r="BG8" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="182"/>
-      <c r="BI8" s="182" t="s">
+      <c r="BH8" s="204"/>
+      <c r="BI8" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="182"/>
+      <c r="BJ8" s="204"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="176" t="s">
+      <c r="BL8" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="177"/>
-      <c r="BN8" s="176" t="s">
+      <c r="BM8" s="206"/>
+      <c r="BN8" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="177"/>
-      <c r="BP8" s="176" t="s">
+      <c r="BO8" s="206"/>
+      <c r="BP8" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="177"/>
-      <c r="BR8" s="176" t="s">
+      <c r="BQ8" s="206"/>
+      <c r="BR8" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="177"/>
-      <c r="BT8" s="176" t="s">
+      <c r="BS8" s="206"/>
+      <c r="BT8" s="205" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="177"/>
-      <c r="BV8" s="174" t="s">
+      <c r="BU8" s="206"/>
+      <c r="BV8" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="175"/>
-      <c r="BX8" s="174" t="s">
+      <c r="BW8" s="193"/>
+      <c r="BX8" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="175"/>
-      <c r="BZ8" s="174" t="s">
+      <c r="BY8" s="193"/>
+      <c r="BZ8" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="175"/>
-      <c r="CB8" s="174" t="s">
+      <c r="CA8" s="193"/>
+      <c r="CB8" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="175"/>
-      <c r="CD8" s="174" t="s">
+      <c r="CC8" s="193"/>
+      <c r="CD8" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="175"/>
-      <c r="CF8" s="174" t="s">
+      <c r="CE8" s="193"/>
+      <c r="CF8" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="175"/>
-      <c r="CH8" s="174" t="s">
+      <c r="CG8" s="193"/>
+      <c r="CH8" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="175"/>
-      <c r="CJ8" s="174" t="s">
+      <c r="CI8" s="193"/>
+      <c r="CJ8" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="175"/>
-      <c r="CL8" s="174" t="s">
+      <c r="CK8" s="193"/>
+      <c r="CL8" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="175"/>
-      <c r="CN8" s="174" t="s">
+      <c r="CM8" s="193"/>
+      <c r="CN8" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="175"/>
+      <c r="CO8" s="193"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="198"/>
-      <c r="CR8" s="198"/>
-      <c r="CS8" s="194"/>
-      <c r="CT8" s="194"/>
-      <c r="CU8" s="186"/>
+      <c r="CQ8" s="191"/>
+      <c r="CR8" s="191"/>
+      <c r="CS8" s="173"/>
+      <c r="CT8" s="173"/>
+      <c r="CU8" s="196"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6758,9 +6761,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="194"/>
-      <c r="CT9" s="194"/>
-      <c r="CU9" s="187"/>
+      <c r="CS9" s="173"/>
+      <c r="CT9" s="173"/>
+      <c r="CU9" s="197"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -6989,9 +6992,9 @@
         <f>IFERROR(((CN10/$CN$9)*100),"")</f>
         <v/>
       </c>
-      <c r="CP10" s="103" t="str">
+      <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
@@ -7247,21 +7250,21 @@
         <f t="shared" ref="CO11:CO70" si="37">IFERROR(((CN11/$CN$9)*100),"")</f>
         <v/>
       </c>
-      <c r="CP11" s="103" t="str">
+      <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>10.48</v>
+        <v>40.480000000000004</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7499,9 +7502,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP12" s="103" t="str">
+      <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
@@ -7751,9 +7754,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP13" s="103" t="str">
+      <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
@@ -8001,9 +8004,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP14" s="103" t="str">
+      <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
@@ -8257,21 +8260,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP15" s="103" t="str">
+      <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>13.680000000000001</v>
+        <v>33.677999999999997</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8513,21 +8516,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP16" s="103" t="str">
+      <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>13.680000000000001</v>
+        <v>33.677999999999997</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8769,21 +8772,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP17" s="103" t="str">
+      <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>10.8</v>
+        <v>30.797999999999998</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9025,21 +9028,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP18" s="103" t="str">
+      <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>13.880000000000003</v>
+        <v>33.878</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9281,21 +9284,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP19" s="103" t="str">
+      <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>11.840000000000002</v>
+        <v>31.838000000000001</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9533,9 +9536,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP20" s="103" t="str">
+      <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
@@ -9783,9 +9786,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP21" s="103" t="str">
+      <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
@@ -10035,9 +10038,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP22" s="103" t="str">
+      <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
@@ -10285,9 +10288,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP23" s="103" t="str">
+      <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
@@ -10541,21 +10544,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP24" s="103" t="str">
+      <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>11.16</v>
+        <v>31.157999999999998</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10793,9 +10796,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP25" s="103" t="str">
+      <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
@@ -11049,21 +11052,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP26" s="103" t="str">
+      <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>8.36</v>
+        <v>28.357999999999997</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11305,21 +11308,21 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP27" s="103" t="str">
+      <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>9.4400000000000013</v>
+        <v>29.437999999999999</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11557,9 +11560,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP28" s="103" t="str">
+      <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
@@ -11809,9 +11812,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP29" s="103" t="str">
+      <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
@@ -12061,9 +12064,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP30" s="103" t="str">
+      <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
@@ -12313,9 +12316,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP31" s="103" t="str">
+      <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
@@ -12351,14 +12354,16 @@
         <f>CONCATENATE(REGISTRATION!C33," ",REGISTRATION!D33," ",REGISTRATION!E33)</f>
         <v>Yabut Christian John J</v>
       </c>
-      <c r="D32" s="108"/>
+      <c r="D32" s="108">
+        <v>67</v>
+      </c>
       <c r="E32" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F32" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.099999999999998</v>
       </c>
       <c r="G32" s="108"/>
       <c r="H32" s="92" t="e">
@@ -12463,11 +12468,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>35.1</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92" t="str">
@@ -12563,9 +12568,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP32" s="103" t="str">
+      <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
@@ -12577,7 +12582,7 @@
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>6</v>
+        <v>14.040000000000001</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12811,9 +12816,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP33" s="103" t="str">
+      <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
@@ -13059,9 +13064,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP34" s="103" t="str">
+      <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
@@ -13307,9 +13312,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP35" s="103" t="str">
+      <c r="CP35" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ35" s="99">
         <f t="shared" si="39"/>
@@ -13555,9 +13560,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP36" s="103" t="str">
+      <c r="CP36" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ36" s="99">
         <f t="shared" si="39"/>
@@ -13803,9 +13808,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP37" s="103" t="str">
+      <c r="CP37" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ37" s="99">
         <f t="shared" si="39"/>
@@ -14051,9 +14056,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP38" s="103" t="str">
+      <c r="CP38" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ38" s="99">
         <f t="shared" si="39"/>
@@ -14299,9 +14304,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP39" s="103" t="str">
+      <c r="CP39" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ39" s="99">
         <f t="shared" si="39"/>
@@ -14547,9 +14552,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP40" s="103" t="str">
+      <c r="CP40" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ40" s="99">
         <f t="shared" si="39"/>
@@ -14795,9 +14800,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP41" s="103" t="str">
+      <c r="CP41" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ41" s="99">
         <f t="shared" si="39"/>
@@ -15043,9 +15048,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP42" s="103" t="str">
+      <c r="CP42" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ42" s="99">
         <f t="shared" si="39"/>
@@ -15291,9 +15296,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP43" s="103" t="str">
+      <c r="CP43" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ43" s="99">
         <f t="shared" si="39"/>
@@ -15539,9 +15544,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP44" s="103" t="str">
+      <c r="CP44" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ44" s="99">
         <f t="shared" si="39"/>
@@ -15787,9 +15792,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP45" s="103" t="str">
+      <c r="CP45" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ45" s="99">
         <f t="shared" si="39"/>
@@ -16035,9 +16040,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP46" s="103" t="str">
+      <c r="CP46" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ46" s="99">
         <f t="shared" si="39"/>
@@ -16283,9 +16288,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP47" s="103" t="str">
+      <c r="CP47" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ47" s="99">
         <f t="shared" si="39"/>
@@ -16531,9 +16536,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP48" s="103" t="str">
+      <c r="CP48" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ48" s="99">
         <f t="shared" si="39"/>
@@ -16779,9 +16784,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP49" s="103" t="str">
+      <c r="CP49" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ49" s="99">
         <f t="shared" si="39"/>
@@ -17027,9 +17032,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP50" s="103" t="str">
+      <c r="CP50" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ50" s="99">
         <f t="shared" si="39"/>
@@ -17275,9 +17280,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP51" s="103" t="str">
+      <c r="CP51" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ51" s="99">
         <f t="shared" si="39"/>
@@ -17523,9 +17528,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP52" s="103" t="str">
+      <c r="CP52" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ52" s="99">
         <f t="shared" si="39"/>
@@ -17771,9 +17776,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP53" s="103" t="str">
+      <c r="CP53" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ53" s="99">
         <f t="shared" si="39"/>
@@ -18019,9 +18024,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP54" s="103" t="str">
+      <c r="CP54" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ54" s="99">
         <f t="shared" si="39"/>
@@ -18267,9 +18272,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP55" s="103" t="str">
+      <c r="CP55" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ55" s="99">
         <f t="shared" si="39"/>
@@ -18515,9 +18520,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP56" s="103" t="str">
+      <c r="CP56" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ56" s="99">
         <f t="shared" si="39"/>
@@ -18763,9 +18768,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP57" s="103" t="str">
+      <c r="CP57" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ57" s="99">
         <f t="shared" si="39"/>
@@ -19011,9 +19016,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP58" s="103" t="str">
+      <c r="CP58" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ58" s="99">
         <f t="shared" si="39"/>
@@ -19259,9 +19264,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP59" s="103" t="str">
+      <c r="CP59" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ59" s="99">
         <f t="shared" si="39"/>
@@ -19507,9 +19512,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP60" s="103" t="str">
+      <c r="CP60" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ60" s="99">
         <f t="shared" si="39"/>
@@ -19755,9 +19760,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP61" s="103" t="str">
+      <c r="CP61" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ61" s="99">
         <f t="shared" si="39"/>
@@ -20003,9 +20008,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP62" s="103" t="str">
+      <c r="CP62" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ62" s="99">
         <f t="shared" si="39"/>
@@ -20251,9 +20256,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP63" s="103" t="str">
+      <c r="CP63" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ63" s="99">
         <f t="shared" si="39"/>
@@ -20499,9 +20504,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP64" s="103" t="str">
+      <c r="CP64" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ64" s="99">
         <f t="shared" si="39"/>
@@ -20747,9 +20752,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP65" s="103" t="str">
+      <c r="CP65" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ65" s="99">
         <f t="shared" si="39"/>
@@ -20995,9 +21000,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP66" s="103" t="str">
+      <c r="CP66" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ66" s="99">
         <f t="shared" si="39"/>
@@ -21243,9 +21248,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP67" s="103" t="str">
+      <c r="CP67" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ67" s="99">
         <f t="shared" si="39"/>
@@ -21491,9 +21496,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP68" s="103" t="str">
+      <c r="CP68" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ68" s="99">
         <f t="shared" si="39"/>
@@ -21739,9 +21744,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP69" s="110" t="str">
+      <c r="CP69" s="110">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ69" s="99">
         <f t="shared" si="39"/>
@@ -21987,9 +21992,9 @@
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="CP70" s="103" t="str">
+      <c r="CP70" s="103">
         <f t="shared" si="38"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CQ70" s="99">
         <f t="shared" si="39"/>
@@ -22015,6 +22020,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22031,88 +22118,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22346,9 +22351,9 @@
         <f>'RAW GRADES'!BK10</f>
         <v/>
       </c>
-      <c r="K8" s="52" t="str">
+      <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
@@ -22411,21 +22416,21 @@
         <f>'RAW GRADES'!BK11</f>
         <v/>
       </c>
-      <c r="K9" s="52" t="str">
+      <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>10.48</v>
+        <v>40.480000000000004</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -22476,9 +22481,9 @@
         <f>'RAW GRADES'!BK12</f>
         <v/>
       </c>
-      <c r="K10" s="52" t="str">
+      <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
@@ -22541,9 +22546,9 @@
         <f>'RAW GRADES'!BK13</f>
         <v/>
       </c>
-      <c r="K11" s="52" t="str">
+      <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
@@ -22606,9 +22611,9 @@
         <f>'RAW GRADES'!BK14</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
@@ -22671,21 +22676,21 @@
         <f>'RAW GRADES'!BK15</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
+      <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>13.680000000000001</v>
+        <v>33.677999999999997</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -22736,21 +22741,21 @@
         <f>'RAW GRADES'!BK16</f>
         <v/>
       </c>
-      <c r="K14" s="52" t="str">
+      <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>13.680000000000001</v>
+        <v>33.677999999999997</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -22801,21 +22806,21 @@
         <f>'RAW GRADES'!BK17</f>
         <v/>
       </c>
-      <c r="K15" s="52" t="str">
+      <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>10.8</v>
+        <v>30.797999999999998</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -22866,21 +22871,21 @@
         <f>'RAW GRADES'!BK18</f>
         <v/>
       </c>
-      <c r="K16" s="52" t="str">
+      <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>13.880000000000003</v>
+        <v>33.878</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -22931,21 +22936,21 @@
         <f>'RAW GRADES'!BK19</f>
         <v/>
       </c>
-      <c r="K17" s="52" t="str">
+      <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>11.840000000000002</v>
+        <v>31.838000000000001</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -22996,9 +23001,9 @@
         <f>'RAW GRADES'!BK20</f>
         <v/>
       </c>
-      <c r="K18" s="52" t="str">
+      <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
@@ -23061,9 +23066,9 @@
         <f>'RAW GRADES'!BK21</f>
         <v/>
       </c>
-      <c r="K19" s="52" t="str">
+      <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
@@ -23126,9 +23131,9 @@
         <f>'RAW GRADES'!BK22</f>
         <v/>
       </c>
-      <c r="K20" s="52" t="str">
+      <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
@@ -23191,9 +23196,9 @@
         <f>'RAW GRADES'!BK23</f>
         <v/>
       </c>
-      <c r="K21" s="52" t="str">
+      <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
@@ -23256,21 +23261,21 @@
         <f>'RAW GRADES'!BK24</f>
         <v/>
       </c>
-      <c r="K22" s="52" t="str">
+      <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>11.16</v>
+        <v>31.157999999999998</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -23321,9 +23326,9 @@
         <f>'RAW GRADES'!BK25</f>
         <v/>
       </c>
-      <c r="K23" s="52" t="str">
+      <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
@@ -23386,21 +23391,21 @@
         <f>'RAW GRADES'!BK26</f>
         <v/>
       </c>
-      <c r="K24" s="52" t="str">
+      <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>8.36</v>
+        <v>28.357999999999997</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -23451,21 +23456,21 @@
         <f>'RAW GRADES'!BK27</f>
         <v/>
       </c>
-      <c r="K25" s="52" t="str">
+      <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>9.4400000000000013</v>
+        <v>29.437999999999999</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -23516,9 +23521,9 @@
         <f>'RAW GRADES'!BK28</f>
         <v/>
       </c>
-      <c r="K26" s="52" t="str">
+      <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
@@ -23581,9 +23586,9 @@
         <f>'RAW GRADES'!BK29</f>
         <v/>
       </c>
-      <c r="K27" s="52" t="str">
+      <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
@@ -23646,9 +23651,9 @@
         <f>'RAW GRADES'!BK30</f>
         <v/>
       </c>
-      <c r="K28" s="52" t="str">
+      <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
@@ -23711,9 +23716,9 @@
         <f>'RAW GRADES'!BK31</f>
         <v/>
       </c>
-      <c r="K29" s="52" t="str">
+      <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
@@ -23746,7 +23751,7 @@
       </c>
       <c r="C30" s="57">
         <f>'RAW GRADES'!F32</f>
-        <v>0</v>
+        <v>20.099999999999998</v>
       </c>
       <c r="D30" s="89" t="str">
         <f>'RAW GRADES'!I32</f>
@@ -23766,19 +23771,19 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>15</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>15</v>
+        <v>35.1</v>
       </c>
       <c r="J30" s="52" t="str">
         <f>'RAW GRADES'!BK32</f>
         <v/>
       </c>
-      <c r="K30" s="52" t="str">
+      <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
@@ -23790,7 +23795,7 @@
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>6</v>
+        <v>14.040000000000001</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -23841,9 +23846,9 @@
         <f>'RAW GRADES'!BK33</f>
         <v/>
       </c>
-      <c r="K31" s="52" t="str">
+      <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
@@ -23906,9 +23911,9 @@
         <f>'RAW GRADES'!BK34</f>
         <v/>
       </c>
-      <c r="K32" s="52" t="str">
+      <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
@@ -23971,9 +23976,9 @@
         <f>'RAW GRADES'!BK35</f>
         <v/>
       </c>
-      <c r="K33" s="52" t="str">
+      <c r="K33" s="52">
         <f>'RAW GRADES'!CP35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L33" s="52">
         <f>'RAW GRADES'!CQ35</f>
@@ -24036,9 +24041,9 @@
         <f>'RAW GRADES'!BK36</f>
         <v/>
       </c>
-      <c r="K34" s="52" t="str">
+      <c r="K34" s="52">
         <f>'RAW GRADES'!CP36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L34" s="52">
         <f>'RAW GRADES'!CQ36</f>
@@ -24101,9 +24106,9 @@
         <f>'RAW GRADES'!BK37</f>
         <v/>
       </c>
-      <c r="K35" s="52" t="str">
+      <c r="K35" s="52">
         <f>'RAW GRADES'!CP37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L35" s="52">
         <f>'RAW GRADES'!CQ37</f>
@@ -24166,9 +24171,9 @@
         <f>'RAW GRADES'!BK38</f>
         <v/>
       </c>
-      <c r="K36" s="52" t="str">
+      <c r="K36" s="52">
         <f>'RAW GRADES'!CP38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L36" s="52">
         <f>'RAW GRADES'!CQ38</f>
@@ -24231,9 +24236,9 @@
         <f>'RAW GRADES'!BK39</f>
         <v/>
       </c>
-      <c r="K37" s="52" t="str">
+      <c r="K37" s="52">
         <f>'RAW GRADES'!CP39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L37" s="52">
         <f>'RAW GRADES'!CQ39</f>
@@ -24296,9 +24301,9 @@
         <f>'RAW GRADES'!BK40</f>
         <v/>
       </c>
-      <c r="K38" s="52" t="str">
+      <c r="K38" s="52">
         <f>'RAW GRADES'!CP40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L38" s="52">
         <f>'RAW GRADES'!CQ40</f>
@@ -24361,9 +24366,9 @@
         <f>'RAW GRADES'!BK41</f>
         <v/>
       </c>
-      <c r="K39" s="52" t="str">
+      <c r="K39" s="52">
         <f>'RAW GRADES'!CP41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L39" s="52">
         <f>'RAW GRADES'!CQ41</f>
@@ -24426,9 +24431,9 @@
         <f>'RAW GRADES'!BK42</f>
         <v/>
       </c>
-      <c r="K40" s="52" t="str">
+      <c r="K40" s="52">
         <f>'RAW GRADES'!CP42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L40" s="52">
         <f>'RAW GRADES'!CQ42</f>
@@ -24491,9 +24496,9 @@
         <f>'RAW GRADES'!BK43</f>
         <v/>
       </c>
-      <c r="K41" s="52" t="str">
+      <c r="K41" s="52">
         <f>'RAW GRADES'!CP43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L41" s="52">
         <f>'RAW GRADES'!CQ43</f>
@@ -24556,9 +24561,9 @@
         <f>'RAW GRADES'!BK44</f>
         <v/>
       </c>
-      <c r="K42" s="52" t="str">
+      <c r="K42" s="52">
         <f>'RAW GRADES'!CP44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L42" s="52">
         <f>'RAW GRADES'!CQ44</f>
@@ -24621,9 +24626,9 @@
         <f>'RAW GRADES'!BK45</f>
         <v/>
       </c>
-      <c r="K43" s="52" t="str">
+      <c r="K43" s="52">
         <f>'RAW GRADES'!CP45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L43" s="52">
         <f>'RAW GRADES'!CQ45</f>
@@ -24686,9 +24691,9 @@
         <f>'RAW GRADES'!BK46</f>
         <v/>
       </c>
-      <c r="K44" s="52" t="str">
+      <c r="K44" s="52">
         <f>'RAW GRADES'!CP46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L44" s="52">
         <f>'RAW GRADES'!CQ46</f>
@@ -24751,9 +24756,9 @@
         <f>'RAW GRADES'!BK47</f>
         <v/>
       </c>
-      <c r="K45" s="52" t="str">
+      <c r="K45" s="52">
         <f>'RAW GRADES'!CP47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L45" s="52">
         <f>'RAW GRADES'!CQ47</f>
@@ -24816,9 +24821,9 @@
         <f>'RAW GRADES'!BK48</f>
         <v/>
       </c>
-      <c r="K46" s="52" t="str">
+      <c r="K46" s="52">
         <f>'RAW GRADES'!CP48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L46" s="52">
         <f>'RAW GRADES'!CQ48</f>
@@ -24881,9 +24886,9 @@
         <f>'RAW GRADES'!BK49</f>
         <v/>
       </c>
-      <c r="K47" s="52" t="str">
+      <c r="K47" s="52">
         <f>'RAW GRADES'!CP49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L47" s="52">
         <f>'RAW GRADES'!CQ49</f>
@@ -24946,9 +24951,9 @@
         <f>'RAW GRADES'!BK50</f>
         <v/>
       </c>
-      <c r="K48" s="52" t="str">
+      <c r="K48" s="52">
         <f>'RAW GRADES'!CP50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L48" s="52">
         <f>'RAW GRADES'!CQ50</f>
@@ -25011,9 +25016,9 @@
         <f>'RAW GRADES'!BK51</f>
         <v/>
       </c>
-      <c r="K49" s="52" t="str">
+      <c r="K49" s="52">
         <f>'RAW GRADES'!CP51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L49" s="52">
         <f>'RAW GRADES'!CQ51</f>
@@ -25076,9 +25081,9 @@
         <f>'RAW GRADES'!BK52</f>
         <v/>
       </c>
-      <c r="K50" s="52" t="str">
+      <c r="K50" s="52">
         <f>'RAW GRADES'!CP52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L50" s="52">
         <f>'RAW GRADES'!CQ52</f>
@@ -25141,9 +25146,9 @@
         <f>'RAW GRADES'!BK53</f>
         <v/>
       </c>
-      <c r="K51" s="52" t="str">
+      <c r="K51" s="52">
         <f>'RAW GRADES'!CP53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L51" s="52">
         <f>'RAW GRADES'!CQ53</f>
@@ -25206,9 +25211,9 @@
         <f>'RAW GRADES'!BK54</f>
         <v/>
       </c>
-      <c r="K52" s="52" t="str">
+      <c r="K52" s="52">
         <f>'RAW GRADES'!CP54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L52" s="52">
         <f>'RAW GRADES'!CQ54</f>
@@ -25271,9 +25276,9 @@
         <f>'RAW GRADES'!BK55</f>
         <v/>
       </c>
-      <c r="K53" s="52" t="str">
+      <c r="K53" s="52">
         <f>'RAW GRADES'!CP55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L53" s="52">
         <f>'RAW GRADES'!CQ55</f>
@@ -25336,9 +25341,9 @@
         <f>'RAW GRADES'!BK56</f>
         <v/>
       </c>
-      <c r="K54" s="52" t="str">
+      <c r="K54" s="52">
         <f>'RAW GRADES'!CP56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L54" s="52">
         <f>'RAW GRADES'!CQ56</f>
@@ -25401,9 +25406,9 @@
         <f>'RAW GRADES'!BK57</f>
         <v/>
       </c>
-      <c r="K55" s="52" t="str">
+      <c r="K55" s="52">
         <f>'RAW GRADES'!CP57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L55" s="52">
         <f>'RAW GRADES'!CQ57</f>
@@ -25466,9 +25471,9 @@
         <f>'RAW GRADES'!BK58</f>
         <v/>
       </c>
-      <c r="K56" s="52" t="str">
+      <c r="K56" s="52">
         <f>'RAW GRADES'!CP58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L56" s="52">
         <f>'RAW GRADES'!CQ58</f>
@@ -25531,9 +25536,9 @@
         <f>'RAW GRADES'!BK59</f>
         <v/>
       </c>
-      <c r="K57" s="52" t="str">
+      <c r="K57" s="52">
         <f>'RAW GRADES'!CP59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L57" s="52">
         <f>'RAW GRADES'!CQ59</f>
@@ -25596,9 +25601,9 @@
         <f>'RAW GRADES'!BK60</f>
         <v/>
       </c>
-      <c r="K58" s="52" t="str">
+      <c r="K58" s="52">
         <f>'RAW GRADES'!CP60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L58" s="52">
         <f>'RAW GRADES'!CQ60</f>
@@ -25661,9 +25666,9 @@
         <f>'RAW GRADES'!BK61</f>
         <v/>
       </c>
-      <c r="K59" s="52" t="str">
+      <c r="K59" s="52">
         <f>'RAW GRADES'!CP61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L59" s="52">
         <f>'RAW GRADES'!CQ61</f>
@@ -25726,9 +25731,9 @@
         <f>'RAW GRADES'!BK62</f>
         <v/>
       </c>
-      <c r="K60" s="52" t="str">
+      <c r="K60" s="52">
         <f>'RAW GRADES'!CP62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L60" s="52">
         <f>'RAW GRADES'!CQ62</f>
@@ -25791,9 +25796,9 @@
         <f>'RAW GRADES'!BK63</f>
         <v/>
       </c>
-      <c r="K61" s="52" t="str">
+      <c r="K61" s="52">
         <f>'RAW GRADES'!CP63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L61" s="52">
         <f>'RAW GRADES'!CQ63</f>
@@ -25856,9 +25861,9 @@
         <f>'RAW GRADES'!BK64</f>
         <v/>
       </c>
-      <c r="K62" s="52" t="str">
+      <c r="K62" s="52">
         <f>'RAW GRADES'!CP64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L62" s="52">
         <f>'RAW GRADES'!CQ64</f>
@@ -25921,9 +25926,9 @@
         <f>'RAW GRADES'!BK65</f>
         <v/>
       </c>
-      <c r="K63" s="52" t="str">
+      <c r="K63" s="52">
         <f>'RAW GRADES'!CP65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L63" s="52">
         <f>'RAW GRADES'!CQ65</f>
@@ -25986,9 +25991,9 @@
         <f>'RAW GRADES'!BK66</f>
         <v/>
       </c>
-      <c r="K64" s="52" t="str">
+      <c r="K64" s="52">
         <f>'RAW GRADES'!CP66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L64" s="52">
         <f>'RAW GRADES'!CQ66</f>
@@ -26051,9 +26056,9 @@
         <f>'RAW GRADES'!BK67</f>
         <v/>
       </c>
-      <c r="K65" s="52" t="str">
+      <c r="K65" s="52">
         <f>'RAW GRADES'!CP67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L65" s="52">
         <f>'RAW GRADES'!CQ67</f>
@@ -26116,9 +26121,9 @@
         <f>'RAW GRADES'!BK68</f>
         <v/>
       </c>
-      <c r="K66" s="52" t="str">
+      <c r="K66" s="52">
         <f>'RAW GRADES'!CP68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L66" s="52">
         <f>'RAW GRADES'!CQ68</f>
@@ -26181,9 +26186,9 @@
         <f>'RAW GRADES'!BK69</f>
         <v/>
       </c>
-      <c r="K67" s="52" t="str">
+      <c r="K67" s="52">
         <f>'RAW GRADES'!CP69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L67" s="52">
         <f>'RAW GRADES'!CQ69</f>
@@ -26246,9 +26251,9 @@
         <f>'RAW GRADES'!BK70</f>
         <v/>
       </c>
-      <c r="K68" s="52" t="str">
+      <c r="K68" s="52">
         <f>'RAW GRADES'!CP70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L68" s="52">
         <f>'RAW GRADES'!CQ70</f>
@@ -26327,106 +26332,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="257"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
+      <c r="A3" s="226"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="260" t="s">
+      <c r="A4" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
+      <c r="B5" s="228"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="260" t="s">
+      <c r="A6" s="227" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="227"/>
+      <c r="E6" s="227"/>
+      <c r="F6" s="227"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="262" t="s">
+      <c r="A7" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="262"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="263"/>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="257"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="264"/>
-      <c r="B10" s="264"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="263"/>
-      <c r="B12" s="263"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="266" t="str">
+      <c r="C13" s="233" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -26434,12 +26439,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="259" t="str">
+      <c r="C14" s="225" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -26447,12 +26452,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="245" t="str">
+      <c r="C15" s="236" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="245"/>
-      <c r="E15" s="245"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="236"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -26460,12 +26465,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="245" t="str">
+      <c r="C16" s="236" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="245"/>
-      <c r="E16" s="245"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -26473,12 +26478,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="245" t="str">
+      <c r="C17" s="236" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="245"/>
-      <c r="E17" s="245"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -26490,42 +26495,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="246" t="s">
+      <c r="A19" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="249" t="s">
+      <c r="B19" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="246" t="s">
+      <c r="C19" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="246" t="s">
+      <c r="D19" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="251" t="s">
+      <c r="E19" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="246" t="s">
+      <c r="F19" s="237" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="247"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="254"/>
+      <c r="A20" s="238"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="245"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="248"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="255"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="239"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="246"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28038,14 +28043,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="229" t="s">
+      <c r="A83" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="230"/>
-      <c r="C83" s="230"/>
-      <c r="D83" s="230"/>
-      <c r="E83" s="230"/>
-      <c r="F83" s="231"/>
+      <c r="B83" s="254"/>
+      <c r="C83" s="254"/>
+      <c r="D83" s="254"/>
+      <c r="E83" s="254"/>
+      <c r="F83" s="255"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28078,11 +28083,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="256">
+      <c r="E87" s="247">
         <f ca="1">NOW()</f>
-        <v>43019.518719675929</v>
-      </c>
-      <c r="F87" s="256"/>
+        <v>43021.823642129631</v>
+      </c>
+      <c r="F87" s="247"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28092,10 +28097,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="257" t="s">
+      <c r="E88" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="257"/>
+      <c r="F88" s="226"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28112,8 +28117,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="257"/>
-      <c r="F90" s="257"/>
+      <c r="E90" s="226"/>
+      <c r="F90" s="226"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28229,14 +28234,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="258" t="s">
+      <c r="A105" s="248" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="258"/>
-      <c r="C105" s="258"/>
-      <c r="D105" s="258"/>
-      <c r="E105" s="258"/>
-      <c r="F105" s="258"/>
+      <c r="B105" s="248"/>
+      <c r="C105" s="248"/>
+      <c r="D105" s="248"/>
+      <c r="E105" s="248"/>
+      <c r="F105" s="248"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28251,124 +28256,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="242" t="s">
+      <c r="C107" s="266" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="243"/>
-      <c r="E107" s="244" t="s">
+      <c r="D107" s="235"/>
+      <c r="E107" s="234" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="243"/>
+      <c r="F107" s="235"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="238">
+      <c r="C108" s="262">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="239"/>
-      <c r="E108" s="240">
+      <c r="D108" s="263"/>
+      <c r="E108" s="264">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="241"/>
+      <c r="F108" s="265"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="232">
+      <c r="C109" s="256">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="233"/>
-      <c r="E109" s="234">
+      <c r="D109" s="257"/>
+      <c r="E109" s="258">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="235"/>
+      <c r="F109" s="259"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="232">
+      <c r="C110" s="256">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="233"/>
-      <c r="E110" s="234">
+      <c r="D110" s="257"/>
+      <c r="E110" s="258">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="235"/>
+      <c r="F110" s="259"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="232">
+      <c r="C111" s="256">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="233"/>
-      <c r="E111" s="234">
+      <c r="D111" s="257"/>
+      <c r="E111" s="258">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="235"/>
+      <c r="F111" s="259"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="236">
-        <v>0</v>
-      </c>
-      <c r="D112" s="237"/>
-      <c r="E112" s="234">
+      <c r="C112" s="260">
+        <v>0</v>
+      </c>
+      <c r="D112" s="261"/>
+      <c r="E112" s="258">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="235"/>
+      <c r="F112" s="259"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="236">
-        <v>0</v>
-      </c>
-      <c r="D113" s="237"/>
-      <c r="E113" s="234">
+      <c r="C113" s="260">
+        <v>0</v>
+      </c>
+      <c r="D113" s="261"/>
+      <c r="E113" s="258">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="235"/>
+      <c r="F113" s="259"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="225">
+      <c r="C114" s="249">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="226"/>
-      <c r="E114" s="227">
+      <c r="D114" s="250"/>
+      <c r="E114" s="251">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="228"/>
+      <c r="F114" s="252"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -28536,32 +28541,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -28578,6 +28557,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -798,9 +798,6 @@
     <t>Wilfredo Jr</t>
   </si>
   <si>
-    <t>2015-01-150</t>
-  </si>
-  <si>
     <t>Tequel</t>
   </si>
   <si>
@@ -859,6 +856,9 @@
   </si>
   <si>
     <t>THIRD YEAR</t>
+  </si>
+  <si>
+    <t>2017-01-150</t>
   </si>
 </sst>
 </file>
@@ -2249,91 +2249,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2373,129 +2319,96 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2536,6 +2449,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2594,6 +2594,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2667,102 +2763,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,7 +3686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3697,8 +3697,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3719,82 +3719,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="122" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
+      <c r="A4" s="155" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159" t="s">
+      <c r="A6" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="160"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3802,28 +3802,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="161"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="164"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="165"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3831,28 +3831,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="165" t="s">
+      <c r="J7" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="147"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3860,45 +3860,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="147" t="s">
+      <c r="J8" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="137" t="s">
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="137" t="s">
+      <c r="K9" s="144"/>
+      <c r="L9" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="138"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="150"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3908,14 +3908,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3936,54 +3936,54 @@
       <c r="F11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="142"/>
-      <c r="O11" s="131" t="s">
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="151"/>
+      <c r="O11" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="133"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="163"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
         <v>2</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="D12" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="E12" s="119" t="s">
         <v>246</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>247</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="126" t="s">
+      <c r="P12" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4004,21 +4004,21 @@
       <c r="F13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="126" t="s">
+      <c r="P13" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4039,21 +4039,21 @@
       <c r="F14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="123" t="s">
+      <c r="P14" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="125"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4074,21 +4074,21 @@
       <c r="F15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="123" t="s">
+      <c r="P15" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="125"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4109,21 +4109,21 @@
       <c r="F16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="134" t="s">
+      <c r="P16" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="136"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4144,21 +4144,21 @@
       <c r="F17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="125"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="158"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4179,13 +4179,13 @@
       <c r="F18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4206,13 +4206,13 @@
       <c r="F19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4231,40 +4231,40 @@
       <c r="F20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="D21" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="E21" s="119" t="s">
         <v>242</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>243</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
       <c r="P21" s="94" t="s">
         <v>142</v>
       </c>
@@ -4288,13 +4288,13 @@
       <c r="F22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="F23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -4354,13 +4354,13 @@
       <c r="F24" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -4387,13 +4387,13 @@
       <c r="F25" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -4420,13 +4420,13 @@
       <c r="F26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -4453,13 +4453,13 @@
       <c r="F27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -4486,13 +4486,13 @@
       <c r="F28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -4519,13 +4519,13 @@
       <c r="F29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -4552,13 +4552,13 @@
       <c r="F30" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -4585,13 +4585,13 @@
       <c r="F31" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -4600,13 +4600,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>172</v>
@@ -4614,13 +4614,13 @@
       <c r="F32" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -4633,27 +4633,27 @@
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4664,13 +4664,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4681,13 +4681,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4698,13 +4698,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4715,13 +4715,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4732,13 +4732,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4749,13 +4749,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4766,13 +4766,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4783,13 +4783,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4800,13 +4800,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4817,13 +4817,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4834,13 +4834,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4851,13 +4851,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="148"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4868,13 +4868,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4885,13 +4885,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4902,13 +4902,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4919,13 +4919,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="148"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4936,13 +4936,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4953,13 +4953,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="148"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4970,13 +4970,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="148"/>
+      <c r="M52" s="148"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4987,13 +4987,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="148"/>
+      <c r="M53" s="148"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5004,13 +5004,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="147"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="148"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5021,13 +5021,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="147"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="148"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5038,13 +5038,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="148"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5055,13 +5055,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="148"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5072,13 +5072,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="148"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5089,13 +5089,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="147"/>
+      <c r="K59" s="147"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="148"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5106,13 +5106,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="148"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5123,13 +5123,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="148"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5140,13 +5140,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="128"/>
-      <c r="K62" s="128"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="129"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="148"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5157,13 +5157,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="128"/>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="148"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5174,13 +5174,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="148"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5191,13 +5191,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="128"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="129"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="146"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="147"/>
+      <c r="K65" s="147"/>
+      <c r="L65" s="148"/>
+      <c r="M65" s="148"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5208,13 +5208,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="129"/>
+      <c r="G66" s="146"/>
+      <c r="H66" s="146"/>
+      <c r="I66" s="146"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="148"/>
+      <c r="M66" s="148"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5225,13 +5225,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="129"/>
-      <c r="M67" s="129"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="147"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="148"/>
+      <c r="M67" s="148"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5242,13 +5242,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="129"/>
-      <c r="M68" s="129"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="147"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="148"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5259,13 +5259,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="128"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="129"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="147"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="148"/>
+      <c r="M69" s="148"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5276,13 +5276,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="128"/>
-      <c r="L70" s="129"/>
-      <c r="M70" s="129"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="148"/>
+      <c r="M70" s="148"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5293,208 +5293,19 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="127"/>
-      <c r="H71" s="127"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="129"/>
-      <c r="M71" s="129"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="146"/>
+      <c r="J71" s="147"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="148"/>
+      <c r="M71" s="148"/>
     </row>
   </sheetData>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5519,6 +5330,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5779,9 +5779,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS23" sqref="CS23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG19" sqref="BG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5795,452 +5795,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="130"/>
-      <c r="AX2" s="130"/>
-      <c r="AY2" s="130"/>
-      <c r="AZ2" s="130"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="130"/>
-      <c r="BG2" s="130"/>
-      <c r="BH2" s="130"/>
-      <c r="BI2" s="130"/>
-      <c r="BJ2" s="130"/>
-      <c r="BK2" s="130"/>
-      <c r="BL2" s="130"/>
-      <c r="BM2" s="130"/>
-      <c r="BN2" s="130"/>
-      <c r="BO2" s="130"/>
-      <c r="BP2" s="130"/>
-      <c r="BQ2" s="130"/>
-      <c r="BR2" s="130"/>
-      <c r="BS2" s="130"/>
-      <c r="BT2" s="130"/>
-      <c r="BU2" s="130"/>
-      <c r="BV2" s="130"/>
-      <c r="BW2" s="130"/>
-      <c r="BX2" s="130"/>
-      <c r="BY2" s="130"/>
-      <c r="BZ2" s="130"/>
-      <c r="CA2" s="130"/>
-      <c r="CB2" s="130"/>
-      <c r="CC2" s="130"/>
-      <c r="CD2" s="130"/>
-      <c r="CE2" s="130"/>
-      <c r="CF2" s="130"/>
-      <c r="CG2" s="130"/>
-      <c r="CH2" s="130"/>
-      <c r="CI2" s="130"/>
-      <c r="CJ2" s="130"/>
-      <c r="CK2" s="130"/>
-      <c r="CL2" s="130"/>
-      <c r="CM2" s="130"/>
-      <c r="CN2" s="130"/>
-      <c r="CO2" s="130"/>
-      <c r="CP2" s="130"/>
-      <c r="CQ2" s="130"/>
-      <c r="CR2" s="130"/>
-      <c r="CS2" s="130"/>
-      <c r="CT2" s="130"/>
-      <c r="CU2" s="130"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="160"/>
+      <c r="AN2" s="160"/>
+      <c r="AO2" s="160"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="160"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="160"/>
+      <c r="AU2" s="160"/>
+      <c r="AV2" s="160"/>
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="160"/>
+      <c r="AZ2" s="160"/>
+      <c r="BA2" s="160"/>
+      <c r="BB2" s="160"/>
+      <c r="BC2" s="160"/>
+      <c r="BD2" s="160"/>
+      <c r="BE2" s="160"/>
+      <c r="BF2" s="160"/>
+      <c r="BG2" s="160"/>
+      <c r="BH2" s="160"/>
+      <c r="BI2" s="160"/>
+      <c r="BJ2" s="160"/>
+      <c r="BK2" s="160"/>
+      <c r="BL2" s="160"/>
+      <c r="BM2" s="160"/>
+      <c r="BN2" s="160"/>
+      <c r="BO2" s="160"/>
+      <c r="BP2" s="160"/>
+      <c r="BQ2" s="160"/>
+      <c r="BR2" s="160"/>
+      <c r="BS2" s="160"/>
+      <c r="BT2" s="160"/>
+      <c r="BU2" s="160"/>
+      <c r="BV2" s="160"/>
+      <c r="BW2" s="160"/>
+      <c r="BX2" s="160"/>
+      <c r="BY2" s="160"/>
+      <c r="BZ2" s="160"/>
+      <c r="CA2" s="160"/>
+      <c r="CB2" s="160"/>
+      <c r="CC2" s="160"/>
+      <c r="CD2" s="160"/>
+      <c r="CE2" s="160"/>
+      <c r="CF2" s="160"/>
+      <c r="CG2" s="160"/>
+      <c r="CH2" s="160"/>
+      <c r="CI2" s="160"/>
+      <c r="CJ2" s="160"/>
+      <c r="CK2" s="160"/>
+      <c r="CL2" s="160"/>
+      <c r="CM2" s="160"/>
+      <c r="CN2" s="160"/>
+      <c r="CO2" s="160"/>
+      <c r="CP2" s="160"/>
+      <c r="CQ2" s="160"/>
+      <c r="CR2" s="160"/>
+      <c r="CS2" s="160"/>
+      <c r="CT2" s="160"/>
+      <c r="CU2" s="160"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="130"/>
-      <c r="AU3" s="130"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="130"/>
-      <c r="BA3" s="130"/>
-      <c r="BB3" s="130"/>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="130"/>
-      <c r="BM3" s="130"/>
-      <c r="BN3" s="130"/>
-      <c r="BO3" s="130"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="130"/>
-      <c r="BS3" s="130"/>
-      <c r="BT3" s="130"/>
-      <c r="BU3" s="130"/>
-      <c r="BV3" s="130"/>
-      <c r="BW3" s="130"/>
-      <c r="BX3" s="130"/>
-      <c r="BY3" s="130"/>
-      <c r="BZ3" s="130"/>
-      <c r="CA3" s="130"/>
-      <c r="CB3" s="130"/>
-      <c r="CC3" s="130"/>
-      <c r="CD3" s="130"/>
-      <c r="CE3" s="130"/>
-      <c r="CF3" s="130"/>
-      <c r="CG3" s="130"/>
-      <c r="CH3" s="130"/>
-      <c r="CI3" s="130"/>
-      <c r="CJ3" s="130"/>
-      <c r="CK3" s="130"/>
-      <c r="CL3" s="130"/>
-      <c r="CM3" s="130"/>
-      <c r="CN3" s="130"/>
-      <c r="CO3" s="130"/>
-      <c r="CP3" s="130"/>
-      <c r="CQ3" s="130"/>
-      <c r="CR3" s="130"/>
-      <c r="CS3" s="130"/>
-      <c r="CT3" s="130"/>
-      <c r="CU3" s="130"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="160"/>
+      <c r="AK3" s="160"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="160"/>
+      <c r="AX3" s="160"/>
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="160"/>
+      <c r="BB3" s="160"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="160"/>
+      <c r="BE3" s="160"/>
+      <c r="BF3" s="160"/>
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="160"/>
+      <c r="BI3" s="160"/>
+      <c r="BJ3" s="160"/>
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="160"/>
+      <c r="BN3" s="160"/>
+      <c r="BO3" s="160"/>
+      <c r="BP3" s="160"/>
+      <c r="BQ3" s="160"/>
+      <c r="BR3" s="160"/>
+      <c r="BS3" s="160"/>
+      <c r="BT3" s="160"/>
+      <c r="BU3" s="160"/>
+      <c r="BV3" s="160"/>
+      <c r="BW3" s="160"/>
+      <c r="BX3" s="160"/>
+      <c r="BY3" s="160"/>
+      <c r="BZ3" s="160"/>
+      <c r="CA3" s="160"/>
+      <c r="CB3" s="160"/>
+      <c r="CC3" s="160"/>
+      <c r="CD3" s="160"/>
+      <c r="CE3" s="160"/>
+      <c r="CF3" s="160"/>
+      <c r="CG3" s="160"/>
+      <c r="CH3" s="160"/>
+      <c r="CI3" s="160"/>
+      <c r="CJ3" s="160"/>
+      <c r="CK3" s="160"/>
+      <c r="CL3" s="160"/>
+      <c r="CM3" s="160"/>
+      <c r="CN3" s="160"/>
+      <c r="CO3" s="160"/>
+      <c r="CP3" s="160"/>
+      <c r="CQ3" s="160"/>
+      <c r="CR3" s="160"/>
+      <c r="CS3" s="160"/>
+      <c r="CT3" s="160"/>
+      <c r="CU3" s="160"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="198"/>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="198"/>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
-      <c r="AW5" s="198"/>
-      <c r="AX5" s="198"/>
-      <c r="AY5" s="198"/>
-      <c r="AZ5" s="198"/>
-      <c r="BA5" s="198"/>
-      <c r="BB5" s="198"/>
-      <c r="BC5" s="198"/>
-      <c r="BD5" s="199"/>
-      <c r="BE5" s="200" t="s">
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="173"/>
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="173"/>
+      <c r="AP5" s="173"/>
+      <c r="AQ5" s="173"/>
+      <c r="AR5" s="173"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="173"/>
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="173"/>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="174"/>
+      <c r="BE5" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="201"/>
-      <c r="BG5" s="201"/>
-      <c r="BH5" s="201"/>
-      <c r="BI5" s="201"/>
-      <c r="BJ5" s="201"/>
-      <c r="BK5" s="201"/>
-      <c r="BL5" s="201"/>
-      <c r="BM5" s="201"/>
-      <c r="BN5" s="201"/>
-      <c r="BO5" s="201"/>
-      <c r="BP5" s="201"/>
-      <c r="BQ5" s="201"/>
-      <c r="BR5" s="201"/>
-      <c r="BS5" s="201"/>
-      <c r="BT5" s="201"/>
-      <c r="BU5" s="201"/>
-      <c r="BV5" s="201"/>
-      <c r="BW5" s="201"/>
-      <c r="BX5" s="201"/>
-      <c r="BY5" s="201"/>
-      <c r="BZ5" s="201"/>
-      <c r="CA5" s="201"/>
-      <c r="CB5" s="201"/>
-      <c r="CC5" s="201"/>
-      <c r="CD5" s="201"/>
-      <c r="CE5" s="201"/>
-      <c r="CF5" s="201"/>
-      <c r="CG5" s="201"/>
-      <c r="CH5" s="201"/>
-      <c r="CI5" s="201"/>
-      <c r="CJ5" s="201"/>
-      <c r="CK5" s="201"/>
-      <c r="CL5" s="201"/>
-      <c r="CM5" s="201"/>
-      <c r="CN5" s="201"/>
-      <c r="CO5" s="201"/>
-      <c r="CP5" s="201"/>
-      <c r="CQ5" s="201"/>
-      <c r="CR5" s="202"/>
-      <c r="CS5" s="189" t="s">
+      <c r="BF5" s="176"/>
+      <c r="BG5" s="176"/>
+      <c r="BH5" s="176"/>
+      <c r="BI5" s="176"/>
+      <c r="BJ5" s="176"/>
+      <c r="BK5" s="176"/>
+      <c r="BL5" s="176"/>
+      <c r="BM5" s="176"/>
+      <c r="BN5" s="176"/>
+      <c r="BO5" s="176"/>
+      <c r="BP5" s="176"/>
+      <c r="BQ5" s="176"/>
+      <c r="BR5" s="176"/>
+      <c r="BS5" s="176"/>
+      <c r="BT5" s="176"/>
+      <c r="BU5" s="176"/>
+      <c r="BV5" s="176"/>
+      <c r="BW5" s="176"/>
+      <c r="BX5" s="176"/>
+      <c r="BY5" s="176"/>
+      <c r="BZ5" s="176"/>
+      <c r="CA5" s="176"/>
+      <c r="CB5" s="176"/>
+      <c r="CC5" s="176"/>
+      <c r="CD5" s="176"/>
+      <c r="CE5" s="176"/>
+      <c r="CF5" s="176"/>
+      <c r="CG5" s="176"/>
+      <c r="CH5" s="176"/>
+      <c r="CI5" s="176"/>
+      <c r="CJ5" s="176"/>
+      <c r="CK5" s="176"/>
+      <c r="CL5" s="176"/>
+      <c r="CM5" s="176"/>
+      <c r="CN5" s="176"/>
+      <c r="CO5" s="176"/>
+      <c r="CP5" s="176"/>
+      <c r="CQ5" s="176"/>
+      <c r="CR5" s="177"/>
+      <c r="CS5" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="190"/>
-      <c r="CU5" s="191"/>
+      <c r="CT5" s="183"/>
+      <c r="CU5" s="184"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="194"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="172" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="175" t="s">
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
-      <c r="AL6" s="175"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="175"/>
-      <c r="AO6" s="175" t="s">
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="188"/>
+      <c r="AI6" s="188"/>
+      <c r="AJ6" s="188"/>
+      <c r="AK6" s="188"/>
+      <c r="AL6" s="188"/>
+      <c r="AM6" s="188"/>
+      <c r="AN6" s="188"/>
+      <c r="AO6" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="175"/>
-      <c r="AQ6" s="175"/>
-      <c r="AR6" s="175"/>
-      <c r="AS6" s="175" t="s">
+      <c r="AP6" s="188"/>
+      <c r="AQ6" s="188"/>
+      <c r="AR6" s="188"/>
+      <c r="AS6" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="175"/>
-      <c r="AU6" s="175"/>
-      <c r="AV6" s="175" t="s">
+      <c r="AT6" s="188"/>
+      <c r="AU6" s="188"/>
+      <c r="AV6" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="175"/>
-      <c r="AX6" s="175"/>
-      <c r="AY6" s="175"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="175"/>
-      <c r="BB6" s="175"/>
-      <c r="BC6" s="182" t="s">
+      <c r="AW6" s="188"/>
+      <c r="AX6" s="188"/>
+      <c r="AY6" s="188"/>
+      <c r="AZ6" s="188"/>
+      <c r="BA6" s="188"/>
+      <c r="BB6" s="188"/>
+      <c r="BC6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="183"/>
-      <c r="BE6" s="184" t="s">
+      <c r="BD6" s="193"/>
+      <c r="BE6" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="185"/>
-      <c r="BG6" s="185"/>
-      <c r="BH6" s="185"/>
-      <c r="BI6" s="185"/>
-      <c r="BJ6" s="185"/>
-      <c r="BK6" s="186"/>
-      <c r="BL6" s="187" t="s">
+      <c r="BF6" s="195"/>
+      <c r="BG6" s="195"/>
+      <c r="BH6" s="195"/>
+      <c r="BI6" s="195"/>
+      <c r="BJ6" s="195"/>
+      <c r="BK6" s="196"/>
+      <c r="BL6" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="185"/>
-      <c r="BN6" s="185"/>
-      <c r="BO6" s="185"/>
-      <c r="BP6" s="185"/>
-      <c r="BQ6" s="185"/>
-      <c r="BR6" s="185"/>
-      <c r="BS6" s="185"/>
-      <c r="BT6" s="185"/>
-      <c r="BU6" s="185"/>
-      <c r="BV6" s="185"/>
-      <c r="BW6" s="185"/>
-      <c r="BX6" s="185"/>
-      <c r="BY6" s="185"/>
-      <c r="BZ6" s="185"/>
-      <c r="CA6" s="185"/>
-      <c r="CB6" s="185"/>
-      <c r="CC6" s="185"/>
-      <c r="CD6" s="185"/>
-      <c r="CE6" s="185"/>
-      <c r="CF6" s="185"/>
-      <c r="CG6" s="185"/>
-      <c r="CH6" s="185"/>
-      <c r="CI6" s="185"/>
-      <c r="CJ6" s="185"/>
-      <c r="CK6" s="185"/>
-      <c r="CL6" s="185"/>
-      <c r="CM6" s="185"/>
-      <c r="CN6" s="185"/>
-      <c r="CO6" s="185"/>
-      <c r="CP6" s="185"/>
-      <c r="CQ6" s="192" t="s">
+      <c r="BM6" s="195"/>
+      <c r="BN6" s="195"/>
+      <c r="BO6" s="195"/>
+      <c r="BP6" s="195"/>
+      <c r="BQ6" s="195"/>
+      <c r="BR6" s="195"/>
+      <c r="BS6" s="195"/>
+      <c r="BT6" s="195"/>
+      <c r="BU6" s="195"/>
+      <c r="BV6" s="195"/>
+      <c r="BW6" s="195"/>
+      <c r="BX6" s="195"/>
+      <c r="BY6" s="195"/>
+      <c r="BZ6" s="195"/>
+      <c r="CA6" s="195"/>
+      <c r="CB6" s="195"/>
+      <c r="CC6" s="195"/>
+      <c r="CD6" s="195"/>
+      <c r="CE6" s="195"/>
+      <c r="CF6" s="195"/>
+      <c r="CG6" s="195"/>
+      <c r="CH6" s="195"/>
+      <c r="CI6" s="195"/>
+      <c r="CJ6" s="195"/>
+      <c r="CK6" s="195"/>
+      <c r="CL6" s="195"/>
+      <c r="CM6" s="195"/>
+      <c r="CN6" s="195"/>
+      <c r="CO6" s="195"/>
+      <c r="CP6" s="195"/>
+      <c r="CQ6" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="192"/>
-      <c r="CS6" s="188" t="s">
+      <c r="CR6" s="185"/>
+      <c r="CS6" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="188" t="s">
+      <c r="CT6" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="179" t="s">
+      <c r="CU6" s="189" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="194"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -6249,337 +6249,337 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="174">
+      <c r="J7" s="180">
         <v>42982</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180">
         <v>43046</v>
       </c>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="178">
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="181">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="178"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="174"/>
-      <c r="AL7" s="174"/>
-      <c r="AM7" s="174"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="174" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP7" s="174"/>
-      <c r="AQ7" s="174"/>
-      <c r="AR7" s="174"/>
-      <c r="AS7" s="178">
+      <c r="AO7" s="180" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="181">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="178"/>
+      <c r="AT7" s="181"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="174" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW7" s="174"/>
-      <c r="AX7" s="174"/>
-      <c r="AY7" s="174"/>
-      <c r="AZ7" s="178">
+      <c r="AV7" s="180" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="180"/>
+      <c r="AY7" s="180"/>
+      <c r="AZ7" s="181">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="178"/>
+      <c r="BA7" s="181"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="182"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="174" t="s">
+      <c r="BC7" s="192"/>
+      <c r="BD7" s="193"/>
+      <c r="BE7" s="180" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF7" s="180"/>
+      <c r="BG7" s="180" t="s">
         <v>254</v>
       </c>
-      <c r="BF7" s="174"/>
-      <c r="BG7" s="174" t="s">
-        <v>255</v>
-      </c>
-      <c r="BH7" s="174"/>
-      <c r="BI7" s="178">
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="181">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="178"/>
+      <c r="BJ7" s="181"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="174">
+      <c r="BL7" s="180">
         <v>42982</v>
       </c>
-      <c r="BM7" s="174"/>
-      <c r="BN7" s="174">
+      <c r="BM7" s="180"/>
+      <c r="BN7" s="180">
         <v>42982</v>
       </c>
-      <c r="BO7" s="174"/>
-      <c r="BP7" s="174">
+      <c r="BO7" s="180"/>
+      <c r="BP7" s="180">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="174"/>
-      <c r="BR7" s="174"/>
-      <c r="BS7" s="174"/>
-      <c r="BT7" s="174"/>
-      <c r="BU7" s="174"/>
-      <c r="BV7" s="174"/>
-      <c r="BW7" s="174"/>
-      <c r="BX7" s="174"/>
-      <c r="BY7" s="174"/>
-      <c r="BZ7" s="174"/>
-      <c r="CA7" s="174"/>
-      <c r="CB7" s="174"/>
-      <c r="CC7" s="174"/>
-      <c r="CD7" s="174"/>
-      <c r="CE7" s="174"/>
-      <c r="CF7" s="174"/>
-      <c r="CG7" s="174"/>
-      <c r="CH7" s="174"/>
-      <c r="CI7" s="174"/>
-      <c r="CJ7" s="174"/>
-      <c r="CK7" s="174"/>
-      <c r="CL7" s="174"/>
-      <c r="CM7" s="174"/>
-      <c r="CN7" s="178">
+      <c r="BQ7" s="180"/>
+      <c r="BR7" s="180"/>
+      <c r="BS7" s="180"/>
+      <c r="BT7" s="180"/>
+      <c r="BU7" s="180"/>
+      <c r="BV7" s="180"/>
+      <c r="BW7" s="180"/>
+      <c r="BX7" s="180"/>
+      <c r="BY7" s="180"/>
+      <c r="BZ7" s="180"/>
+      <c r="CA7" s="180"/>
+      <c r="CB7" s="180"/>
+      <c r="CC7" s="180"/>
+      <c r="CD7" s="180"/>
+      <c r="CE7" s="180"/>
+      <c r="CF7" s="180"/>
+      <c r="CG7" s="180"/>
+      <c r="CH7" s="180"/>
+      <c r="CI7" s="180"/>
+      <c r="CJ7" s="180"/>
+      <c r="CK7" s="180"/>
+      <c r="CL7" s="180"/>
+      <c r="CM7" s="180"/>
+      <c r="CN7" s="181">
         <f>COUNT(BL9,BN9,BP9,BR9,BT9,BV9,BX9,BZ9,CB9,CD9,CF9,CH9,CJ9,CL9,CN9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="178"/>
+      <c r="CO7" s="181"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="192"/>
-      <c r="CR7" s="192"/>
-      <c r="CS7" s="188"/>
-      <c r="CT7" s="188"/>
-      <c r="CU7" s="180"/>
+      <c r="CQ7" s="185"/>
+      <c r="CR7" s="185"/>
+      <c r="CS7" s="167"/>
+      <c r="CT7" s="167"/>
+      <c r="CU7" s="190"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="203" t="s">
+      <c r="A8" s="169"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="167" t="s">
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167" t="s">
+      <c r="K8" s="179"/>
+      <c r="L8" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167" t="s">
+      <c r="M8" s="179"/>
+      <c r="N8" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167" t="s">
+      <c r="O8" s="179"/>
+      <c r="P8" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167" t="s">
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167" t="s">
+      <c r="S8" s="179"/>
+      <c r="T8" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167" t="s">
+      <c r="U8" s="179"/>
+      <c r="V8" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167" t="s">
+      <c r="W8" s="179"/>
+      <c r="X8" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167" t="s">
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167" t="s">
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167" t="s">
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167" t="s">
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167" t="s">
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167" t="s">
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167" t="s">
+      <c r="AK8" s="179"/>
+      <c r="AL8" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="167"/>
+      <c r="AM8" s="179"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="167" t="s">
+      <c r="AO8" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="167"/>
-      <c r="AQ8" s="167" t="s">
+      <c r="AP8" s="179"/>
+      <c r="AQ8" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="167"/>
-      <c r="AS8" s="167" t="s">
+      <c r="AR8" s="179"/>
+      <c r="AS8" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="167"/>
+      <c r="AT8" s="179"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="167" t="s">
+      <c r="AV8" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="167"/>
-      <c r="AX8" s="167" t="s">
+      <c r="AW8" s="179"/>
+      <c r="AX8" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="167"/>
-      <c r="AZ8" s="167" t="s">
+      <c r="AY8" s="179"/>
+      <c r="AZ8" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="167"/>
+      <c r="BA8" s="179"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="182"/>
-      <c r="BD8" s="183"/>
-      <c r="BE8" s="177" t="s">
+      <c r="BC8" s="192"/>
+      <c r="BD8" s="193"/>
+      <c r="BE8" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="176"/>
-      <c r="BG8" s="176" t="s">
+      <c r="BF8" s="198"/>
+      <c r="BG8" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="176"/>
-      <c r="BI8" s="176" t="s">
+      <c r="BH8" s="198"/>
+      <c r="BI8" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="176"/>
+      <c r="BJ8" s="198"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="170" t="s">
+      <c r="BL8" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="171"/>
-      <c r="BN8" s="170" t="s">
+      <c r="BM8" s="200"/>
+      <c r="BN8" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="171"/>
-      <c r="BP8" s="170" t="s">
+      <c r="BO8" s="200"/>
+      <c r="BP8" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="171"/>
-      <c r="BR8" s="170" t="s">
+      <c r="BQ8" s="200"/>
+      <c r="BR8" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="171"/>
-      <c r="BT8" s="170" t="s">
+      <c r="BS8" s="200"/>
+      <c r="BT8" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="171"/>
-      <c r="BV8" s="168" t="s">
+      <c r="BU8" s="200"/>
+      <c r="BV8" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="169"/>
-      <c r="BX8" s="168" t="s">
+      <c r="BW8" s="187"/>
+      <c r="BX8" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="169"/>
-      <c r="BZ8" s="168" t="s">
+      <c r="BY8" s="187"/>
+      <c r="BZ8" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="169"/>
-      <c r="CB8" s="168" t="s">
+      <c r="CA8" s="187"/>
+      <c r="CB8" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="169"/>
-      <c r="CD8" s="168" t="s">
+      <c r="CC8" s="187"/>
+      <c r="CD8" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="169"/>
-      <c r="CF8" s="168" t="s">
+      <c r="CE8" s="187"/>
+      <c r="CF8" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="169"/>
-      <c r="CH8" s="168" t="s">
+      <c r="CG8" s="187"/>
+      <c r="CH8" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="169"/>
-      <c r="CJ8" s="168" t="s">
+      <c r="CI8" s="187"/>
+      <c r="CJ8" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="169"/>
-      <c r="CL8" s="168" t="s">
+      <c r="CK8" s="187"/>
+      <c r="CL8" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="169"/>
-      <c r="CN8" s="168" t="s">
+      <c r="CM8" s="187"/>
+      <c r="CN8" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="169"/>
+      <c r="CO8" s="187"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="192"/>
-      <c r="CR8" s="192"/>
-      <c r="CS8" s="188"/>
-      <c r="CT8" s="188"/>
-      <c r="CU8" s="180"/>
+      <c r="CQ8" s="185"/>
+      <c r="CR8" s="185"/>
+      <c r="CS8" s="167"/>
+      <c r="CT8" s="167"/>
+      <c r="CU8" s="190"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6771,9 +6771,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="188"/>
-      <c r="CT9" s="188"/>
-      <c r="CU9" s="181"/>
+      <c r="CS9" s="167"/>
+      <c r="CT9" s="167"/>
+      <c r="CU9" s="191"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -10769,7 +10769,7 @@
         <v>5</v>
       </c>
       <c r="CU23" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:99">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B31" s="41" t="str">
         <f>REGISTRATION!B32</f>
-        <v>2015-01-150</v>
+        <v>2017-01-150</v>
       </c>
       <c r="C31" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C32," ",REGISTRATION!D32," ",REGISTRATION!E32)</f>
@@ -13100,14 +13100,16 @@
         <f t="shared" si="0"/>
         <v>20.099999999999998</v>
       </c>
-      <c r="G32" s="102"/>
+      <c r="G32" s="102">
+        <v>50</v>
+      </c>
       <c r="H32" s="86">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="I32" s="89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="J32" s="102">
         <v>15</v>
@@ -13211,11 +13213,11 @@
       </c>
       <c r="BC32" s="92">
         <f t="shared" si="18"/>
-        <v>46.87777777777778</v>
+        <v>65.62777777777778</v>
       </c>
       <c r="BD32" s="92">
         <f t="shared" si="19"/>
-        <v>46.88</v>
+        <v>65.63</v>
       </c>
       <c r="BE32" s="102">
         <v>85</v>
@@ -13225,11 +13227,11 @@
         <v>85</v>
       </c>
       <c r="BG32" s="102">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BH32" s="86">
         <f t="shared" si="21"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BI32" s="101">
         <v>65</v>
@@ -13240,7 +13242,7 @@
       </c>
       <c r="BK32" s="97">
         <f t="shared" si="22"/>
-        <v>38.333333333333336</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="BL32" s="102">
         <v>100</v>
@@ -13343,23 +13345,23 @@
       </c>
       <c r="CQ32" s="93">
         <f t="shared" si="39"/>
-        <v>78.583333333333343</v>
+        <v>76.083333333333343</v>
       </c>
       <c r="CR32" s="93">
         <f t="shared" si="40"/>
-        <v>78.58</v>
+        <v>76.08</v>
       </c>
       <c r="CS32" s="98">
         <f t="shared" si="45"/>
-        <v>65.900000000000006</v>
+        <v>71.899999999999991</v>
       </c>
       <c r="CT32" s="98">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU32" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:99">
@@ -22788,6 +22790,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22804,88 +22888,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23985,7 +23987,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -24522,7 +24524,7 @@
       </c>
       <c r="D30" s="83">
         <f>'RAW GRADES'!I32</f>
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
@@ -24538,15 +24540,15 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>46.87777777777778</v>
+        <v>65.62777777777778</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>46.88</v>
+        <v>65.63</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
-        <v>38.333333333333336</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
@@ -24554,23 +24556,23 @@
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>78.583333333333343</v>
+        <v>76.083333333333343</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>78.58</v>
+        <v>76.08</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>65.900000000000006</v>
+        <v>71.899999999999991</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P30" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -27098,106 +27100,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="251"/>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="A3" s="220"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="256" t="s">
+      <c r="A7" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="257"/>
-      <c r="B8" s="257"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="251"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
+      <c r="A9" s="220"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="258"/>
-      <c r="B10" s="258"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="258"/>
+      <c r="A10" s="225"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="259" t="s">
+      <c r="A11" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="257"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="260" t="str">
+      <c r="C13" s="227" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27205,12 +27207,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="253" t="str">
+      <c r="C14" s="219" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27218,12 +27220,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="239" t="str">
+      <c r="C15" s="230" t="str">
         <f>REGISTRATION!A4</f>
         <v>THIRD YEAR</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27231,12 +27233,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="239" t="str">
+      <c r="C16" s="230" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27244,12 +27246,12 @@
       <c r="B17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="239" t="str">
+      <c r="C17" s="230" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27261,42 +27263,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="240" t="s">
+      <c r="A19" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="240" t="s">
+      <c r="D19" s="231" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="245" t="s">
+      <c r="E19" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="240" t="s">
+      <c r="F19" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="241"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="248"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="239"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="242"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="249"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="240"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -27832,7 +27834,7 @@
       </c>
       <c r="C43" s="67" t="str">
         <f>REGISTRATION!B32</f>
-        <v>2015-01-150</v>
+        <v>2017-01-150</v>
       </c>
       <c r="D43" s="68">
         <f>'DEPT CHAIR'!O29</f>
@@ -27861,25 +27863,25 @@
       </c>
       <c r="D44" s="68">
         <f>'DEPT CHAIR'!O30</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="69">
         <v>3</v>
       </c>
       <c r="F44" s="70" t="str">
         <f>'DEPT CHAIR'!P30</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A45" s="223" t="s">
+      <c r="A45" s="247" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="224"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="224"/>
-      <c r="F45" s="225"/>
+      <c r="B45" s="248"/>
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="248"/>
+      <c r="F45" s="249"/>
     </row>
     <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="62"/>
@@ -27912,11 +27914,11 @@
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
-      <c r="E49" s="250">
+      <c r="E49" s="241">
         <f ca="1">NOW()</f>
-        <v>43077.481309606483</v>
-      </c>
-      <c r="F49" s="250"/>
+        <v>43078.784621064813</v>
+      </c>
+      <c r="F49" s="241"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="60"/>
@@ -27926,10 +27928,10 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
-      <c r="E50" s="251" t="s">
+      <c r="E50" s="220" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="251"/>
+      <c r="F50" s="220"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="60"/>
@@ -27946,8 +27948,8 @@
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="251"/>
+      <c r="E52" s="220"/>
+      <c r="F52" s="220"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="60"/>
@@ -28062,14 +28064,14 @@
       <c r="F66" s="60"/>
     </row>
     <row r="67" spans="1:6" ht="15.75">
-      <c r="A67" s="252" t="s">
+      <c r="A67" s="242" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="252"/>
-      <c r="C67" s="252"/>
-      <c r="D67" s="252"/>
-      <c r="E67" s="252"/>
-      <c r="F67" s="252"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="242"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="60"/>
@@ -28084,124 +28086,124 @@
       <c r="B69" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="236" t="s">
+      <c r="C69" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="237"/>
-      <c r="E69" s="238" t="s">
+      <c r="D69" s="229"/>
+      <c r="E69" s="228" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="237"/>
+      <c r="F69" s="229"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="60"/>
       <c r="B70" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="232">
+      <c r="C70" s="256">
         <f>COUNTIF($D$22:$D$44,"=1.0")+COUNTIF($D$22:$D$44,"=1.25")+(COUNTIF($D$22:$D$44,"=1.50")+COUNTIF($D$22:$D$44,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D70" s="233"/>
-      <c r="E70" s="234">
+      <c r="D70" s="257"/>
+      <c r="E70" s="258">
         <f>(C70/$C$76)*100</f>
         <v>0</v>
       </c>
-      <c r="F70" s="235"/>
+      <c r="F70" s="259"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="60"/>
       <c r="B71" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="226">
+      <c r="C71" s="250">
         <f>COUNTIF($D$22:$D$44,"=2.0")+COUNTIF($D$22:$D$44,"=2.25")+(COUNTIF($D$22:$D$44,"=2.50")+COUNTIF($D$22:$D$44,"=2.75"))</f>
         <v>16</v>
       </c>
-      <c r="D71" s="227"/>
-      <c r="E71" s="228">
+      <c r="D71" s="251"/>
+      <c r="E71" s="252">
         <f>(C71/$C$76)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="F71" s="229"/>
+      <c r="F71" s="253"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="60"/>
       <c r="B72" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="226">
+      <c r="C72" s="250">
         <f>COUNTIF($D$22:$D$44,"=3.0")</f>
-        <v>4</v>
-      </c>
-      <c r="D72" s="227"/>
-      <c r="E72" s="228">
+        <v>5</v>
+      </c>
+      <c r="D72" s="251"/>
+      <c r="E72" s="252">
         <f t="shared" ref="E72:E75" si="1">(C72/$C$76)*100</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="F72" s="229"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="F72" s="253"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="60"/>
       <c r="B73" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="226">
+      <c r="C73" s="250">
         <f>COUNTIF($D$22:$D$44,"=5.0")</f>
-        <v>3</v>
-      </c>
-      <c r="D73" s="227"/>
-      <c r="E73" s="228">
+        <v>2</v>
+      </c>
+      <c r="D73" s="251"/>
+      <c r="E73" s="252">
         <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="F73" s="229"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="F73" s="253"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="60"/>
       <c r="B74" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="230">
-        <v>0</v>
-      </c>
-      <c r="D74" s="231"/>
-      <c r="E74" s="228">
+      <c r="C74" s="254">
+        <v>0</v>
+      </c>
+      <c r="D74" s="255"/>
+      <c r="E74" s="252">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F74" s="229"/>
+      <c r="F74" s="253"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="60"/>
       <c r="B75" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="230">
+      <c r="C75" s="254">
         <v>1</v>
       </c>
-      <c r="D75" s="231"/>
-      <c r="E75" s="228">
+      <c r="D75" s="255"/>
+      <c r="E75" s="252">
         <f t="shared" si="1"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F75" s="229"/>
+      <c r="F75" s="253"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickBot="1">
       <c r="A76" s="60"/>
       <c r="B76" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="219">
+      <c r="C76" s="243">
         <f>SUM(C70:D75)</f>
         <v>24</v>
       </c>
-      <c r="D76" s="220"/>
-      <c r="E76" s="221">
+      <c r="D76" s="244"/>
+      <c r="E76" s="245">
         <f>SUM(E70:F75)</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="F76" s="222"/>
+        <v>100</v>
+      </c>
+      <c r="F76" s="246"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="60"/>
@@ -28371,32 +28373,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A67:F67"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="A45:F45"/>
@@ -28413,6 +28389,32 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -29141,7 +29143,7 @@
       </c>
       <c r="B25" s="105" t="str">
         <f>'SEMESTRAL GRADE'!C43</f>
-        <v>2015-01-150</v>
+        <v>2017-01-150</v>
       </c>
       <c r="C25" s="107" t="str">
         <f>'SEMESTRAL GRADE'!B43</f>

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -2249,37 +2249,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,96 +2373,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2449,93 +2536,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2594,102 +2594,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2763,6 +2667,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,7 +3686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3719,82 +3719,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="122" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123" t="s">
+      <c r="A6" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="124"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3802,28 +3802,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="128"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="129"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3831,28 +3831,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="132"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3860,45 +3860,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="133" t="s">
+      <c r="J8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140" t="s">
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143" t="s">
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="143" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="144"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3908,14 +3908,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3936,19 +3936,19 @@
       <c r="F11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="151"/>
-      <c r="O11" s="161" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="142"/>
+      <c r="O11" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="133"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3969,21 +3969,21 @@
       <c r="F12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="159" t="s">
+      <c r="P12" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4004,21 +4004,21 @@
       <c r="F13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="159" t="s">
+      <c r="P13" s="126" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="159"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4039,21 +4039,21 @@
       <c r="F14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="156" t="s">
+      <c r="P14" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="125"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4074,21 +4074,21 @@
       <c r="F15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="156" t="s">
+      <c r="P15" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="125"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4109,21 +4109,21 @@
       <c r="F16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="164" t="s">
+      <c r="P16" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4144,21 +4144,21 @@
       <c r="F17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="156" t="s">
+      <c r="P17" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="158"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="125"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4179,13 +4179,13 @@
       <c r="F18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4206,13 +4206,13 @@
       <c r="F19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4231,13 +4231,13 @@
       <c r="F20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4258,13 +4258,13 @@
       <c r="F21" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
       <c r="P21" s="94" t="s">
         <v>142</v>
       </c>
@@ -4288,13 +4288,13 @@
       <c r="F22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="F23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -4354,13 +4354,13 @@
       <c r="F24" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -4387,13 +4387,13 @@
       <c r="F25" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -4420,13 +4420,13 @@
       <c r="F26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -4453,13 +4453,13 @@
       <c r="F27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -4486,13 +4486,13 @@
       <c r="F28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -4519,13 +4519,13 @@
       <c r="F29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -4552,13 +4552,13 @@
       <c r="F30" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -4585,13 +4585,13 @@
       <c r="F31" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -4614,13 +4614,13 @@
       <c r="F32" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -4647,13 +4647,13 @@
       <c r="F33" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4664,13 +4664,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4681,13 +4681,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4698,13 +4698,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4715,13 +4715,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4732,13 +4732,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4749,13 +4749,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4766,13 +4766,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4783,13 +4783,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="147"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4800,13 +4800,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4817,13 +4817,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="148"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4834,13 +4834,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4851,13 +4851,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4868,13 +4868,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="148"/>
-      <c r="M46" s="148"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4885,13 +4885,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4902,13 +4902,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="147"/>
-      <c r="K48" s="147"/>
-      <c r="L48" s="148"/>
-      <c r="M48" s="148"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4919,13 +4919,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="148"/>
-      <c r="M49" s="148"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4936,13 +4936,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4953,13 +4953,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4970,13 +4970,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="148"/>
-      <c r="M52" s="148"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4987,13 +4987,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="147"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="148"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5004,13 +5004,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="148"/>
-      <c r="M54" s="148"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5021,13 +5021,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="147"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="148"/>
-      <c r="M55" s="148"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5038,13 +5038,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="148"/>
-      <c r="M56" s="148"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5055,13 +5055,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="147"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="148"/>
-      <c r="M57" s="148"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5072,13 +5072,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="148"/>
-      <c r="M58" s="148"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5089,13 +5089,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="148"/>
-      <c r="M59" s="148"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5106,13 +5106,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="147"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="148"/>
-      <c r="M60" s="148"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5123,13 +5123,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="147"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="148"/>
-      <c r="M61" s="148"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5140,13 +5140,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="148"/>
-      <c r="M62" s="148"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5157,13 +5157,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="148"/>
-      <c r="M63" s="148"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5174,13 +5174,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="148"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5191,13 +5191,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="148"/>
-      <c r="M65" s="148"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5208,13 +5208,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="148"/>
-      <c r="M66" s="148"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="129"/>
+      <c r="M66" s="129"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5225,13 +5225,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="146"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="147"/>
-      <c r="L67" s="148"/>
-      <c r="M67" s="148"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="129"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5242,13 +5242,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="148"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="129"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5259,13 +5259,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
-      <c r="J69" s="147"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="148"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5276,13 +5276,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="146"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="148"/>
-      <c r="M70" s="148"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="127"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="129"/>
+      <c r="M70" s="129"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5293,19 +5293,208 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="146"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="148"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="129"/>
     </row>
   </sheetData>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5330,195 +5519,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5779,9 +5779,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG19" sqref="BG19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CB32" sqref="CB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5795,452 +5795,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="160"/>
-      <c r="AL2" s="160"/>
-      <c r="AM2" s="160"/>
-      <c r="AN2" s="160"/>
-      <c r="AO2" s="160"/>
-      <c r="AP2" s="160"/>
-      <c r="AQ2" s="160"/>
-      <c r="AR2" s="160"/>
-      <c r="AS2" s="160"/>
-      <c r="AT2" s="160"/>
-      <c r="AU2" s="160"/>
-      <c r="AV2" s="160"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
-      <c r="BA2" s="160"/>
-      <c r="BB2" s="160"/>
-      <c r="BC2" s="160"/>
-      <c r="BD2" s="160"/>
-      <c r="BE2" s="160"/>
-      <c r="BF2" s="160"/>
-      <c r="BG2" s="160"/>
-      <c r="BH2" s="160"/>
-      <c r="BI2" s="160"/>
-      <c r="BJ2" s="160"/>
-      <c r="BK2" s="160"/>
-      <c r="BL2" s="160"/>
-      <c r="BM2" s="160"/>
-      <c r="BN2" s="160"/>
-      <c r="BO2" s="160"/>
-      <c r="BP2" s="160"/>
-      <c r="BQ2" s="160"/>
-      <c r="BR2" s="160"/>
-      <c r="BS2" s="160"/>
-      <c r="BT2" s="160"/>
-      <c r="BU2" s="160"/>
-      <c r="BV2" s="160"/>
-      <c r="BW2" s="160"/>
-      <c r="BX2" s="160"/>
-      <c r="BY2" s="160"/>
-      <c r="BZ2" s="160"/>
-      <c r="CA2" s="160"/>
-      <c r="CB2" s="160"/>
-      <c r="CC2" s="160"/>
-      <c r="CD2" s="160"/>
-      <c r="CE2" s="160"/>
-      <c r="CF2" s="160"/>
-      <c r="CG2" s="160"/>
-      <c r="CH2" s="160"/>
-      <c r="CI2" s="160"/>
-      <c r="CJ2" s="160"/>
-      <c r="CK2" s="160"/>
-      <c r="CL2" s="160"/>
-      <c r="CM2" s="160"/>
-      <c r="CN2" s="160"/>
-      <c r="CO2" s="160"/>
-      <c r="CP2" s="160"/>
-      <c r="CQ2" s="160"/>
-      <c r="CR2" s="160"/>
-      <c r="CS2" s="160"/>
-      <c r="CT2" s="160"/>
-      <c r="CU2" s="160"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="130"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="130"/>
+      <c r="BJ2" s="130"/>
+      <c r="BK2" s="130"/>
+      <c r="BL2" s="130"/>
+      <c r="BM2" s="130"/>
+      <c r="BN2" s="130"/>
+      <c r="BO2" s="130"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
+      <c r="BR2" s="130"/>
+      <c r="BS2" s="130"/>
+      <c r="BT2" s="130"/>
+      <c r="BU2" s="130"/>
+      <c r="BV2" s="130"/>
+      <c r="BW2" s="130"/>
+      <c r="BX2" s="130"/>
+      <c r="BY2" s="130"/>
+      <c r="BZ2" s="130"/>
+      <c r="CA2" s="130"/>
+      <c r="CB2" s="130"/>
+      <c r="CC2" s="130"/>
+      <c r="CD2" s="130"/>
+      <c r="CE2" s="130"/>
+      <c r="CF2" s="130"/>
+      <c r="CG2" s="130"/>
+      <c r="CH2" s="130"/>
+      <c r="CI2" s="130"/>
+      <c r="CJ2" s="130"/>
+      <c r="CK2" s="130"/>
+      <c r="CL2" s="130"/>
+      <c r="CM2" s="130"/>
+      <c r="CN2" s="130"/>
+      <c r="CO2" s="130"/>
+      <c r="CP2" s="130"/>
+      <c r="CQ2" s="130"/>
+      <c r="CR2" s="130"/>
+      <c r="CS2" s="130"/>
+      <c r="CT2" s="130"/>
+      <c r="CU2" s="130"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="160"/>
-      <c r="BA3" s="160"/>
-      <c r="BB3" s="160"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="160"/>
-      <c r="BE3" s="160"/>
-      <c r="BF3" s="160"/>
-      <c r="BG3" s="160"/>
-      <c r="BH3" s="160"/>
-      <c r="BI3" s="160"/>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="160"/>
-      <c r="BN3" s="160"/>
-      <c r="BO3" s="160"/>
-      <c r="BP3" s="160"/>
-      <c r="BQ3" s="160"/>
-      <c r="BR3" s="160"/>
-      <c r="BS3" s="160"/>
-      <c r="BT3" s="160"/>
-      <c r="BU3" s="160"/>
-      <c r="BV3" s="160"/>
-      <c r="BW3" s="160"/>
-      <c r="BX3" s="160"/>
-      <c r="BY3" s="160"/>
-      <c r="BZ3" s="160"/>
-      <c r="CA3" s="160"/>
-      <c r="CB3" s="160"/>
-      <c r="CC3" s="160"/>
-      <c r="CD3" s="160"/>
-      <c r="CE3" s="160"/>
-      <c r="CF3" s="160"/>
-      <c r="CG3" s="160"/>
-      <c r="CH3" s="160"/>
-      <c r="CI3" s="160"/>
-      <c r="CJ3" s="160"/>
-      <c r="CK3" s="160"/>
-      <c r="CL3" s="160"/>
-      <c r="CM3" s="160"/>
-      <c r="CN3" s="160"/>
-      <c r="CO3" s="160"/>
-      <c r="CP3" s="160"/>
-      <c r="CQ3" s="160"/>
-      <c r="CR3" s="160"/>
-      <c r="CS3" s="160"/>
-      <c r="CT3" s="160"/>
-      <c r="CU3" s="160"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="130"/>
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="130"/>
+      <c r="BM3" s="130"/>
+      <c r="BN3" s="130"/>
+      <c r="BO3" s="130"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="130"/>
+      <c r="BS3" s="130"/>
+      <c r="BT3" s="130"/>
+      <c r="BU3" s="130"/>
+      <c r="BV3" s="130"/>
+      <c r="BW3" s="130"/>
+      <c r="BX3" s="130"/>
+      <c r="BY3" s="130"/>
+      <c r="BZ3" s="130"/>
+      <c r="CA3" s="130"/>
+      <c r="CB3" s="130"/>
+      <c r="CC3" s="130"/>
+      <c r="CD3" s="130"/>
+      <c r="CE3" s="130"/>
+      <c r="CF3" s="130"/>
+      <c r="CG3" s="130"/>
+      <c r="CH3" s="130"/>
+      <c r="CI3" s="130"/>
+      <c r="CJ3" s="130"/>
+      <c r="CK3" s="130"/>
+      <c r="CL3" s="130"/>
+      <c r="CM3" s="130"/>
+      <c r="CN3" s="130"/>
+      <c r="CO3" s="130"/>
+      <c r="CP3" s="130"/>
+      <c r="CQ3" s="130"/>
+      <c r="CR3" s="130"/>
+      <c r="CS3" s="130"/>
+      <c r="CT3" s="130"/>
+      <c r="CU3" s="130"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="174"/>
-      <c r="BE5" s="175" t="s">
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="198"/>
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="198"/>
+      <c r="AI5" s="198"/>
+      <c r="AJ5" s="198"/>
+      <c r="AK5" s="198"/>
+      <c r="AL5" s="198"/>
+      <c r="AM5" s="198"/>
+      <c r="AN5" s="198"/>
+      <c r="AO5" s="198"/>
+      <c r="AP5" s="198"/>
+      <c r="AQ5" s="198"/>
+      <c r="AR5" s="198"/>
+      <c r="AS5" s="198"/>
+      <c r="AT5" s="198"/>
+      <c r="AU5" s="198"/>
+      <c r="AV5" s="198"/>
+      <c r="AW5" s="198"/>
+      <c r="AX5" s="198"/>
+      <c r="AY5" s="198"/>
+      <c r="AZ5" s="198"/>
+      <c r="BA5" s="198"/>
+      <c r="BB5" s="198"/>
+      <c r="BC5" s="198"/>
+      <c r="BD5" s="199"/>
+      <c r="BE5" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="176"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="176"/>
-      <c r="BI5" s="176"/>
-      <c r="BJ5" s="176"/>
-      <c r="BK5" s="176"/>
-      <c r="BL5" s="176"/>
-      <c r="BM5" s="176"/>
-      <c r="BN5" s="176"/>
-      <c r="BO5" s="176"/>
-      <c r="BP5" s="176"/>
-      <c r="BQ5" s="176"/>
-      <c r="BR5" s="176"/>
-      <c r="BS5" s="176"/>
-      <c r="BT5" s="176"/>
-      <c r="BU5" s="176"/>
-      <c r="BV5" s="176"/>
-      <c r="BW5" s="176"/>
-      <c r="BX5" s="176"/>
-      <c r="BY5" s="176"/>
-      <c r="BZ5" s="176"/>
-      <c r="CA5" s="176"/>
-      <c r="CB5" s="176"/>
-      <c r="CC5" s="176"/>
-      <c r="CD5" s="176"/>
-      <c r="CE5" s="176"/>
-      <c r="CF5" s="176"/>
-      <c r="CG5" s="176"/>
-      <c r="CH5" s="176"/>
-      <c r="CI5" s="176"/>
-      <c r="CJ5" s="176"/>
-      <c r="CK5" s="176"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="176"/>
-      <c r="CN5" s="176"/>
-      <c r="CO5" s="176"/>
-      <c r="CP5" s="176"/>
-      <c r="CQ5" s="176"/>
-      <c r="CR5" s="177"/>
-      <c r="CS5" s="182" t="s">
+      <c r="BF5" s="201"/>
+      <c r="BG5" s="201"/>
+      <c r="BH5" s="201"/>
+      <c r="BI5" s="201"/>
+      <c r="BJ5" s="201"/>
+      <c r="BK5" s="201"/>
+      <c r="BL5" s="201"/>
+      <c r="BM5" s="201"/>
+      <c r="BN5" s="201"/>
+      <c r="BO5" s="201"/>
+      <c r="BP5" s="201"/>
+      <c r="BQ5" s="201"/>
+      <c r="BR5" s="201"/>
+      <c r="BS5" s="201"/>
+      <c r="BT5" s="201"/>
+      <c r="BU5" s="201"/>
+      <c r="BV5" s="201"/>
+      <c r="BW5" s="201"/>
+      <c r="BX5" s="201"/>
+      <c r="BY5" s="201"/>
+      <c r="BZ5" s="201"/>
+      <c r="CA5" s="201"/>
+      <c r="CB5" s="201"/>
+      <c r="CC5" s="201"/>
+      <c r="CD5" s="201"/>
+      <c r="CE5" s="201"/>
+      <c r="CF5" s="201"/>
+      <c r="CG5" s="201"/>
+      <c r="CH5" s="201"/>
+      <c r="CI5" s="201"/>
+      <c r="CJ5" s="201"/>
+      <c r="CK5" s="201"/>
+      <c r="CL5" s="201"/>
+      <c r="CM5" s="201"/>
+      <c r="CN5" s="201"/>
+      <c r="CO5" s="201"/>
+      <c r="CP5" s="201"/>
+      <c r="CQ5" s="201"/>
+      <c r="CR5" s="202"/>
+      <c r="CS5" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="183"/>
-      <c r="CU5" s="184"/>
+      <c r="CT5" s="190"/>
+      <c r="CU5" s="191"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="202" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="188" t="s">
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="188"/>
-      <c r="AJ6" s="188"/>
-      <c r="AK6" s="188"/>
-      <c r="AL6" s="188"/>
-      <c r="AM6" s="188"/>
-      <c r="AN6" s="188"/>
-      <c r="AO6" s="188" t="s">
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
+      <c r="AL6" s="175"/>
+      <c r="AM6" s="175"/>
+      <c r="AN6" s="175"/>
+      <c r="AO6" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="188"/>
-      <c r="AQ6" s="188"/>
-      <c r="AR6" s="188"/>
-      <c r="AS6" s="188" t="s">
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="188"/>
-      <c r="AU6" s="188"/>
-      <c r="AV6" s="188" t="s">
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="188"/>
-      <c r="AX6" s="188"/>
-      <c r="AY6" s="188"/>
-      <c r="AZ6" s="188"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="188"/>
-      <c r="BC6" s="192" t="s">
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="175"/>
+      <c r="BC6" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="193"/>
-      <c r="BE6" s="194" t="s">
+      <c r="BD6" s="183"/>
+      <c r="BE6" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="195"/>
-      <c r="BH6" s="195"/>
-      <c r="BI6" s="195"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="196"/>
-      <c r="BL6" s="197" t="s">
+      <c r="BF6" s="185"/>
+      <c r="BG6" s="185"/>
+      <c r="BH6" s="185"/>
+      <c r="BI6" s="185"/>
+      <c r="BJ6" s="185"/>
+      <c r="BK6" s="186"/>
+      <c r="BL6" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="195"/>
-      <c r="BN6" s="195"/>
-      <c r="BO6" s="195"/>
-      <c r="BP6" s="195"/>
-      <c r="BQ6" s="195"/>
-      <c r="BR6" s="195"/>
-      <c r="BS6" s="195"/>
-      <c r="BT6" s="195"/>
-      <c r="BU6" s="195"/>
-      <c r="BV6" s="195"/>
-      <c r="BW6" s="195"/>
-      <c r="BX6" s="195"/>
-      <c r="BY6" s="195"/>
-      <c r="BZ6" s="195"/>
-      <c r="CA6" s="195"/>
-      <c r="CB6" s="195"/>
-      <c r="CC6" s="195"/>
-      <c r="CD6" s="195"/>
-      <c r="CE6" s="195"/>
-      <c r="CF6" s="195"/>
-      <c r="CG6" s="195"/>
-      <c r="CH6" s="195"/>
-      <c r="CI6" s="195"/>
-      <c r="CJ6" s="195"/>
-      <c r="CK6" s="195"/>
-      <c r="CL6" s="195"/>
-      <c r="CM6" s="195"/>
-      <c r="CN6" s="195"/>
-      <c r="CO6" s="195"/>
-      <c r="CP6" s="195"/>
-      <c r="CQ6" s="185" t="s">
+      <c r="BM6" s="185"/>
+      <c r="BN6" s="185"/>
+      <c r="BO6" s="185"/>
+      <c r="BP6" s="185"/>
+      <c r="BQ6" s="185"/>
+      <c r="BR6" s="185"/>
+      <c r="BS6" s="185"/>
+      <c r="BT6" s="185"/>
+      <c r="BU6" s="185"/>
+      <c r="BV6" s="185"/>
+      <c r="BW6" s="185"/>
+      <c r="BX6" s="185"/>
+      <c r="BY6" s="185"/>
+      <c r="BZ6" s="185"/>
+      <c r="CA6" s="185"/>
+      <c r="CB6" s="185"/>
+      <c r="CC6" s="185"/>
+      <c r="CD6" s="185"/>
+      <c r="CE6" s="185"/>
+      <c r="CF6" s="185"/>
+      <c r="CG6" s="185"/>
+      <c r="CH6" s="185"/>
+      <c r="CI6" s="185"/>
+      <c r="CJ6" s="185"/>
+      <c r="CK6" s="185"/>
+      <c r="CL6" s="185"/>
+      <c r="CM6" s="185"/>
+      <c r="CN6" s="185"/>
+      <c r="CO6" s="185"/>
+      <c r="CP6" s="185"/>
+      <c r="CQ6" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="185"/>
-      <c r="CS6" s="167" t="s">
+      <c r="CR6" s="192"/>
+      <c r="CS6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="167" t="s">
+      <c r="CT6" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="189" t="s">
+      <c r="CU6" s="179" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -6249,337 +6249,337 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="174">
         <v>42982</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180">
+      <c r="K7" s="174"/>
+      <c r="L7" s="174">
         <v>43046</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="181">
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="178">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="181"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180" t="s">
+      <c r="AO7" s="174" t="s">
         <v>252</v>
       </c>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="181">
+      <c r="AP7" s="174"/>
+      <c r="AQ7" s="174"/>
+      <c r="AR7" s="174"/>
+      <c r="AS7" s="178">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="181"/>
+      <c r="AT7" s="178"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180" t="s">
+      <c r="AV7" s="174" t="s">
         <v>251</v>
       </c>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="181">
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="178">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="181"/>
+      <c r="BA7" s="178"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="192"/>
-      <c r="BD7" s="193"/>
-      <c r="BE7" s="180" t="s">
+      <c r="BC7" s="182"/>
+      <c r="BD7" s="183"/>
+      <c r="BE7" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180" t="s">
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174" t="s">
         <v>254</v>
       </c>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="181">
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="178">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="181"/>
+      <c r="BJ7" s="178"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="174">
         <v>42982</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="174"/>
+      <c r="BN7" s="174">
         <v>42982</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180"/>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180"/>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180"/>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180"/>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180"/>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180"/>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180"/>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="181">
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174"/>
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174"/>
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174"/>
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174"/>
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174"/>
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174"/>
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174"/>
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="178">
         <f>COUNT(BL9,BN9,BP9,BR9,BT9,BV9,BX9,BZ9,CB9,CD9,CF9,CH9,CJ9,CL9,CN9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="181"/>
+      <c r="CO7" s="178"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="185"/>
-      <c r="CR7" s="185"/>
-      <c r="CS7" s="167"/>
-      <c r="CT7" s="167"/>
-      <c r="CU7" s="190"/>
+      <c r="CQ7" s="192"/>
+      <c r="CR7" s="192"/>
+      <c r="CS7" s="188"/>
+      <c r="CT7" s="188"/>
+      <c r="CU7" s="180"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="178" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178" t="s">
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179" t="s">
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179" t="s">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179" t="s">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179" t="s">
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179" t="s">
+      <c r="S8" s="167"/>
+      <c r="T8" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179" t="s">
+      <c r="U8" s="167"/>
+      <c r="V8" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="179"/>
-      <c r="X8" s="179" t="s">
+      <c r="W8" s="167"/>
+      <c r="X8" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179" t="s">
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="179" t="s">
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179" t="s">
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="179" t="s">
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179" t="s">
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="179" t="s">
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179" t="s">
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="179"/>
+      <c r="AM8" s="167"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="179" t="s">
+      <c r="AO8" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="179"/>
-      <c r="AQ8" s="179" t="s">
+      <c r="AP8" s="167"/>
+      <c r="AQ8" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="179"/>
-      <c r="AS8" s="179" t="s">
+      <c r="AR8" s="167"/>
+      <c r="AS8" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="179"/>
+      <c r="AT8" s="167"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="179" t="s">
+      <c r="AV8" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="179"/>
-      <c r="AX8" s="179" t="s">
+      <c r="AW8" s="167"/>
+      <c r="AX8" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="179"/>
-      <c r="AZ8" s="179" t="s">
+      <c r="AY8" s="167"/>
+      <c r="AZ8" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="179"/>
+      <c r="BA8" s="167"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="192"/>
-      <c r="BD8" s="193"/>
-      <c r="BE8" s="201" t="s">
+      <c r="BC8" s="182"/>
+      <c r="BD8" s="183"/>
+      <c r="BE8" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="198"/>
-      <c r="BG8" s="198" t="s">
+      <c r="BF8" s="176"/>
+      <c r="BG8" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="198"/>
-      <c r="BI8" s="198" t="s">
+      <c r="BH8" s="176"/>
+      <c r="BI8" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="198"/>
+      <c r="BJ8" s="176"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="199" t="s">
+      <c r="BL8" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="200"/>
-      <c r="BN8" s="199" t="s">
+      <c r="BM8" s="171"/>
+      <c r="BN8" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="200"/>
-      <c r="BP8" s="199" t="s">
+      <c r="BO8" s="171"/>
+      <c r="BP8" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="200"/>
-      <c r="BR8" s="199" t="s">
+      <c r="BQ8" s="171"/>
+      <c r="BR8" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="200"/>
-      <c r="BT8" s="199" t="s">
+      <c r="BS8" s="171"/>
+      <c r="BT8" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="200"/>
-      <c r="BV8" s="186" t="s">
+      <c r="BU8" s="171"/>
+      <c r="BV8" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="187"/>
-      <c r="BX8" s="186" t="s">
+      <c r="BW8" s="169"/>
+      <c r="BX8" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="187"/>
-      <c r="BZ8" s="186" t="s">
+      <c r="BY8" s="169"/>
+      <c r="BZ8" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="187"/>
-      <c r="CB8" s="186" t="s">
+      <c r="CA8" s="169"/>
+      <c r="CB8" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="187"/>
-      <c r="CD8" s="186" t="s">
+      <c r="CC8" s="169"/>
+      <c r="CD8" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="187"/>
-      <c r="CF8" s="186" t="s">
+      <c r="CE8" s="169"/>
+      <c r="CF8" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="187"/>
-      <c r="CH8" s="186" t="s">
+      <c r="CG8" s="169"/>
+      <c r="CH8" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="187"/>
-      <c r="CJ8" s="186" t="s">
+      <c r="CI8" s="169"/>
+      <c r="CJ8" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="187"/>
-      <c r="CL8" s="186" t="s">
+      <c r="CK8" s="169"/>
+      <c r="CL8" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="187"/>
-      <c r="CN8" s="186" t="s">
+      <c r="CM8" s="169"/>
+      <c r="CN8" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="187"/>
+      <c r="CO8" s="169"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="185"/>
-      <c r="CR8" s="185"/>
-      <c r="CS8" s="167"/>
-      <c r="CT8" s="167"/>
-      <c r="CU8" s="190"/>
+      <c r="CQ8" s="192"/>
+      <c r="CR8" s="192"/>
+      <c r="CS8" s="188"/>
+      <c r="CT8" s="188"/>
+      <c r="CU8" s="180"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6771,9 +6771,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="167"/>
-      <c r="CT9" s="167"/>
-      <c r="CU9" s="191"/>
+      <c r="CS9" s="188"/>
+      <c r="CT9" s="188"/>
+      <c r="CU9" s="181"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -6933,15 +6933,15 @@
         <v>70</v>
       </c>
       <c r="BI10" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ10" s="86">
         <f>IFERROR(((finalExamLab/$BI$9)*100),"")</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK10" s="97">
         <f>IFERROR(((SUM(BF10,BH10,BJ10)/$BI$7)*$BK$7),"")</f>
-        <v>35.5</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="BL10" s="101">
         <v>100</v>
@@ -7044,19 +7044,19 @@
       </c>
       <c r="CQ10" s="93">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>81</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="CR10" s="93">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>81</v>
+        <v>86.83</v>
       </c>
       <c r="CS10" s="98">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>74.415999999999997</v>
+        <v>77.914000000000001</v>
       </c>
       <c r="CT10" s="98">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="CU10" s="87" t="str">
         <f>IF(CT10&lt;=3,"PASSED","FAILED")</f>
@@ -7221,15 +7221,15 @@
         <v>75</v>
       </c>
       <c r="BI11" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ11" s="86">
         <f>IFERROR(((BI11/$BI$9)*100),"")</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK11" s="97">
         <f t="shared" ref="BK11:BK70" si="22">IFERROR(((SUM(BF11,BH11,BJ11)/$BI$7)*$BK$7),"")</f>
-        <v>37</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="BL11" s="102">
         <v>100</v>
@@ -7332,19 +7332,19 @@
       </c>
       <c r="CQ11" s="93">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>82.75</v>
+        <v>88.583333333333343</v>
       </c>
       <c r="CR11" s="93">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>82.75</v>
+        <v>88.58</v>
       </c>
       <c r="CS11" s="98">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>74.313999999999993</v>
+        <v>77.811999999999998</v>
       </c>
       <c r="CT11" s="98">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="CU11" s="87" t="str">
         <f t="shared" ref="CU11:CU70" si="42">IF(CT11&lt;=3,"PASSED","FAILED")</f>
@@ -7509,15 +7509,15 @@
         <v>100</v>
       </c>
       <c r="BI12" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ12" s="86">
         <f t="shared" ref="BJ12:BJ70" si="44">IFERROR(((BI12/$BI$9)*100),"")</f>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK12" s="97">
         <f t="shared" si="22"/>
-        <v>41.833333333333336</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="BL12" s="102">
         <v>100</v>
@@ -7620,19 +7620,19 @@
       </c>
       <c r="CQ12" s="93">
         <f t="shared" si="39"/>
-        <v>87.333333333333343</v>
+        <v>93.166666666666657</v>
       </c>
       <c r="CR12" s="93">
         <f t="shared" si="40"/>
-        <v>87.33</v>
+        <v>93.17</v>
       </c>
       <c r="CS12" s="98">
         <f t="shared" si="41"/>
-        <v>79.253999999999991</v>
+        <v>82.75800000000001</v>
       </c>
       <c r="CT12" s="98">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="CU12" s="87" t="str">
         <f t="shared" si="42"/>
@@ -7797,15 +7797,15 @@
         <v>100</v>
       </c>
       <c r="BI13" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ13" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK13" s="97">
         <f t="shared" si="22"/>
-        <v>40.5</v>
+        <v>46.333333333333336</v>
       </c>
       <c r="BL13" s="102">
         <v>100</v>
@@ -7908,19 +7908,19 @@
       </c>
       <c r="CQ13" s="93">
         <f t="shared" si="39"/>
-        <v>86</v>
+        <v>91.833333333333343</v>
       </c>
       <c r="CR13" s="93">
         <f t="shared" si="40"/>
-        <v>86</v>
+        <v>91.83</v>
       </c>
       <c r="CS13" s="98">
         <f t="shared" si="41"/>
-        <v>77.816000000000003</v>
+        <v>81.314000000000007</v>
       </c>
       <c r="CT13" s="98">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="CU13" s="87" t="str">
         <f t="shared" si="42"/>
@@ -8085,15 +8085,15 @@
         <v>90</v>
       </c>
       <c r="BI14" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ14" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK14" s="97">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="BL14" s="102">
         <v>100</v>
@@ -8196,19 +8196,19 @@
       </c>
       <c r="CQ14" s="93">
         <f t="shared" si="39"/>
-        <v>85.5</v>
+        <v>91.333333333333343</v>
       </c>
       <c r="CR14" s="93">
         <f t="shared" si="40"/>
-        <v>85.5</v>
+        <v>91.33</v>
       </c>
       <c r="CS14" s="98">
         <f t="shared" si="41"/>
-        <v>71.816000000000003</v>
+        <v>75.313999999999993</v>
       </c>
       <c r="CT14" s="98">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CU14" s="87" t="str">
         <f t="shared" si="42"/>
@@ -8373,15 +8373,15 @@
         <v>95</v>
       </c>
       <c r="BI15" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ15" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK15" s="97">
         <f t="shared" si="22"/>
-        <v>41</v>
+        <v>46.833333333333336</v>
       </c>
       <c r="BL15" s="102">
         <v>100</v>
@@ -8484,19 +8484,19 @@
       </c>
       <c r="CQ15" s="93">
         <f t="shared" si="39"/>
-        <v>86.5</v>
+        <v>92.333333333333343</v>
       </c>
       <c r="CR15" s="93">
         <f t="shared" si="40"/>
-        <v>86.5</v>
+        <v>92.33</v>
       </c>
       <c r="CS15" s="98">
         <f t="shared" si="41"/>
-        <v>81.448000000000008</v>
+        <v>84.945999999999998</v>
       </c>
       <c r="CT15" s="98">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU15" s="87" t="str">
         <f t="shared" si="42"/>
@@ -8661,15 +8661,15 @@
         <v>90</v>
       </c>
       <c r="BI16" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ16" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK16" s="97">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="BL16" s="102">
         <v>100</v>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="CL16" s="101"/>
       <c r="CM16" s="86" t="str">
-        <f t="shared" si="36"/>
+        <f>IFERROR(((CL16/$CL$9)*100),"")</f>
         <v/>
       </c>
       <c r="CN16" s="101"/>
@@ -8772,19 +8772,19 @@
       </c>
       <c r="CQ16" s="93">
         <f t="shared" si="39"/>
-        <v>83</v>
+        <v>88.833333333333343</v>
       </c>
       <c r="CR16" s="93">
         <f t="shared" si="40"/>
-        <v>83</v>
+        <v>88.83</v>
       </c>
       <c r="CS16" s="98">
         <f t="shared" si="41"/>
-        <v>75.983999999999995</v>
+        <v>79.481999999999999</v>
       </c>
       <c r="CT16" s="98">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="CU16" s="87" t="str">
         <f t="shared" si="42"/>
@@ -8949,15 +8949,15 @@
         <v>100</v>
       </c>
       <c r="BI17" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ17" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK17" s="97">
         <f t="shared" si="22"/>
-        <v>41.666666666666664</v>
+        <v>47.5</v>
       </c>
       <c r="BL17" s="102">
         <v>100</v>
@@ -9060,19 +9060,19 @@
       </c>
       <c r="CQ17" s="93">
         <f t="shared" si="39"/>
-        <v>87.166666666666657</v>
+        <v>93</v>
       </c>
       <c r="CR17" s="93">
         <f t="shared" si="40"/>
-        <v>87.17</v>
+        <v>93</v>
       </c>
       <c r="CS17" s="98">
         <f t="shared" si="41"/>
-        <v>76.298000000000002</v>
+        <v>79.795999999999992</v>
       </c>
       <c r="CT17" s="98">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="CU17" s="87" t="str">
         <f t="shared" si="42"/>
@@ -9237,15 +9237,15 @@
         <v>90</v>
       </c>
       <c r="BI18" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ18" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK18" s="97">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="BL18" s="102">
         <v>100</v>
@@ -9348,19 +9348,19 @@
       </c>
       <c r="CQ18" s="93">
         <f t="shared" si="39"/>
-        <v>87</v>
+        <v>92.833333333333343</v>
       </c>
       <c r="CR18" s="93">
         <f t="shared" si="40"/>
-        <v>87</v>
+        <v>92.83</v>
       </c>
       <c r="CS18" s="98">
         <f t="shared" si="41"/>
-        <v>82.275999999999996</v>
+        <v>85.774000000000001</v>
       </c>
       <c r="CT18" s="98">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU18" s="87" t="str">
         <f t="shared" si="42"/>
@@ -9525,15 +9525,15 @@
         <v>100</v>
       </c>
       <c r="BI19" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ19" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK19" s="97">
         <f t="shared" si="22"/>
-        <v>41.666666666666664</v>
+        <v>47.5</v>
       </c>
       <c r="BL19" s="102">
         <v>100</v>
@@ -9636,19 +9636,19 @@
       </c>
       <c r="CQ19" s="93">
         <f t="shared" si="39"/>
-        <v>85.666666666666657</v>
+        <v>91.5</v>
       </c>
       <c r="CR19" s="93">
         <f t="shared" si="40"/>
-        <v>85.67</v>
+        <v>91.5</v>
       </c>
       <c r="CS19" s="98">
         <f t="shared" si="41"/>
-        <v>81.186000000000007</v>
+        <v>84.683999999999997</v>
       </c>
       <c r="CT19" s="98">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU19" s="87" t="str">
         <f t="shared" si="42"/>
@@ -9813,15 +9813,15 @@
         <v>75</v>
       </c>
       <c r="BI20" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ20" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK20" s="97">
         <f t="shared" si="22"/>
-        <v>37</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="BL20" s="102">
         <v>100</v>
@@ -9924,23 +9924,23 @@
       </c>
       <c r="CQ20" s="93">
         <f t="shared" si="39"/>
-        <v>81</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="CR20" s="93">
         <f t="shared" si="40"/>
-        <v>81</v>
+        <v>86.83</v>
       </c>
       <c r="CS20" s="98">
         <f t="shared" si="41"/>
-        <v>69.063999999999993</v>
+        <v>72.561999999999998</v>
       </c>
       <c r="CT20" s="98">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU20" s="87" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="21" spans="1:99">
@@ -10101,15 +10101,15 @@
         <v>90</v>
       </c>
       <c r="BI21" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ21" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK21" s="97">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="BL21" s="102">
         <v>100</v>
@@ -10212,19 +10212,19 @@
       </c>
       <c r="CQ21" s="93">
         <f t="shared" si="39"/>
-        <v>85.25</v>
+        <v>91.083333333333343</v>
       </c>
       <c r="CR21" s="93">
         <f t="shared" si="40"/>
-        <v>85.25</v>
+        <v>91.08</v>
       </c>
       <c r="CS21" s="98">
         <f t="shared" si="41"/>
-        <v>70.301999999999992</v>
+        <v>73.8</v>
       </c>
       <c r="CT21" s="98">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CU21" s="87" t="str">
         <f t="shared" si="42"/>
@@ -10389,15 +10389,15 @@
         <v>100</v>
       </c>
       <c r="BI22" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ22" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK22" s="97">
         <f t="shared" si="22"/>
-        <v>42</v>
+        <v>47.833333333333336</v>
       </c>
       <c r="BL22" s="102">
         <v>100</v>
@@ -10500,19 +10500,19 @@
       </c>
       <c r="CQ22" s="93">
         <f t="shared" si="39"/>
-        <v>87.5</v>
+        <v>93.333333333333343</v>
       </c>
       <c r="CR22" s="93">
         <f t="shared" si="40"/>
-        <v>87.5</v>
+        <v>93.33</v>
       </c>
       <c r="CS22" s="98">
         <f t="shared" si="41"/>
-        <v>82.28</v>
+        <v>85.777999999999992</v>
       </c>
       <c r="CT22" s="98">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU22" s="87" t="str">
         <f t="shared" si="42"/>
@@ -10930,15 +10930,15 @@
         <v>90</v>
       </c>
       <c r="BI24" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ24" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK24" s="97">
         <f t="shared" si="22"/>
-        <v>39.166666666666664</v>
+        <v>45</v>
       </c>
       <c r="BL24" s="102">
         <v>100</v>
@@ -11041,19 +11041,19 @@
       </c>
       <c r="CQ24" s="93">
         <f t="shared" si="39"/>
-        <v>82.166666666666657</v>
+        <v>88</v>
       </c>
       <c r="CR24" s="93">
         <f t="shared" si="40"/>
-        <v>82.17</v>
+        <v>88</v>
       </c>
       <c r="CS24" s="98">
         <f t="shared" si="45"/>
-        <v>75.366</v>
+        <v>78.864000000000004</v>
       </c>
       <c r="CT24" s="98">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="CU24" s="87" t="str">
         <f t="shared" si="42"/>
@@ -11218,15 +11218,15 @@
         <v>95</v>
       </c>
       <c r="BI25" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ25" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK25" s="97">
         <f t="shared" si="22"/>
-        <v>41.166666666666664</v>
+        <v>47</v>
       </c>
       <c r="BL25" s="102">
         <v>100</v>
@@ -11329,19 +11329,19 @@
       </c>
       <c r="CQ25" s="93">
         <f t="shared" si="39"/>
-        <v>87.166666666666657</v>
+        <v>93</v>
       </c>
       <c r="CR25" s="93">
         <f t="shared" si="40"/>
-        <v>87.17</v>
+        <v>93</v>
       </c>
       <c r="CS25" s="98">
         <f t="shared" si="45"/>
-        <v>84.274000000000001</v>
+        <v>87.772000000000006</v>
       </c>
       <c r="CT25" s="98">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="CU25" s="87" t="str">
         <f t="shared" si="42"/>
@@ -11506,15 +11506,15 @@
         <v>83</v>
       </c>
       <c r="BI26" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ26" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK26" s="97">
         <f t="shared" si="22"/>
-        <v>38</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="BL26" s="102">
         <v>100</v>
@@ -11617,19 +11617,19 @@
       </c>
       <c r="CQ26" s="93">
         <f t="shared" si="39"/>
-        <v>82.75</v>
+        <v>88.583333333333343</v>
       </c>
       <c r="CR26" s="93">
         <f t="shared" si="40"/>
-        <v>82.75</v>
+        <v>88.58</v>
       </c>
       <c r="CS26" s="98">
         <f t="shared" si="45"/>
-        <v>73.141999999999996</v>
+        <v>76.64</v>
       </c>
       <c r="CT26" s="98">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CU26" s="87" t="str">
         <f t="shared" si="42"/>
@@ -11794,15 +11794,15 @@
         <v>88</v>
       </c>
       <c r="BI27" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ27" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK27" s="97">
         <f t="shared" si="22"/>
-        <v>38.833333333333336</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="BL27" s="102">
         <v>100</v>
@@ -11905,19 +11905,19 @@
       </c>
       <c r="CQ27" s="93">
         <f t="shared" si="39"/>
-        <v>83.583333333333343</v>
+        <v>89.416666666666657</v>
       </c>
       <c r="CR27" s="93">
         <f t="shared" si="40"/>
-        <v>83.58</v>
+        <v>89.42</v>
       </c>
       <c r="CS27" s="98">
         <f t="shared" si="45"/>
-        <v>76.683999999999997</v>
+        <v>80.188000000000002</v>
       </c>
       <c r="CT27" s="98">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="CU27" s="87" t="str">
         <f t="shared" si="42"/>
@@ -12082,15 +12082,15 @@
         <v>100</v>
       </c>
       <c r="BI28" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ28" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK28" s="97">
         <f t="shared" si="22"/>
-        <v>41.833333333333336</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="BL28" s="102">
         <v>100</v>
@@ -12193,19 +12193,19 @@
       </c>
       <c r="CQ28" s="93">
         <f t="shared" si="39"/>
-        <v>86.583333333333343</v>
+        <v>92.416666666666657</v>
       </c>
       <c r="CR28" s="93">
         <f t="shared" si="40"/>
-        <v>86.58</v>
+        <v>92.42</v>
       </c>
       <c r="CS28" s="98">
         <f t="shared" si="45"/>
-        <v>81.347999999999999</v>
+        <v>84.852000000000004</v>
       </c>
       <c r="CT28" s="98">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU28" s="87" t="str">
         <f t="shared" si="42"/>
@@ -12370,15 +12370,15 @@
         <v>92</v>
       </c>
       <c r="BI29" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ29" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK29" s="97">
         <f t="shared" si="22"/>
-        <v>40.666666666666664</v>
+        <v>46.5</v>
       </c>
       <c r="BL29" s="102">
         <v>100</v>
@@ -12481,19 +12481,19 @@
       </c>
       <c r="CQ29" s="93">
         <f t="shared" si="39"/>
-        <v>86.166666666666657</v>
+        <v>92</v>
       </c>
       <c r="CR29" s="93">
         <f t="shared" si="40"/>
-        <v>86.17</v>
+        <v>92</v>
       </c>
       <c r="CS29" s="98">
         <f t="shared" si="45"/>
-        <v>80.22999999999999</v>
+        <v>83.727999999999994</v>
       </c>
       <c r="CT29" s="98">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU29" s="87" t="str">
         <f t="shared" si="42"/>
@@ -12658,15 +12658,15 @@
         <v>90</v>
       </c>
       <c r="BI30" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ30" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK30" s="97">
         <f t="shared" si="22"/>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="BL30" s="102">
         <v>100</v>
@@ -12769,19 +12769,19 @@
       </c>
       <c r="CQ30" s="93">
         <f t="shared" si="39"/>
-        <v>84.25</v>
+        <v>90.083333333333343</v>
       </c>
       <c r="CR30" s="93">
         <f t="shared" si="40"/>
-        <v>84.25</v>
+        <v>90.08</v>
       </c>
       <c r="CS30" s="98">
         <f t="shared" si="45"/>
-        <v>78.89</v>
+        <v>82.387999999999991</v>
       </c>
       <c r="CT30" s="98">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="CU30" s="87" t="str">
         <f t="shared" si="42"/>
@@ -12946,15 +12946,15 @@
         <v>75</v>
       </c>
       <c r="BI31" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ31" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK31" s="97">
         <f t="shared" si="22"/>
-        <v>37.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="BL31" s="102">
         <v>100</v>
@@ -13057,19 +13057,19 @@
       </c>
       <c r="CQ31" s="93">
         <f t="shared" si="39"/>
-        <v>81.5</v>
+        <v>87.333333333333343</v>
       </c>
       <c r="CR31" s="93">
         <f t="shared" si="40"/>
-        <v>81.5</v>
+        <v>87.33</v>
       </c>
       <c r="CS31" s="98">
         <f t="shared" si="45"/>
-        <v>71.956000000000003</v>
+        <v>75.453999999999994</v>
       </c>
       <c r="CT31" s="98">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CU31" s="87" t="str">
         <f t="shared" si="42"/>
@@ -13234,15 +13234,15 @@
         <v>65</v>
       </c>
       <c r="BI32" s="101">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BJ32" s="86">
         <f t="shared" si="44"/>
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="BK32" s="97">
         <f t="shared" si="22"/>
-        <v>35.833333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="BL32" s="102">
         <v>100</v>
@@ -13345,19 +13345,19 @@
       </c>
       <c r="CQ32" s="93">
         <f t="shared" si="39"/>
-        <v>76.083333333333343</v>
+        <v>81.916666666666657</v>
       </c>
       <c r="CR32" s="93">
         <f t="shared" si="40"/>
-        <v>76.08</v>
+        <v>81.92</v>
       </c>
       <c r="CS32" s="98">
         <f t="shared" si="45"/>
-        <v>71.899999999999991</v>
+        <v>75.403999999999996</v>
       </c>
       <c r="CT32" s="98">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="CU32" s="87" t="str">
         <f t="shared" si="42"/>
@@ -22790,6 +22790,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22806,88 +22888,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23119,7 +23119,7 @@
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
-        <v>35.5</v>
+        <v>41.333333333333336</v>
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
@@ -23127,19 +23127,19 @@
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>81</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>81</v>
+        <v>86.83</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>74.415999999999997</v>
+        <v>77.914000000000001</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P8" s="59" t="str">
         <f>IF(O8&gt;3,"FAILED","PASSED")</f>
@@ -23184,7 +23184,7 @@
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
-        <v>37</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
@@ -23192,19 +23192,19 @@
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>82.75</v>
+        <v>88.583333333333343</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>82.75</v>
+        <v>88.58</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>74.313999999999993</v>
+        <v>77.811999999999998</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P9" s="59" t="str">
         <f>IF(O9&gt;3,"FAILED","PASSED")</f>
@@ -23249,7 +23249,7 @@
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
-        <v>41.833333333333336</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
@@ -23257,19 +23257,19 @@
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>87.333333333333343</v>
+        <v>93.166666666666657</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>87.33</v>
+        <v>93.17</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>79.253999999999991</v>
+        <v>82.75800000000001</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P10" s="59" t="str">
         <f t="shared" ref="P10:P68" si="0">IF(O10&gt;3,"FAILED","PASSED")</f>
@@ -23314,7 +23314,7 @@
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
-        <v>40.5</v>
+        <v>46.333333333333336</v>
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
@@ -23322,19 +23322,19 @@
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>86</v>
+        <v>91.833333333333343</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>86</v>
+        <v>91.83</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>77.816000000000003</v>
+        <v>81.314000000000007</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P11" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23379,7 +23379,7 @@
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
@@ -23387,19 +23387,19 @@
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>85.5</v>
+        <v>91.333333333333343</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>85.5</v>
+        <v>91.33</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>71.816000000000003</v>
+        <v>75.313999999999993</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P12" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23444,7 +23444,7 @@
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
-        <v>41</v>
+        <v>46.833333333333336</v>
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
@@ -23452,19 +23452,19 @@
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>86.5</v>
+        <v>92.333333333333343</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>86.5</v>
+        <v>92.33</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>81.448000000000008</v>
+        <v>84.945999999999998</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P13" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23509,7 +23509,7 @@
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
@@ -23517,19 +23517,19 @@
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>83</v>
+        <v>88.833333333333343</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>83</v>
+        <v>88.83</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>75.983999999999995</v>
+        <v>79.481999999999999</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P14" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23574,7 +23574,7 @@
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
-        <v>41.666666666666664</v>
+        <v>47.5</v>
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
@@ -23582,19 +23582,19 @@
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>87.166666666666657</v>
+        <v>93</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>87.17</v>
+        <v>93</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>76.298000000000002</v>
+        <v>79.795999999999992</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P15" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23639,7 +23639,7 @@
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
@@ -23647,19 +23647,19 @@
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>87</v>
+        <v>92.833333333333343</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>87</v>
+        <v>92.83</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>82.275999999999996</v>
+        <v>85.774000000000001</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P16" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
-        <v>41.666666666666664</v>
+        <v>47.5</v>
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
@@ -23712,19 +23712,19 @@
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>85.666666666666657</v>
+        <v>91.5</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>85.67</v>
+        <v>91.5</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>81.186000000000007</v>
+        <v>84.683999999999997</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P17" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23769,7 +23769,7 @@
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
-        <v>37</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
@@ -23777,23 +23777,23 @@
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>81</v>
+        <v>86.833333333333343</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>81</v>
+        <v>86.83</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>69.063999999999993</v>
+        <v>72.561999999999998</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -23834,7 +23834,7 @@
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
@@ -23842,19 +23842,19 @@
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>85.25</v>
+        <v>91.083333333333343</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>85.25</v>
+        <v>91.08</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>70.301999999999992</v>
+        <v>73.8</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P19" s="59" t="str">
         <f t="shared" si="0"/>
@@ -23899,7 +23899,7 @@
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
-        <v>42</v>
+        <v>47.833333333333336</v>
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
@@ -23907,19 +23907,19 @@
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>87.5</v>
+        <v>93.333333333333343</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>87.5</v>
+        <v>93.33</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>82.28</v>
+        <v>85.777999999999992</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P20" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24028,7 +24028,7 @@
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
-        <v>39.166666666666664</v>
+        <v>45</v>
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
@@ -24036,19 +24036,19 @@
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>82.166666666666657</v>
+        <v>88</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>82.17</v>
+        <v>88</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>75.366</v>
+        <v>78.864000000000004</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="P22" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
-        <v>41.166666666666664</v>
+        <v>47</v>
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
@@ -24101,19 +24101,19 @@
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>87.166666666666657</v>
+        <v>93</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>87.17</v>
+        <v>93</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>84.274000000000001</v>
+        <v>87.772000000000006</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P23" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24158,7 +24158,7 @@
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
-        <v>38</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
@@ -24166,19 +24166,19 @@
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>82.75</v>
+        <v>88.583333333333343</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>82.75</v>
+        <v>88.58</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>73.141999999999996</v>
+        <v>76.64</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P24" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24223,7 +24223,7 @@
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
-        <v>38.833333333333336</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
@@ -24231,19 +24231,19 @@
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>83.583333333333343</v>
+        <v>89.416666666666657</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>83.58</v>
+        <v>89.42</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>76.683999999999997</v>
+        <v>80.188000000000002</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P25" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24288,7 +24288,7 @@
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
-        <v>41.833333333333336</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
@@ -24296,19 +24296,19 @@
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>86.583333333333343</v>
+        <v>92.416666666666657</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>86.58</v>
+        <v>92.42</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>81.347999999999999</v>
+        <v>84.852000000000004</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P26" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24353,7 +24353,7 @@
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
-        <v>40.666666666666664</v>
+        <v>46.5</v>
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
@@ -24361,19 +24361,19 @@
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>86.166666666666657</v>
+        <v>92</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>86.17</v>
+        <v>92</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>80.22999999999999</v>
+        <v>83.727999999999994</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P27" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24418,7 +24418,7 @@
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
-        <v>40</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
@@ -24426,19 +24426,19 @@
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>84.25</v>
+        <v>90.083333333333343</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>84.25</v>
+        <v>90.08</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>78.89</v>
+        <v>82.387999999999991</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P28" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24483,7 +24483,7 @@
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
-        <v>37.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
@@ -24491,19 +24491,19 @@
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>81.5</v>
+        <v>87.333333333333343</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>81.5</v>
+        <v>87.33</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>71.956000000000003</v>
+        <v>75.453999999999994</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P29" s="59" t="str">
         <f t="shared" si="0"/>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
-        <v>35.833333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
@@ -24556,19 +24556,19 @@
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>76.083333333333343</v>
+        <v>81.916666666666657</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>76.08</v>
+        <v>81.92</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>71.899999999999991</v>
+        <v>75.403999999999996</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P30" s="59" t="str">
         <f t="shared" si="0"/>
@@ -27071,8 +27071,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27100,106 +27100,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="220"/>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
+      <c r="A3" s="251"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="254" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="256" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="224"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="257"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="220"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
+      <c r="A10" s="258"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="224"/>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
+      <c r="A12" s="257"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="227" t="str">
+      <c r="C13" s="260" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27207,12 +27207,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="219" t="str">
+      <c r="C14" s="253" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27220,12 +27220,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="230" t="str">
+      <c r="C15" s="239" t="str">
         <f>REGISTRATION!A4</f>
         <v>THIRD YEAR</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27233,12 +27233,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="230" t="str">
+      <c r="C16" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27246,12 +27246,12 @@
       <c r="B17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="230" t="str">
+      <c r="C17" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27263,42 +27263,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="234" t="s">
+      <c r="B19" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="231" t="s">
+      <c r="D19" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="236" t="s">
+      <c r="E19" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="231" t="s">
+      <c r="F19" s="240" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="232"/>
-      <c r="B20" s="235"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="239"/>
+      <c r="A20" s="241"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="248"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="233"/>
+      <c r="A21" s="242"/>
       <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="238"/>
-      <c r="F21" s="240"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="249"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -27314,7 +27314,7 @@
       </c>
       <c r="D22" s="68">
         <f>'DEPT CHAIR'!O8</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>IF(D22&lt;=3,"3","0")</f>
@@ -27339,7 +27339,7 @@
       </c>
       <c r="D23" s="68">
         <f>'DEPT CHAIR'!O9</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E23" s="69" t="str">
         <f t="shared" ref="E23:E43" si="0">IF(D23&lt;=3,"3","0")</f>
@@ -27364,7 +27364,7 @@
       </c>
       <c r="D24" s="68">
         <f>'DEPT CHAIR'!O10</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="E24" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="D25" s="68">
         <f>'DEPT CHAIR'!O11</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="E25" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27414,7 +27414,7 @@
       </c>
       <c r="D26" s="68">
         <f>'DEPT CHAIR'!O12</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E26" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27439,7 +27439,7 @@
       </c>
       <c r="D27" s="68">
         <f>'DEPT CHAIR'!O13</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E27" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27464,7 +27464,7 @@
       </c>
       <c r="D28" s="68">
         <f>'DEPT CHAIR'!O14</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27489,7 +27489,7 @@
       </c>
       <c r="D29" s="68">
         <f>'DEPT CHAIR'!O15</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E29" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27514,7 +27514,7 @@
       </c>
       <c r="D30" s="68">
         <f>'DEPT CHAIR'!O16</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E30" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27539,7 +27539,7 @@
       </c>
       <c r="D31" s="68">
         <f>'DEPT CHAIR'!O17</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E31" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27564,14 +27564,14 @@
       </c>
       <c r="D32" s="68">
         <f>'DEPT CHAIR'!O18</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="69">
         <v>3</v>
       </c>
       <c r="F32" s="70" t="str">
         <f>'DEPT CHAIR'!P18</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="D33" s="68">
         <f>'DEPT CHAIR'!O19</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E33" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27613,7 +27613,7 @@
       </c>
       <c r="D34" s="68">
         <f>'DEPT CHAIR'!O20</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E34" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27663,7 +27663,7 @@
       </c>
       <c r="D36" s="68">
         <f>'DEPT CHAIR'!O22</f>
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="E36" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27688,7 +27688,7 @@
       </c>
       <c r="D37" s="68">
         <f>'DEPT CHAIR'!O23</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="E37" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27713,7 +27713,7 @@
       </c>
       <c r="D38" s="68">
         <f>'DEPT CHAIR'!O24</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E38" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27738,7 +27738,7 @@
       </c>
       <c r="D39" s="68">
         <f>'DEPT CHAIR'!O25</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="E39" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="D40" s="68">
         <f>'DEPT CHAIR'!O26</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E40" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27788,7 +27788,7 @@
       </c>
       <c r="D41" s="68">
         <f>'DEPT CHAIR'!O27</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E41" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27813,7 +27813,7 @@
       </c>
       <c r="D42" s="68">
         <f>'DEPT CHAIR'!O28</f>
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="E42" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27838,7 +27838,7 @@
       </c>
       <c r="D43" s="68">
         <f>'DEPT CHAIR'!O29</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E43" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27863,7 +27863,7 @@
       </c>
       <c r="D44" s="68">
         <f>'DEPT CHAIR'!O30</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="E44" s="69">
         <v>3</v>
@@ -27874,14 +27874,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A45" s="247" t="s">
+      <c r="A45" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="248"/>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="248"/>
-      <c r="F45" s="249"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="224"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="225"/>
     </row>
     <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="62"/>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
-      <c r="E49" s="241">
+      <c r="E49" s="250">
         <f ca="1">NOW()</f>
-        <v>43078.784621064813</v>
-      </c>
-      <c r="F49" s="241"/>
+        <v>43080.564512962963</v>
+      </c>
+      <c r="F49" s="250"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="60"/>
@@ -27928,10 +27928,10 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
-      <c r="E50" s="220" t="s">
+      <c r="E50" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="220"/>
+      <c r="F50" s="251"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="60"/>
@@ -27948,8 +27948,8 @@
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="220"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="251"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="60"/>
@@ -28064,14 +28064,14 @@
       <c r="F66" s="60"/>
     </row>
     <row r="67" spans="1:6" ht="15.75">
-      <c r="A67" s="242" t="s">
+      <c r="A67" s="252" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="242"/>
+      <c r="B67" s="252"/>
+      <c r="C67" s="252"/>
+      <c r="D67" s="252"/>
+      <c r="E67" s="252"/>
+      <c r="F67" s="252"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="60"/>
@@ -28086,124 +28086,124 @@
       <c r="B69" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="260" t="s">
+      <c r="C69" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="229"/>
-      <c r="E69" s="228" t="s">
+      <c r="D69" s="237"/>
+      <c r="E69" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="229"/>
+      <c r="F69" s="237"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="60"/>
       <c r="B70" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="256">
+      <c r="C70" s="232">
         <f>COUNTIF($D$22:$D$44,"=1.0")+COUNTIF($D$22:$D$44,"=1.25")+(COUNTIF($D$22:$D$44,"=1.50")+COUNTIF($D$22:$D$44,"=1.75"))</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="257"/>
-      <c r="E70" s="258">
+        <v>1</v>
+      </c>
+      <c r="D70" s="233"/>
+      <c r="E70" s="234">
         <f>(C70/$C$76)*100</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="259"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F70" s="235"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="60"/>
       <c r="B71" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="250">
+      <c r="C71" s="226">
         <f>COUNTIF($D$22:$D$44,"=2.0")+COUNTIF($D$22:$D$44,"=2.25")+(COUNTIF($D$22:$D$44,"=2.50")+COUNTIF($D$22:$D$44,"=2.75"))</f>
-        <v>16</v>
-      </c>
-      <c r="D71" s="251"/>
-      <c r="E71" s="252">
+        <v>20</v>
+      </c>
+      <c r="D71" s="227"/>
+      <c r="E71" s="228">
         <f>(C71/$C$76)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F71" s="253"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F71" s="229"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="60"/>
       <c r="B72" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="250">
+      <c r="C72" s="226">
         <f>COUNTIF($D$22:$D$44,"=3.0")</f>
-        <v>5</v>
-      </c>
-      <c r="D72" s="251"/>
-      <c r="E72" s="252">
+        <v>1</v>
+      </c>
+      <c r="D72" s="227"/>
+      <c r="E72" s="228">
         <f t="shared" ref="E72:E75" si="1">(C72/$C$76)*100</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="F72" s="253"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F72" s="229"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="60"/>
       <c r="B73" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="250">
+      <c r="C73" s="226">
         <f>COUNTIF($D$22:$D$44,"=5.0")</f>
-        <v>2</v>
-      </c>
-      <c r="D73" s="251"/>
-      <c r="E73" s="252">
+        <v>1</v>
+      </c>
+      <c r="D73" s="227"/>
+      <c r="E73" s="228">
         <f t="shared" si="1"/>
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="F73" s="253"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="F73" s="229"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="60"/>
       <c r="B74" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="254">
-        <v>0</v>
-      </c>
-      <c r="D74" s="255"/>
-      <c r="E74" s="252">
+      <c r="C74" s="230">
+        <v>0</v>
+      </c>
+      <c r="D74" s="231"/>
+      <c r="E74" s="228">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F74" s="253"/>
+      <c r="F74" s="229"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="60"/>
       <c r="B75" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="254">
+      <c r="C75" s="230">
         <v>1</v>
       </c>
-      <c r="D75" s="255"/>
-      <c r="E75" s="252">
+      <c r="D75" s="231"/>
+      <c r="E75" s="228">
         <f t="shared" si="1"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F75" s="253"/>
+      <c r="F75" s="229"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickBot="1">
       <c r="A76" s="60"/>
       <c r="B76" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="243">
+      <c r="C76" s="219">
         <f>SUM(C70:D75)</f>
         <v>24</v>
       </c>
-      <c r="D76" s="244"/>
-      <c r="E76" s="245">
+      <c r="D76" s="220"/>
+      <c r="E76" s="221">
         <f>SUM(E70:F75)</f>
-        <v>100</v>
-      </c>
-      <c r="F76" s="246"/>
+        <v>100.00000000000003</v>
+      </c>
+      <c r="F76" s="222"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="60"/>
@@ -28373,6 +28373,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A67:F67"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="A45:F45"/>
@@ -28389,32 +28415,6 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -2249,91 +2249,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2373,129 +2319,96 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2536,6 +2449,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2594,6 +2594,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2667,102 +2763,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,7 +3686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3697,8 +3697,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3719,82 +3719,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159" t="s">
+      <c r="A6" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="160"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3802,28 +3802,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="161"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="164"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="165"/>
+      <c r="F7" s="129"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3831,28 +3831,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="165" t="s">
+      <c r="J7" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="147" t="s">
+      <c r="E8" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="147"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3860,45 +3860,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="147" t="s">
+      <c r="J8" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="154" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="137" t="s">
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="137" t="s">
+      <c r="K9" s="144"/>
+      <c r="L9" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="138"/>
+      <c r="M9" s="144"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="150"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3908,14 +3908,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3936,19 +3936,19 @@
       <c r="F11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="142"/>
-      <c r="O11" s="131" t="s">
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="151"/>
+      <c r="O11" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="133"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="163"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -3969,21 +3969,21 @@
       <c r="F12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="148"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="126" t="s">
+      <c r="P12" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4004,21 +4004,21 @@
       <c r="F13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="148"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="126" t="s">
+      <c r="P13" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4039,21 +4039,21 @@
       <c r="F14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="123" t="s">
+      <c r="P14" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="125"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="158"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4074,21 +4074,21 @@
       <c r="F15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="123" t="s">
+      <c r="P15" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="125"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="158"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4109,21 +4109,21 @@
       <c r="F16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="148"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="134" t="s">
+      <c r="P16" s="164" t="s">
         <v>229</v>
       </c>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="136"/>
+      <c r="Q16" s="165"/>
+      <c r="R16" s="166"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4144,21 +4144,21 @@
       <c r="F17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="123" t="s">
+      <c r="P17" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="125"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="158"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4179,13 +4179,13 @@
       <c r="F18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4206,13 +4206,13 @@
       <c r="F19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4231,13 +4231,13 @@
       <c r="F20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4258,13 +4258,13 @@
       <c r="F21" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="148"/>
       <c r="P21" s="94" t="s">
         <v>142</v>
       </c>
@@ -4288,13 +4288,13 @@
       <c r="F22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="F23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -4354,13 +4354,13 @@
       <c r="F24" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -4387,13 +4387,13 @@
       <c r="F25" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -4420,13 +4420,13 @@
       <c r="F26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -4453,13 +4453,13 @@
       <c r="F27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -4486,13 +4486,13 @@
       <c r="F28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -4519,13 +4519,13 @@
       <c r="F29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -4552,13 +4552,13 @@
       <c r="F30" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="127"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -4585,13 +4585,13 @@
       <c r="F31" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -4614,13 +4614,13 @@
       <c r="F32" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -4647,13 +4647,13 @@
       <c r="F33" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4664,13 +4664,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4681,13 +4681,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4698,13 +4698,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4715,13 +4715,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4732,13 +4732,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4749,13 +4749,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4766,13 +4766,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4783,13 +4783,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4800,13 +4800,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4817,13 +4817,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4834,13 +4834,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4851,13 +4851,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="148"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4868,13 +4868,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="148"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4885,13 +4885,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="127"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="148"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4902,13 +4902,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="148"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4919,13 +4919,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="148"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4936,13 +4936,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="146"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4953,13 +4953,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="148"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4970,13 +4970,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="146"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="148"/>
+      <c r="M52" s="148"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4987,13 +4987,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="146"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="148"/>
+      <c r="M53" s="148"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5004,13 +5004,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="146"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="147"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="148"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5021,13 +5021,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="147"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="148"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5038,13 +5038,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="148"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5055,13 +5055,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="146"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="148"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5072,13 +5072,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="148"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5089,13 +5089,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="128"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
+      <c r="G59" s="146"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="146"/>
+      <c r="J59" s="147"/>
+      <c r="K59" s="147"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="148"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5106,13 +5106,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="128"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="148"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5123,13 +5123,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="148"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5140,13 +5140,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="128"/>
-      <c r="K62" s="128"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="129"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="148"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5157,13 +5157,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="128"/>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="148"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5174,13 +5174,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="148"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5191,13 +5191,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="128"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="129"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="146"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="147"/>
+      <c r="K65" s="147"/>
+      <c r="L65" s="148"/>
+      <c r="M65" s="148"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5208,13 +5208,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="129"/>
+      <c r="G66" s="146"/>
+      <c r="H66" s="146"/>
+      <c r="I66" s="146"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="148"/>
+      <c r="M66" s="148"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5225,13 +5225,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="129"/>
-      <c r="M67" s="129"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="147"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="148"/>
+      <c r="M67" s="148"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5242,13 +5242,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="129"/>
-      <c r="M68" s="129"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="147"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="148"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5259,13 +5259,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="128"/>
-      <c r="L69" s="129"/>
-      <c r="M69" s="129"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="147"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="148"/>
+      <c r="M69" s="148"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5276,13 +5276,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="128"/>
-      <c r="L70" s="129"/>
-      <c r="M70" s="129"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="148"/>
+      <c r="M70" s="148"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5293,208 +5293,19 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="127"/>
-      <c r="H71" s="127"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="129"/>
-      <c r="M71" s="129"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="146"/>
+      <c r="J71" s="147"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="148"/>
+      <c r="M71" s="148"/>
     </row>
   </sheetData>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5519,6 +5330,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5779,9 +5779,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB32" sqref="CB32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5795,452 +5795,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="130"/>
-      <c r="AX2" s="130"/>
-      <c r="AY2" s="130"/>
-      <c r="AZ2" s="130"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="130"/>
-      <c r="BG2" s="130"/>
-      <c r="BH2" s="130"/>
-      <c r="BI2" s="130"/>
-      <c r="BJ2" s="130"/>
-      <c r="BK2" s="130"/>
-      <c r="BL2" s="130"/>
-      <c r="BM2" s="130"/>
-      <c r="BN2" s="130"/>
-      <c r="BO2" s="130"/>
-      <c r="BP2" s="130"/>
-      <c r="BQ2" s="130"/>
-      <c r="BR2" s="130"/>
-      <c r="BS2" s="130"/>
-      <c r="BT2" s="130"/>
-      <c r="BU2" s="130"/>
-      <c r="BV2" s="130"/>
-      <c r="BW2" s="130"/>
-      <c r="BX2" s="130"/>
-      <c r="BY2" s="130"/>
-      <c r="BZ2" s="130"/>
-      <c r="CA2" s="130"/>
-      <c r="CB2" s="130"/>
-      <c r="CC2" s="130"/>
-      <c r="CD2" s="130"/>
-      <c r="CE2" s="130"/>
-      <c r="CF2" s="130"/>
-      <c r="CG2" s="130"/>
-      <c r="CH2" s="130"/>
-      <c r="CI2" s="130"/>
-      <c r="CJ2" s="130"/>
-      <c r="CK2" s="130"/>
-      <c r="CL2" s="130"/>
-      <c r="CM2" s="130"/>
-      <c r="CN2" s="130"/>
-      <c r="CO2" s="130"/>
-      <c r="CP2" s="130"/>
-      <c r="CQ2" s="130"/>
-      <c r="CR2" s="130"/>
-      <c r="CS2" s="130"/>
-      <c r="CT2" s="130"/>
-      <c r="CU2" s="130"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="160"/>
+      <c r="AN2" s="160"/>
+      <c r="AO2" s="160"/>
+      <c r="AP2" s="160"/>
+      <c r="AQ2" s="160"/>
+      <c r="AR2" s="160"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="160"/>
+      <c r="AU2" s="160"/>
+      <c r="AV2" s="160"/>
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="160"/>
+      <c r="AZ2" s="160"/>
+      <c r="BA2" s="160"/>
+      <c r="BB2" s="160"/>
+      <c r="BC2" s="160"/>
+      <c r="BD2" s="160"/>
+      <c r="BE2" s="160"/>
+      <c r="BF2" s="160"/>
+      <c r="BG2" s="160"/>
+      <c r="BH2" s="160"/>
+      <c r="BI2" s="160"/>
+      <c r="BJ2" s="160"/>
+      <c r="BK2" s="160"/>
+      <c r="BL2" s="160"/>
+      <c r="BM2" s="160"/>
+      <c r="BN2" s="160"/>
+      <c r="BO2" s="160"/>
+      <c r="BP2" s="160"/>
+      <c r="BQ2" s="160"/>
+      <c r="BR2" s="160"/>
+      <c r="BS2" s="160"/>
+      <c r="BT2" s="160"/>
+      <c r="BU2" s="160"/>
+      <c r="BV2" s="160"/>
+      <c r="BW2" s="160"/>
+      <c r="BX2" s="160"/>
+      <c r="BY2" s="160"/>
+      <c r="BZ2" s="160"/>
+      <c r="CA2" s="160"/>
+      <c r="CB2" s="160"/>
+      <c r="CC2" s="160"/>
+      <c r="CD2" s="160"/>
+      <c r="CE2" s="160"/>
+      <c r="CF2" s="160"/>
+      <c r="CG2" s="160"/>
+      <c r="CH2" s="160"/>
+      <c r="CI2" s="160"/>
+      <c r="CJ2" s="160"/>
+      <c r="CK2" s="160"/>
+      <c r="CL2" s="160"/>
+      <c r="CM2" s="160"/>
+      <c r="CN2" s="160"/>
+      <c r="CO2" s="160"/>
+      <c r="CP2" s="160"/>
+      <c r="CQ2" s="160"/>
+      <c r="CR2" s="160"/>
+      <c r="CS2" s="160"/>
+      <c r="CT2" s="160"/>
+      <c r="CU2" s="160"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="130"/>
-      <c r="AU3" s="130"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="130"/>
-      <c r="BA3" s="130"/>
-      <c r="BB3" s="130"/>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="130"/>
-      <c r="BM3" s="130"/>
-      <c r="BN3" s="130"/>
-      <c r="BO3" s="130"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="130"/>
-      <c r="BS3" s="130"/>
-      <c r="BT3" s="130"/>
-      <c r="BU3" s="130"/>
-      <c r="BV3" s="130"/>
-      <c r="BW3" s="130"/>
-      <c r="BX3" s="130"/>
-      <c r="BY3" s="130"/>
-      <c r="BZ3" s="130"/>
-      <c r="CA3" s="130"/>
-      <c r="CB3" s="130"/>
-      <c r="CC3" s="130"/>
-      <c r="CD3" s="130"/>
-      <c r="CE3" s="130"/>
-      <c r="CF3" s="130"/>
-      <c r="CG3" s="130"/>
-      <c r="CH3" s="130"/>
-      <c r="CI3" s="130"/>
-      <c r="CJ3" s="130"/>
-      <c r="CK3" s="130"/>
-      <c r="CL3" s="130"/>
-      <c r="CM3" s="130"/>
-      <c r="CN3" s="130"/>
-      <c r="CO3" s="130"/>
-      <c r="CP3" s="130"/>
-      <c r="CQ3" s="130"/>
-      <c r="CR3" s="130"/>
-      <c r="CS3" s="130"/>
-      <c r="CT3" s="130"/>
-      <c r="CU3" s="130"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="160"/>
+      <c r="AK3" s="160"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="160"/>
+      <c r="AW3" s="160"/>
+      <c r="AX3" s="160"/>
+      <c r="AY3" s="160"/>
+      <c r="AZ3" s="160"/>
+      <c r="BA3" s="160"/>
+      <c r="BB3" s="160"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="160"/>
+      <c r="BE3" s="160"/>
+      <c r="BF3" s="160"/>
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="160"/>
+      <c r="BI3" s="160"/>
+      <c r="BJ3" s="160"/>
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="160"/>
+      <c r="BN3" s="160"/>
+      <c r="BO3" s="160"/>
+      <c r="BP3" s="160"/>
+      <c r="BQ3" s="160"/>
+      <c r="BR3" s="160"/>
+      <c r="BS3" s="160"/>
+      <c r="BT3" s="160"/>
+      <c r="BU3" s="160"/>
+      <c r="BV3" s="160"/>
+      <c r="BW3" s="160"/>
+      <c r="BX3" s="160"/>
+      <c r="BY3" s="160"/>
+      <c r="BZ3" s="160"/>
+      <c r="CA3" s="160"/>
+      <c r="CB3" s="160"/>
+      <c r="CC3" s="160"/>
+      <c r="CD3" s="160"/>
+      <c r="CE3" s="160"/>
+      <c r="CF3" s="160"/>
+      <c r="CG3" s="160"/>
+      <c r="CH3" s="160"/>
+      <c r="CI3" s="160"/>
+      <c r="CJ3" s="160"/>
+      <c r="CK3" s="160"/>
+      <c r="CL3" s="160"/>
+      <c r="CM3" s="160"/>
+      <c r="CN3" s="160"/>
+      <c r="CO3" s="160"/>
+      <c r="CP3" s="160"/>
+      <c r="CQ3" s="160"/>
+      <c r="CR3" s="160"/>
+      <c r="CS3" s="160"/>
+      <c r="CT3" s="160"/>
+      <c r="CU3" s="160"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="197" t="s">
+      <c r="D5" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="Q5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AA5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
-      <c r="AF5" s="198"/>
-      <c r="AG5" s="198"/>
-      <c r="AH5" s="198"/>
-      <c r="AI5" s="198"/>
-      <c r="AJ5" s="198"/>
-      <c r="AK5" s="198"/>
-      <c r="AL5" s="198"/>
-      <c r="AM5" s="198"/>
-      <c r="AN5" s="198"/>
-      <c r="AO5" s="198"/>
-      <c r="AP5" s="198"/>
-      <c r="AQ5" s="198"/>
-      <c r="AR5" s="198"/>
-      <c r="AS5" s="198"/>
-      <c r="AT5" s="198"/>
-      <c r="AU5" s="198"/>
-      <c r="AV5" s="198"/>
-      <c r="AW5" s="198"/>
-      <c r="AX5" s="198"/>
-      <c r="AY5" s="198"/>
-      <c r="AZ5" s="198"/>
-      <c r="BA5" s="198"/>
-      <c r="BB5" s="198"/>
-      <c r="BC5" s="198"/>
-      <c r="BD5" s="199"/>
-      <c r="BE5" s="200" t="s">
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="173"/>
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="173"/>
+      <c r="AP5" s="173"/>
+      <c r="AQ5" s="173"/>
+      <c r="AR5" s="173"/>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="173"/>
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="173"/>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="173"/>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="173"/>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="174"/>
+      <c r="BE5" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="201"/>
-      <c r="BG5" s="201"/>
-      <c r="BH5" s="201"/>
-      <c r="BI5" s="201"/>
-      <c r="BJ5" s="201"/>
-      <c r="BK5" s="201"/>
-      <c r="BL5" s="201"/>
-      <c r="BM5" s="201"/>
-      <c r="BN5" s="201"/>
-      <c r="BO5" s="201"/>
-      <c r="BP5" s="201"/>
-      <c r="BQ5" s="201"/>
-      <c r="BR5" s="201"/>
-      <c r="BS5" s="201"/>
-      <c r="BT5" s="201"/>
-      <c r="BU5" s="201"/>
-      <c r="BV5" s="201"/>
-      <c r="BW5" s="201"/>
-      <c r="BX5" s="201"/>
-      <c r="BY5" s="201"/>
-      <c r="BZ5" s="201"/>
-      <c r="CA5" s="201"/>
-      <c r="CB5" s="201"/>
-      <c r="CC5" s="201"/>
-      <c r="CD5" s="201"/>
-      <c r="CE5" s="201"/>
-      <c r="CF5" s="201"/>
-      <c r="CG5" s="201"/>
-      <c r="CH5" s="201"/>
-      <c r="CI5" s="201"/>
-      <c r="CJ5" s="201"/>
-      <c r="CK5" s="201"/>
-      <c r="CL5" s="201"/>
-      <c r="CM5" s="201"/>
-      <c r="CN5" s="201"/>
-      <c r="CO5" s="201"/>
-      <c r="CP5" s="201"/>
-      <c r="CQ5" s="201"/>
-      <c r="CR5" s="202"/>
-      <c r="CS5" s="189" t="s">
+      <c r="BF5" s="176"/>
+      <c r="BG5" s="176"/>
+      <c r="BH5" s="176"/>
+      <c r="BI5" s="176"/>
+      <c r="BJ5" s="176"/>
+      <c r="BK5" s="176"/>
+      <c r="BL5" s="176"/>
+      <c r="BM5" s="176"/>
+      <c r="BN5" s="176"/>
+      <c r="BO5" s="176"/>
+      <c r="BP5" s="176"/>
+      <c r="BQ5" s="176"/>
+      <c r="BR5" s="176"/>
+      <c r="BS5" s="176"/>
+      <c r="BT5" s="176"/>
+      <c r="BU5" s="176"/>
+      <c r="BV5" s="176"/>
+      <c r="BW5" s="176"/>
+      <c r="BX5" s="176"/>
+      <c r="BY5" s="176"/>
+      <c r="BZ5" s="176"/>
+      <c r="CA5" s="176"/>
+      <c r="CB5" s="176"/>
+      <c r="CC5" s="176"/>
+      <c r="CD5" s="176"/>
+      <c r="CE5" s="176"/>
+      <c r="CF5" s="176"/>
+      <c r="CG5" s="176"/>
+      <c r="CH5" s="176"/>
+      <c r="CI5" s="176"/>
+      <c r="CJ5" s="176"/>
+      <c r="CK5" s="176"/>
+      <c r="CL5" s="176"/>
+      <c r="CM5" s="176"/>
+      <c r="CN5" s="176"/>
+      <c r="CO5" s="176"/>
+      <c r="CP5" s="176"/>
+      <c r="CQ5" s="176"/>
+      <c r="CR5" s="177"/>
+      <c r="CS5" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="190"/>
-      <c r="CU5" s="191"/>
+      <c r="CT5" s="183"/>
+      <c r="CU5" s="184"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="194"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="172" t="s">
+      <c r="A6" s="169"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="175" t="s">
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
-      <c r="AL6" s="175"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="175"/>
-      <c r="AO6" s="175" t="s">
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="188"/>
+      <c r="W6" s="188"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="188"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="188"/>
+      <c r="AB6" s="188"/>
+      <c r="AC6" s="188"/>
+      <c r="AD6" s="188"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="188"/>
+      <c r="AG6" s="188"/>
+      <c r="AH6" s="188"/>
+      <c r="AI6" s="188"/>
+      <c r="AJ6" s="188"/>
+      <c r="AK6" s="188"/>
+      <c r="AL6" s="188"/>
+      <c r="AM6" s="188"/>
+      <c r="AN6" s="188"/>
+      <c r="AO6" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="175"/>
-      <c r="AQ6" s="175"/>
-      <c r="AR6" s="175"/>
-      <c r="AS6" s="175" t="s">
+      <c r="AP6" s="188"/>
+      <c r="AQ6" s="188"/>
+      <c r="AR6" s="188"/>
+      <c r="AS6" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="175"/>
-      <c r="AU6" s="175"/>
-      <c r="AV6" s="175" t="s">
+      <c r="AT6" s="188"/>
+      <c r="AU6" s="188"/>
+      <c r="AV6" s="188" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="175"/>
-      <c r="AX6" s="175"/>
-      <c r="AY6" s="175"/>
-      <c r="AZ6" s="175"/>
-      <c r="BA6" s="175"/>
-      <c r="BB6" s="175"/>
-      <c r="BC6" s="182" t="s">
+      <c r="AW6" s="188"/>
+      <c r="AX6" s="188"/>
+      <c r="AY6" s="188"/>
+      <c r="AZ6" s="188"/>
+      <c r="BA6" s="188"/>
+      <c r="BB6" s="188"/>
+      <c r="BC6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="183"/>
-      <c r="BE6" s="184" t="s">
+      <c r="BD6" s="193"/>
+      <c r="BE6" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="185"/>
-      <c r="BG6" s="185"/>
-      <c r="BH6" s="185"/>
-      <c r="BI6" s="185"/>
-      <c r="BJ6" s="185"/>
-      <c r="BK6" s="186"/>
-      <c r="BL6" s="187" t="s">
+      <c r="BF6" s="195"/>
+      <c r="BG6" s="195"/>
+      <c r="BH6" s="195"/>
+      <c r="BI6" s="195"/>
+      <c r="BJ6" s="195"/>
+      <c r="BK6" s="196"/>
+      <c r="BL6" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="185"/>
-      <c r="BN6" s="185"/>
-      <c r="BO6" s="185"/>
-      <c r="BP6" s="185"/>
-      <c r="BQ6" s="185"/>
-      <c r="BR6" s="185"/>
-      <c r="BS6" s="185"/>
-      <c r="BT6" s="185"/>
-      <c r="BU6" s="185"/>
-      <c r="BV6" s="185"/>
-      <c r="BW6" s="185"/>
-      <c r="BX6" s="185"/>
-      <c r="BY6" s="185"/>
-      <c r="BZ6" s="185"/>
-      <c r="CA6" s="185"/>
-      <c r="CB6" s="185"/>
-      <c r="CC6" s="185"/>
-      <c r="CD6" s="185"/>
-      <c r="CE6" s="185"/>
-      <c r="CF6" s="185"/>
-      <c r="CG6" s="185"/>
-      <c r="CH6" s="185"/>
-      <c r="CI6" s="185"/>
-      <c r="CJ6" s="185"/>
-      <c r="CK6" s="185"/>
-      <c r="CL6" s="185"/>
-      <c r="CM6" s="185"/>
-      <c r="CN6" s="185"/>
-      <c r="CO6" s="185"/>
-      <c r="CP6" s="185"/>
-      <c r="CQ6" s="192" t="s">
+      <c r="BM6" s="195"/>
+      <c r="BN6" s="195"/>
+      <c r="BO6" s="195"/>
+      <c r="BP6" s="195"/>
+      <c r="BQ6" s="195"/>
+      <c r="BR6" s="195"/>
+      <c r="BS6" s="195"/>
+      <c r="BT6" s="195"/>
+      <c r="BU6" s="195"/>
+      <c r="BV6" s="195"/>
+      <c r="BW6" s="195"/>
+      <c r="BX6" s="195"/>
+      <c r="BY6" s="195"/>
+      <c r="BZ6" s="195"/>
+      <c r="CA6" s="195"/>
+      <c r="CB6" s="195"/>
+      <c r="CC6" s="195"/>
+      <c r="CD6" s="195"/>
+      <c r="CE6" s="195"/>
+      <c r="CF6" s="195"/>
+      <c r="CG6" s="195"/>
+      <c r="CH6" s="195"/>
+      <c r="CI6" s="195"/>
+      <c r="CJ6" s="195"/>
+      <c r="CK6" s="195"/>
+      <c r="CL6" s="195"/>
+      <c r="CM6" s="195"/>
+      <c r="CN6" s="195"/>
+      <c r="CO6" s="195"/>
+      <c r="CP6" s="195"/>
+      <c r="CQ6" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="192"/>
-      <c r="CS6" s="188" t="s">
+      <c r="CR6" s="185"/>
+      <c r="CS6" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="188" t="s">
+      <c r="CT6" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="179" t="s">
+      <c r="CU6" s="189" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="194"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -6249,337 +6249,337 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="174">
+      <c r="J7" s="180">
         <v>42982</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180">
         <v>43046</v>
       </c>
-      <c r="M7" s="174"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
-      <c r="T7" s="178">
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="181">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="178"/>
-      <c r="V7" s="174"/>
-      <c r="W7" s="174"/>
-      <c r="X7" s="174"/>
-      <c r="Y7" s="174"/>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="174"/>
-      <c r="AB7" s="174"/>
-      <c r="AC7" s="174"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="174"/>
-      <c r="AG7" s="174"/>
-      <c r="AH7" s="174"/>
-      <c r="AI7" s="174"/>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="174"/>
-      <c r="AL7" s="174"/>
-      <c r="AM7" s="174"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="180"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="180"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="180"/>
+      <c r="AL7" s="180"/>
+      <c r="AM7" s="180"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="174" t="s">
+      <c r="AO7" s="180" t="s">
         <v>252</v>
       </c>
-      <c r="AP7" s="174"/>
-      <c r="AQ7" s="174"/>
-      <c r="AR7" s="174"/>
-      <c r="AS7" s="178">
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
+      <c r="AR7" s="180"/>
+      <c r="AS7" s="181">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="178"/>
+      <c r="AT7" s="181"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="174" t="s">
+      <c r="AV7" s="180" t="s">
         <v>251</v>
       </c>
-      <c r="AW7" s="174"/>
-      <c r="AX7" s="174"/>
-      <c r="AY7" s="174"/>
-      <c r="AZ7" s="178">
+      <c r="AW7" s="180"/>
+      <c r="AX7" s="180"/>
+      <c r="AY7" s="180"/>
+      <c r="AZ7" s="181">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="178"/>
+      <c r="BA7" s="181"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="182"/>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="174" t="s">
+      <c r="BC7" s="192"/>
+      <c r="BD7" s="193"/>
+      <c r="BE7" s="180" t="s">
         <v>253</v>
       </c>
-      <c r="BF7" s="174"/>
-      <c r="BG7" s="174" t="s">
+      <c r="BF7" s="180"/>
+      <c r="BG7" s="180" t="s">
         <v>254</v>
       </c>
-      <c r="BH7" s="174"/>
-      <c r="BI7" s="178">
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="181">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="178"/>
+      <c r="BJ7" s="181"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="174">
+      <c r="BL7" s="180">
         <v>42982</v>
       </c>
-      <c r="BM7" s="174"/>
-      <c r="BN7" s="174">
+      <c r="BM7" s="180"/>
+      <c r="BN7" s="180">
         <v>42982</v>
       </c>
-      <c r="BO7" s="174"/>
-      <c r="BP7" s="174">
+      <c r="BO7" s="180"/>
+      <c r="BP7" s="180">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="174"/>
-      <c r="BR7" s="174"/>
-      <c r="BS7" s="174"/>
-      <c r="BT7" s="174"/>
-      <c r="BU7" s="174"/>
-      <c r="BV7" s="174"/>
-      <c r="BW7" s="174"/>
-      <c r="BX7" s="174"/>
-      <c r="BY7" s="174"/>
-      <c r="BZ7" s="174"/>
-      <c r="CA7" s="174"/>
-      <c r="CB7" s="174"/>
-      <c r="CC7" s="174"/>
-      <c r="CD7" s="174"/>
-      <c r="CE7" s="174"/>
-      <c r="CF7" s="174"/>
-      <c r="CG7" s="174"/>
-      <c r="CH7" s="174"/>
-      <c r="CI7" s="174"/>
-      <c r="CJ7" s="174"/>
-      <c r="CK7" s="174"/>
-      <c r="CL7" s="174"/>
-      <c r="CM7" s="174"/>
-      <c r="CN7" s="178">
+      <c r="BQ7" s="180"/>
+      <c r="BR7" s="180"/>
+      <c r="BS7" s="180"/>
+      <c r="BT7" s="180"/>
+      <c r="BU7" s="180"/>
+      <c r="BV7" s="180"/>
+      <c r="BW7" s="180"/>
+      <c r="BX7" s="180"/>
+      <c r="BY7" s="180"/>
+      <c r="BZ7" s="180"/>
+      <c r="CA7" s="180"/>
+      <c r="CB7" s="180"/>
+      <c r="CC7" s="180"/>
+      <c r="CD7" s="180"/>
+      <c r="CE7" s="180"/>
+      <c r="CF7" s="180"/>
+      <c r="CG7" s="180"/>
+      <c r="CH7" s="180"/>
+      <c r="CI7" s="180"/>
+      <c r="CJ7" s="180"/>
+      <c r="CK7" s="180"/>
+      <c r="CL7" s="180"/>
+      <c r="CM7" s="180"/>
+      <c r="CN7" s="181">
         <f>COUNT(BL9,BN9,BP9,BR9,BT9,BV9,BX9,BZ9,CB9,CD9,CF9,CH9,CJ9,CL9,CN9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="178"/>
+      <c r="CO7" s="181"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="192"/>
-      <c r="CR7" s="192"/>
-      <c r="CS7" s="188"/>
-      <c r="CT7" s="188"/>
-      <c r="CU7" s="180"/>
+      <c r="CQ7" s="185"/>
+      <c r="CR7" s="185"/>
+      <c r="CS7" s="167"/>
+      <c r="CT7" s="167"/>
+      <c r="CU7" s="190"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="194"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="203" t="s">
+      <c r="A8" s="169"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="167" t="s">
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167" t="s">
+      <c r="K8" s="179"/>
+      <c r="L8" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167" t="s">
+      <c r="M8" s="179"/>
+      <c r="N8" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167" t="s">
+      <c r="O8" s="179"/>
+      <c r="P8" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167" t="s">
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167" t="s">
+      <c r="S8" s="179"/>
+      <c r="T8" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167" t="s">
+      <c r="U8" s="179"/>
+      <c r="V8" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167" t="s">
+      <c r="W8" s="179"/>
+      <c r="X8" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167" t="s">
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167" t="s">
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167" t="s">
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167" t="s">
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167" t="s">
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167" t="s">
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="167" t="s">
+      <c r="AK8" s="179"/>
+      <c r="AL8" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="167"/>
+      <c r="AM8" s="179"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="167" t="s">
+      <c r="AO8" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="167"/>
-      <c r="AQ8" s="167" t="s">
+      <c r="AP8" s="179"/>
+      <c r="AQ8" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="167"/>
-      <c r="AS8" s="167" t="s">
+      <c r="AR8" s="179"/>
+      <c r="AS8" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="167"/>
+      <c r="AT8" s="179"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="167" t="s">
+      <c r="AV8" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="167"/>
-      <c r="AX8" s="167" t="s">
+      <c r="AW8" s="179"/>
+      <c r="AX8" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="167"/>
-      <c r="AZ8" s="167" t="s">
+      <c r="AY8" s="179"/>
+      <c r="AZ8" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="167"/>
+      <c r="BA8" s="179"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="182"/>
-      <c r="BD8" s="183"/>
-      <c r="BE8" s="177" t="s">
+      <c r="BC8" s="192"/>
+      <c r="BD8" s="193"/>
+      <c r="BE8" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="176"/>
-      <c r="BG8" s="176" t="s">
+      <c r="BF8" s="198"/>
+      <c r="BG8" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="176"/>
-      <c r="BI8" s="176" t="s">
+      <c r="BH8" s="198"/>
+      <c r="BI8" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="176"/>
+      <c r="BJ8" s="198"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="170" t="s">
+      <c r="BL8" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="171"/>
-      <c r="BN8" s="170" t="s">
+      <c r="BM8" s="200"/>
+      <c r="BN8" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="171"/>
-      <c r="BP8" s="170" t="s">
+      <c r="BO8" s="200"/>
+      <c r="BP8" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="171"/>
-      <c r="BR8" s="170" t="s">
+      <c r="BQ8" s="200"/>
+      <c r="BR8" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="171"/>
-      <c r="BT8" s="170" t="s">
+      <c r="BS8" s="200"/>
+      <c r="BT8" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="171"/>
-      <c r="BV8" s="168" t="s">
+      <c r="BU8" s="200"/>
+      <c r="BV8" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="169"/>
-      <c r="BX8" s="168" t="s">
+      <c r="BW8" s="187"/>
+      <c r="BX8" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="169"/>
-      <c r="BZ8" s="168" t="s">
+      <c r="BY8" s="187"/>
+      <c r="BZ8" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="169"/>
-      <c r="CB8" s="168" t="s">
+      <c r="CA8" s="187"/>
+      <c r="CB8" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="169"/>
-      <c r="CD8" s="168" t="s">
+      <c r="CC8" s="187"/>
+      <c r="CD8" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="169"/>
-      <c r="CF8" s="168" t="s">
+      <c r="CE8" s="187"/>
+      <c r="CF8" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="169"/>
-      <c r="CH8" s="168" t="s">
+      <c r="CG8" s="187"/>
+      <c r="CH8" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="169"/>
-      <c r="CJ8" s="168" t="s">
+      <c r="CI8" s="187"/>
+      <c r="CJ8" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="169"/>
-      <c r="CL8" s="168" t="s">
+      <c r="CK8" s="187"/>
+      <c r="CL8" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="169"/>
-      <c r="CN8" s="168" t="s">
+      <c r="CM8" s="187"/>
+      <c r="CN8" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="169"/>
+      <c r="CO8" s="187"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="192"/>
-      <c r="CR8" s="192"/>
-      <c r="CS8" s="188"/>
-      <c r="CT8" s="188"/>
-      <c r="CU8" s="180"/>
+      <c r="CQ8" s="185"/>
+      <c r="CR8" s="185"/>
+      <c r="CS8" s="167"/>
+      <c r="CT8" s="167"/>
+      <c r="CU8" s="190"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6771,9 +6771,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="188"/>
-      <c r="CT9" s="188"/>
-      <c r="CU9" s="181"/>
+      <c r="CS9" s="167"/>
+      <c r="CT9" s="167"/>
+      <c r="CU9" s="191"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7376,15 +7376,15 @@
         <v>17.099999999999998</v>
       </c>
       <c r="G12" s="102">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H12" s="86">
         <f t="shared" si="2"/>
-        <v>61.250000000000007</v>
+        <v>67.5</v>
       </c>
       <c r="I12" s="89">
         <f t="shared" si="1"/>
-        <v>18.375</v>
+        <v>20.25</v>
       </c>
       <c r="J12" s="102">
         <v>11</v>
@@ -7488,11 +7488,11 @@
       </c>
       <c r="BC12" s="92">
         <f t="shared" si="18"/>
-        <v>67.141666666666666</v>
+        <v>69.016666666666666</v>
       </c>
       <c r="BD12" s="92">
         <f t="shared" si="19"/>
-        <v>67.14</v>
+        <v>69.02</v>
       </c>
       <c r="BE12" s="102">
         <v>86</v>
@@ -7628,11 +7628,11 @@
       </c>
       <c r="CS12" s="98">
         <f t="shared" si="41"/>
-        <v>82.75800000000001</v>
+        <v>83.51</v>
       </c>
       <c r="CT12" s="98">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="CU12" s="87" t="str">
         <f t="shared" si="42"/>
@@ -22790,6 +22790,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22806,88 +22888,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23225,7 +23225,7 @@
       </c>
       <c r="D10" s="83">
         <f>'RAW GRADES'!I12</f>
-        <v>18.375</v>
+        <v>20.25</v>
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
@@ -23241,11 +23241,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>67.141666666666666</v>
+        <v>69.016666666666666</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>67.14</v>
+        <v>69.02</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
@@ -23265,11 +23265,11 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>82.75800000000001</v>
+        <v>83.51</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P10" s="59" t="str">
         <f t="shared" ref="P10:P68" si="0">IF(O10&gt;3,"FAILED","PASSED")</f>
@@ -27071,8 +27071,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F44"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27100,106 +27100,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="251"/>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
+      <c r="A3" s="220"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="222" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="255"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="221" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="254"/>
-      <c r="C6" s="254"/>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
-      <c r="F6" s="254"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="256" t="s">
+      <c r="A7" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="257"/>
-      <c r="B8" s="257"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="251"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
+      <c r="A9" s="220"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="258"/>
-      <c r="B10" s="258"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="258"/>
+      <c r="A10" s="225"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="259" t="s">
+      <c r="A11" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="257"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="260" t="str">
+      <c r="C13" s="227" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27207,12 +27207,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="253" t="str">
+      <c r="C14" s="219" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27220,12 +27220,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="239" t="str">
+      <c r="C15" s="230" t="str">
         <f>REGISTRATION!A4</f>
         <v>THIRD YEAR</v>
       </c>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27233,12 +27233,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="239" t="str">
+      <c r="C16" s="230" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27246,12 +27246,12 @@
       <c r="B17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="239" t="str">
+      <c r="C17" s="230" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27263,42 +27263,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="240" t="s">
+      <c r="A19" s="231" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="240" t="s">
+      <c r="D19" s="231" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="245" t="s">
+      <c r="E19" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="240" t="s">
+      <c r="F19" s="231" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="241"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="248"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="239"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="242"/>
+      <c r="A21" s="233"/>
       <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="249"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="240"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -27364,7 +27364,7 @@
       </c>
       <c r="D24" s="68">
         <f>'DEPT CHAIR'!O10</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="E24" s="69" t="str">
         <f t="shared" si="0"/>
@@ -27874,14 +27874,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A45" s="223" t="s">
+      <c r="A45" s="247" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="224"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="224"/>
-      <c r="E45" s="224"/>
-      <c r="F45" s="225"/>
+      <c r="B45" s="248"/>
+      <c r="C45" s="248"/>
+      <c r="D45" s="248"/>
+      <c r="E45" s="248"/>
+      <c r="F45" s="249"/>
     </row>
     <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="62"/>
@@ -27914,11 +27914,11 @@
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
-      <c r="E49" s="250">
+      <c r="E49" s="241">
         <f ca="1">NOW()</f>
-        <v>43080.564512962963</v>
-      </c>
-      <c r="F49" s="250"/>
+        <v>43081.62150601852</v>
+      </c>
+      <c r="F49" s="241"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="60"/>
@@ -27928,10 +27928,10 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
-      <c r="E50" s="251" t="s">
+      <c r="E50" s="220" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="251"/>
+      <c r="F50" s="220"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="60"/>
@@ -27948,8 +27948,8 @@
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="251"/>
+      <c r="E52" s="220"/>
+      <c r="F52" s="220"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="60"/>
@@ -28064,14 +28064,14 @@
       <c r="F66" s="60"/>
     </row>
     <row r="67" spans="1:6" ht="15.75">
-      <c r="A67" s="252" t="s">
+      <c r="A67" s="242" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="252"/>
-      <c r="C67" s="252"/>
-      <c r="D67" s="252"/>
-      <c r="E67" s="252"/>
-      <c r="F67" s="252"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="242"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="60"/>
@@ -28086,124 +28086,124 @@
       <c r="B69" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="236" t="s">
+      <c r="C69" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="237"/>
-      <c r="E69" s="238" t="s">
+      <c r="D69" s="229"/>
+      <c r="E69" s="228" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="237"/>
+      <c r="F69" s="229"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="60"/>
       <c r="B70" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="232">
+      <c r="C70" s="256">
         <f>COUNTIF($D$22:$D$44,"=1.0")+COUNTIF($D$22:$D$44,"=1.25")+(COUNTIF($D$22:$D$44,"=1.50")+COUNTIF($D$22:$D$44,"=1.75"))</f>
         <v>1</v>
       </c>
-      <c r="D70" s="233"/>
-      <c r="E70" s="234">
+      <c r="D70" s="257"/>
+      <c r="E70" s="258">
         <f>(C70/$C$76)*100</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F70" s="235"/>
+      <c r="F70" s="259"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="60"/>
       <c r="B71" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="226">
+      <c r="C71" s="250">
         <f>COUNTIF($D$22:$D$44,"=2.0")+COUNTIF($D$22:$D$44,"=2.25")+(COUNTIF($D$22:$D$44,"=2.50")+COUNTIF($D$22:$D$44,"=2.75"))</f>
         <v>20</v>
       </c>
-      <c r="D71" s="227"/>
-      <c r="E71" s="228">
+      <c r="D71" s="251"/>
+      <c r="E71" s="252">
         <f>(C71/$C$76)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="F71" s="229"/>
+      <c r="F71" s="253"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="60"/>
       <c r="B72" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="226">
+      <c r="C72" s="250">
         <f>COUNTIF($D$22:$D$44,"=3.0")</f>
         <v>1</v>
       </c>
-      <c r="D72" s="227"/>
-      <c r="E72" s="228">
+      <c r="D72" s="251"/>
+      <c r="E72" s="252">
         <f t="shared" ref="E72:E75" si="1">(C72/$C$76)*100</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F72" s="229"/>
+      <c r="F72" s="253"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="60"/>
       <c r="B73" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="226">
+      <c r="C73" s="250">
         <f>COUNTIF($D$22:$D$44,"=5.0")</f>
         <v>1</v>
       </c>
-      <c r="D73" s="227"/>
-      <c r="E73" s="228">
+      <c r="D73" s="251"/>
+      <c r="E73" s="252">
         <f t="shared" si="1"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F73" s="229"/>
+      <c r="F73" s="253"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="60"/>
       <c r="B74" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="230">
-        <v>0</v>
-      </c>
-      <c r="D74" s="231"/>
-      <c r="E74" s="228">
+      <c r="C74" s="254">
+        <v>0</v>
+      </c>
+      <c r="D74" s="255"/>
+      <c r="E74" s="252">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F74" s="229"/>
+      <c r="F74" s="253"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="60"/>
       <c r="B75" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="230">
+      <c r="C75" s="254">
         <v>1</v>
       </c>
-      <c r="D75" s="231"/>
-      <c r="E75" s="228">
+      <c r="D75" s="255"/>
+      <c r="E75" s="252">
         <f t="shared" si="1"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F75" s="229"/>
+      <c r="F75" s="253"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickBot="1">
       <c r="A76" s="60"/>
       <c r="B76" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="219">
+      <c r="C76" s="243">
         <f>SUM(C70:D75)</f>
         <v>24</v>
       </c>
-      <c r="D76" s="220"/>
-      <c r="E76" s="221">
+      <c r="D76" s="244"/>
+      <c r="E76" s="245">
         <f>SUM(E70:F75)</f>
         <v>100.00000000000003</v>
       </c>
-      <c r="F76" s="222"/>
+      <c r="F76" s="246"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="60"/>
@@ -28373,32 +28373,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A67:F67"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="A45:F45"/>
@@ -28415,6 +28389,32 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -5779,9 +5779,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP31" sqref="AP31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22912,8 +22912,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+      <selection activeCell="P30" sqref="A2:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27063,6 +27063,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" scale="92" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -27071,7 +27075,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -27916,7 +27920,7 @@
       <c r="D49" s="60"/>
       <c r="E49" s="241">
         <f ca="1">NOW()</f>
-        <v>43081.62150601852</v>
+        <v>43082.758252430554</v>
       </c>
       <c r="F49" s="241"/>
     </row>

--- a/DCIT 65 - CS 3C/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3C/LEC AND LAB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="259">
   <si>
     <t>Subject:</t>
   </si>
@@ -774,9 +774,6 @@
     <t>First</t>
   </si>
   <si>
-    <t>Renen Paul A. Viado</t>
-  </si>
-  <si>
     <t>2017-01-829</t>
   </si>
   <si>
@@ -859,6 +856,12 @@
   </si>
   <si>
     <t>2017-01-150</t>
+  </si>
+  <si>
+    <t>Renen Paul M. Viado</t>
+  </si>
+  <si>
+    <t>ll</t>
   </si>
 </sst>
 </file>
@@ -2249,37 +2252,91 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,96 +2376,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2449,93 +2539,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2594,102 +2597,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2763,6 +2670,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3686,7 +3689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3697,8 +3700,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3719,82 +3722,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="155" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
+      <c r="A4" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123" t="s">
+      <c r="A6" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="124"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -3802,28 +3805,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="125" t="s">
+      <c r="J6" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="128"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="3" t="s">
         <v>158</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="129"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -3831,28 +3834,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="129" t="s">
+      <c r="J7" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="132"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -3860,45 +3863,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="133" t="s">
+      <c r="J8" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140" t="s">
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143" t="s">
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="144"/>
-      <c r="L9" s="143" t="s">
+      <c r="K9" s="138"/>
+      <c r="L9" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="144"/>
+      <c r="M9" s="138"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -3908,14 +3911,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -3936,54 +3939,54 @@
       <c r="F11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="151"/>
-      <c r="O11" s="161" t="s">
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="142"/>
+      <c r="O11" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="133"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
         <v>2</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="D12" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="E12" s="119" t="s">
         <v>245</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>246</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="159" t="s">
+      <c r="P12" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4004,21 +4007,21 @@
       <c r="F13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="159" t="s">
+      <c r="P13" s="126" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="159"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4039,56 +4042,56 @@
       <c r="F14" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="156" t="s">
+      <c r="P14" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="125"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="D15" s="119" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="E15" s="119" t="s">
         <v>232</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>233</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="156" t="s">
+      <c r="P15" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="125"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4109,21 +4112,21 @@
       <c r="F16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="164" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q16" s="165"/>
-      <c r="R16" s="166"/>
+      <c r="P16" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4144,21 +4147,21 @@
       <c r="F17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="156" t="s">
+      <c r="P17" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="158"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="125"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4179,13 +4182,13 @@
       <c r="F18" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4206,13 +4209,13 @@
       <c r="F19" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4231,40 +4234,40 @@
       <c r="F20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="D21" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="E21" s="119" t="s">
         <v>241</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>242</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
       <c r="P21" s="94" t="s">
         <v>142</v>
       </c>
@@ -4274,13 +4277,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="D22" s="119" t="s">
         <v>235</v>
-      </c>
-      <c r="D22" s="119" t="s">
-        <v>236</v>
       </c>
       <c r="E22" s="119" t="s">
         <v>198</v>
@@ -4288,13 +4291,13 @@
       <c r="F22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
       <c r="P22" s="95">
         <v>0</v>
       </c>
@@ -4321,13 +4324,13 @@
       <c r="F23" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
       <c r="P23" s="96">
         <v>70</v>
       </c>
@@ -4354,13 +4357,13 @@
       <c r="F24" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
       <c r="P24" s="96">
         <v>73.34</v>
       </c>
@@ -4387,13 +4390,13 @@
       <c r="F25" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
       <c r="P25" s="96">
         <v>76.680000000000007</v>
       </c>
@@ -4420,13 +4423,13 @@
       <c r="F26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
       <c r="P26" s="96">
         <v>80.02</v>
       </c>
@@ -4453,13 +4456,13 @@
       <c r="F27" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
       <c r="P27" s="96">
         <v>83.36</v>
       </c>
@@ -4486,13 +4489,13 @@
       <c r="F28" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
       <c r="P28" s="96">
         <v>86.7</v>
       </c>
@@ -4519,13 +4522,13 @@
       <c r="F29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="P29" s="96">
         <v>90.04</v>
       </c>
@@ -4552,13 +4555,13 @@
       <c r="F30" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
       <c r="P30" s="96">
         <v>93.38</v>
       </c>
@@ -4585,13 +4588,13 @@
       <c r="F31" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="95"/>
     </row>
@@ -4600,13 +4603,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>172</v>
@@ -4614,13 +4617,13 @@
       <c r="F32" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
       <c r="P32" s="95">
         <v>96.72</v>
       </c>
@@ -4633,27 +4636,27 @@
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="148"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4664,13 +4667,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4681,13 +4684,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4698,13 +4701,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4715,13 +4718,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="147"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4732,13 +4735,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4749,13 +4752,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -4766,13 +4769,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -4783,13 +4786,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="147"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -4800,13 +4803,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -4817,13 +4820,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="148"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -4834,13 +4837,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -4851,13 +4854,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="147"/>
-      <c r="K45" s="147"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -4868,13 +4871,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="148"/>
-      <c r="M46" s="148"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -4885,13 +4888,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="148"/>
-      <c r="M47" s="148"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="127"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -4902,13 +4905,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="147"/>
-      <c r="K48" s="147"/>
-      <c r="L48" s="148"/>
-      <c r="M48" s="148"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -4919,13 +4922,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="147"/>
-      <c r="L49" s="148"/>
-      <c r="M49" s="148"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -4936,13 +4939,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="147"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -4953,13 +4956,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="147"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -4970,13 +4973,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
-      <c r="J52" s="147"/>
-      <c r="K52" s="147"/>
-      <c r="L52" s="148"/>
-      <c r="M52" s="148"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -4987,13 +4990,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="147"/>
-      <c r="K53" s="147"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="148"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5004,13 +5007,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="147"/>
-      <c r="K54" s="147"/>
-      <c r="L54" s="148"/>
-      <c r="M54" s="148"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5021,13 +5024,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="147"/>
-      <c r="K55" s="147"/>
-      <c r="L55" s="148"/>
-      <c r="M55" s="148"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5038,13 +5041,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="147"/>
-      <c r="L56" s="148"/>
-      <c r="M56" s="148"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5055,13 +5058,13 @@
       <c r="D57" s="84"/>
       <c r="E57" s="84"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="147"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="148"/>
-      <c r="M57" s="148"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5072,13 +5075,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="147"/>
-      <c r="K58" s="147"/>
-      <c r="L58" s="148"/>
-      <c r="M58" s="148"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="129"/>
+      <c r="M58" s="129"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5089,13 +5092,13 @@
       <c r="D59" s="84"/>
       <c r="E59" s="84"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="148"/>
-      <c r="M59" s="148"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="128"/>
+      <c r="K59" s="128"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5106,13 +5109,13 @@
       <c r="D60" s="84"/>
       <c r="E60" s="84"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="147"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="148"/>
-      <c r="M60" s="148"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="128"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5123,13 +5126,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="147"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="148"/>
-      <c r="M61" s="148"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5140,13 +5143,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="148"/>
-      <c r="M62" s="148"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="128"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5157,13 +5160,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="148"/>
-      <c r="M63" s="148"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="128"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5174,13 +5177,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="148"/>
-      <c r="M64" s="148"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5191,13 +5194,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="148"/>
-      <c r="M65" s="148"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="128"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5208,13 +5211,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="148"/>
-      <c r="M66" s="148"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="129"/>
+      <c r="M66" s="129"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5225,13 +5228,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="84"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="146"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="147"/>
-      <c r="L67" s="148"/>
-      <c r="M67" s="148"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="129"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5242,13 +5245,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="148"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="129"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5259,13 +5262,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
-      <c r="J69" s="147"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="148"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5276,13 +5279,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="146"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="148"/>
-      <c r="M70" s="148"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="127"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="129"/>
+      <c r="M70" s="129"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5293,19 +5296,208 @@
       <c r="D71" s="84"/>
       <c r="E71" s="84"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="146"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="148"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="129"/>
     </row>
   </sheetData>
   <sortState ref="B11:E33">
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5330,195 +5522,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="50" priority="55" stopIfTrue="1" operator="equal">
@@ -5781,7 +5784,7 @@
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP31" sqref="AP31"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5795,452 +5798,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="160"/>
-      <c r="AL2" s="160"/>
-      <c r="AM2" s="160"/>
-      <c r="AN2" s="160"/>
-      <c r="AO2" s="160"/>
-      <c r="AP2" s="160"/>
-      <c r="AQ2" s="160"/>
-      <c r="AR2" s="160"/>
-      <c r="AS2" s="160"/>
-      <c r="AT2" s="160"/>
-      <c r="AU2" s="160"/>
-      <c r="AV2" s="160"/>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="160"/>
-      <c r="AZ2" s="160"/>
-      <c r="BA2" s="160"/>
-      <c r="BB2" s="160"/>
-      <c r="BC2" s="160"/>
-      <c r="BD2" s="160"/>
-      <c r="BE2" s="160"/>
-      <c r="BF2" s="160"/>
-      <c r="BG2" s="160"/>
-      <c r="BH2" s="160"/>
-      <c r="BI2" s="160"/>
-      <c r="BJ2" s="160"/>
-      <c r="BK2" s="160"/>
-      <c r="BL2" s="160"/>
-      <c r="BM2" s="160"/>
-      <c r="BN2" s="160"/>
-      <c r="BO2" s="160"/>
-      <c r="BP2" s="160"/>
-      <c r="BQ2" s="160"/>
-      <c r="BR2" s="160"/>
-      <c r="BS2" s="160"/>
-      <c r="BT2" s="160"/>
-      <c r="BU2" s="160"/>
-      <c r="BV2" s="160"/>
-      <c r="BW2" s="160"/>
-      <c r="BX2" s="160"/>
-      <c r="BY2" s="160"/>
-      <c r="BZ2" s="160"/>
-      <c r="CA2" s="160"/>
-      <c r="CB2" s="160"/>
-      <c r="CC2" s="160"/>
-      <c r="CD2" s="160"/>
-      <c r="CE2" s="160"/>
-      <c r="CF2" s="160"/>
-      <c r="CG2" s="160"/>
-      <c r="CH2" s="160"/>
-      <c r="CI2" s="160"/>
-      <c r="CJ2" s="160"/>
-      <c r="CK2" s="160"/>
-      <c r="CL2" s="160"/>
-      <c r="CM2" s="160"/>
-      <c r="CN2" s="160"/>
-      <c r="CO2" s="160"/>
-      <c r="CP2" s="160"/>
-      <c r="CQ2" s="160"/>
-      <c r="CR2" s="160"/>
-      <c r="CS2" s="160"/>
-      <c r="CT2" s="160"/>
-      <c r="CU2" s="160"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="130"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="130"/>
+      <c r="BJ2" s="130"/>
+      <c r="BK2" s="130"/>
+      <c r="BL2" s="130"/>
+      <c r="BM2" s="130"/>
+      <c r="BN2" s="130"/>
+      <c r="BO2" s="130"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
+      <c r="BR2" s="130"/>
+      <c r="BS2" s="130"/>
+      <c r="BT2" s="130"/>
+      <c r="BU2" s="130"/>
+      <c r="BV2" s="130"/>
+      <c r="BW2" s="130"/>
+      <c r="BX2" s="130"/>
+      <c r="BY2" s="130"/>
+      <c r="BZ2" s="130"/>
+      <c r="CA2" s="130"/>
+      <c r="CB2" s="130"/>
+      <c r="CC2" s="130"/>
+      <c r="CD2" s="130"/>
+      <c r="CE2" s="130"/>
+      <c r="CF2" s="130"/>
+      <c r="CG2" s="130"/>
+      <c r="CH2" s="130"/>
+      <c r="CI2" s="130"/>
+      <c r="CJ2" s="130"/>
+      <c r="CK2" s="130"/>
+      <c r="CL2" s="130"/>
+      <c r="CM2" s="130"/>
+      <c r="CN2" s="130"/>
+      <c r="CO2" s="130"/>
+      <c r="CP2" s="130"/>
+      <c r="CQ2" s="130"/>
+      <c r="CR2" s="130"/>
+      <c r="CS2" s="130"/>
+      <c r="CT2" s="130"/>
+      <c r="CU2" s="130"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="160"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="160"/>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="160"/>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="160"/>
-      <c r="AV3" s="160"/>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160"/>
-      <c r="AZ3" s="160"/>
-      <c r="BA3" s="160"/>
-      <c r="BB3" s="160"/>
-      <c r="BC3" s="160"/>
-      <c r="BD3" s="160"/>
-      <c r="BE3" s="160"/>
-      <c r="BF3" s="160"/>
-      <c r="BG3" s="160"/>
-      <c r="BH3" s="160"/>
-      <c r="BI3" s="160"/>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="160"/>
-      <c r="BN3" s="160"/>
-      <c r="BO3" s="160"/>
-      <c r="BP3" s="160"/>
-      <c r="BQ3" s="160"/>
-      <c r="BR3" s="160"/>
-      <c r="BS3" s="160"/>
-      <c r="BT3" s="160"/>
-      <c r="BU3" s="160"/>
-      <c r="BV3" s="160"/>
-      <c r="BW3" s="160"/>
-      <c r="BX3" s="160"/>
-      <c r="BY3" s="160"/>
-      <c r="BZ3" s="160"/>
-      <c r="CA3" s="160"/>
-      <c r="CB3" s="160"/>
-      <c r="CC3" s="160"/>
-      <c r="CD3" s="160"/>
-      <c r="CE3" s="160"/>
-      <c r="CF3" s="160"/>
-      <c r="CG3" s="160"/>
-      <c r="CH3" s="160"/>
-      <c r="CI3" s="160"/>
-      <c r="CJ3" s="160"/>
-      <c r="CK3" s="160"/>
-      <c r="CL3" s="160"/>
-      <c r="CM3" s="160"/>
-      <c r="CN3" s="160"/>
-      <c r="CO3" s="160"/>
-      <c r="CP3" s="160"/>
-      <c r="CQ3" s="160"/>
-      <c r="CR3" s="160"/>
-      <c r="CS3" s="160"/>
-      <c r="CT3" s="160"/>
-      <c r="CU3" s="160"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="130"/>
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="130"/>
+      <c r="BM3" s="130"/>
+      <c r="BN3" s="130"/>
+      <c r="BO3" s="130"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="130"/>
+      <c r="BS3" s="130"/>
+      <c r="BT3" s="130"/>
+      <c r="BU3" s="130"/>
+      <c r="BV3" s="130"/>
+      <c r="BW3" s="130"/>
+      <c r="BX3" s="130"/>
+      <c r="BY3" s="130"/>
+      <c r="BZ3" s="130"/>
+      <c r="CA3" s="130"/>
+      <c r="CB3" s="130"/>
+      <c r="CC3" s="130"/>
+      <c r="CD3" s="130"/>
+      <c r="CE3" s="130"/>
+      <c r="CF3" s="130"/>
+      <c r="CG3" s="130"/>
+      <c r="CH3" s="130"/>
+      <c r="CI3" s="130"/>
+      <c r="CJ3" s="130"/>
+      <c r="CK3" s="130"/>
+      <c r="CL3" s="130"/>
+      <c r="CM3" s="130"/>
+      <c r="CN3" s="130"/>
+      <c r="CO3" s="130"/>
+      <c r="CP3" s="130"/>
+      <c r="CQ3" s="130"/>
+      <c r="CR3" s="130"/>
+      <c r="CS3" s="130"/>
+      <c r="CT3" s="130"/>
+      <c r="CU3" s="130"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="173"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="173"/>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="174"/>
-      <c r="BE5" s="175" t="s">
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="198"/>
+      <c r="AF5" s="198"/>
+      <c r="AG5" s="198"/>
+      <c r="AH5" s="198"/>
+      <c r="AI5" s="198"/>
+      <c r="AJ5" s="198"/>
+      <c r="AK5" s="198"/>
+      <c r="AL5" s="198"/>
+      <c r="AM5" s="198"/>
+      <c r="AN5" s="198"/>
+      <c r="AO5" s="198"/>
+      <c r="AP5" s="198"/>
+      <c r="AQ5" s="198"/>
+      <c r="AR5" s="198"/>
+      <c r="AS5" s="198"/>
+      <c r="AT5" s="198"/>
+      <c r="AU5" s="198"/>
+      <c r="AV5" s="198"/>
+      <c r="AW5" s="198"/>
+      <c r="AX5" s="198"/>
+      <c r="AY5" s="198"/>
+      <c r="AZ5" s="198"/>
+      <c r="BA5" s="198"/>
+      <c r="BB5" s="198"/>
+      <c r="BC5" s="198"/>
+      <c r="BD5" s="199"/>
+      <c r="BE5" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="176"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="176"/>
-      <c r="BI5" s="176"/>
-      <c r="BJ5" s="176"/>
-      <c r="BK5" s="176"/>
-      <c r="BL5" s="176"/>
-      <c r="BM5" s="176"/>
-      <c r="BN5" s="176"/>
-      <c r="BO5" s="176"/>
-      <c r="BP5" s="176"/>
-      <c r="BQ5" s="176"/>
-      <c r="BR5" s="176"/>
-      <c r="BS5" s="176"/>
-      <c r="BT5" s="176"/>
-      <c r="BU5" s="176"/>
-      <c r="BV5" s="176"/>
-      <c r="BW5" s="176"/>
-      <c r="BX5" s="176"/>
-      <c r="BY5" s="176"/>
-      <c r="BZ5" s="176"/>
-      <c r="CA5" s="176"/>
-      <c r="CB5" s="176"/>
-      <c r="CC5" s="176"/>
-      <c r="CD5" s="176"/>
-      <c r="CE5" s="176"/>
-      <c r="CF5" s="176"/>
-      <c r="CG5" s="176"/>
-      <c r="CH5" s="176"/>
-      <c r="CI5" s="176"/>
-      <c r="CJ5" s="176"/>
-      <c r="CK5" s="176"/>
-      <c r="CL5" s="176"/>
-      <c r="CM5" s="176"/>
-      <c r="CN5" s="176"/>
-      <c r="CO5" s="176"/>
-      <c r="CP5" s="176"/>
-      <c r="CQ5" s="176"/>
-      <c r="CR5" s="177"/>
-      <c r="CS5" s="182" t="s">
+      <c r="BF5" s="201"/>
+      <c r="BG5" s="201"/>
+      <c r="BH5" s="201"/>
+      <c r="BI5" s="201"/>
+      <c r="BJ5" s="201"/>
+      <c r="BK5" s="201"/>
+      <c r="BL5" s="201"/>
+      <c r="BM5" s="201"/>
+      <c r="BN5" s="201"/>
+      <c r="BO5" s="201"/>
+      <c r="BP5" s="201"/>
+      <c r="BQ5" s="201"/>
+      <c r="BR5" s="201"/>
+      <c r="BS5" s="201"/>
+      <c r="BT5" s="201"/>
+      <c r="BU5" s="201"/>
+      <c r="BV5" s="201"/>
+      <c r="BW5" s="201"/>
+      <c r="BX5" s="201"/>
+      <c r="BY5" s="201"/>
+      <c r="BZ5" s="201"/>
+      <c r="CA5" s="201"/>
+      <c r="CB5" s="201"/>
+      <c r="CC5" s="201"/>
+      <c r="CD5" s="201"/>
+      <c r="CE5" s="201"/>
+      <c r="CF5" s="201"/>
+      <c r="CG5" s="201"/>
+      <c r="CH5" s="201"/>
+      <c r="CI5" s="201"/>
+      <c r="CJ5" s="201"/>
+      <c r="CK5" s="201"/>
+      <c r="CL5" s="201"/>
+      <c r="CM5" s="201"/>
+      <c r="CN5" s="201"/>
+      <c r="CO5" s="201"/>
+      <c r="CP5" s="201"/>
+      <c r="CQ5" s="201"/>
+      <c r="CR5" s="202"/>
+      <c r="CS5" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="183"/>
-      <c r="CU5" s="184"/>
+      <c r="CT5" s="190"/>
+      <c r="CU5" s="191"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="202" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="188" t="s">
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="188"/>
-      <c r="W6" s="188"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="188"/>
-      <c r="Z6" s="188"/>
-      <c r="AA6" s="188"/>
-      <c r="AB6" s="188"/>
-      <c r="AC6" s="188"/>
-      <c r="AD6" s="188"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="188"/>
-      <c r="AG6" s="188"/>
-      <c r="AH6" s="188"/>
-      <c r="AI6" s="188"/>
-      <c r="AJ6" s="188"/>
-      <c r="AK6" s="188"/>
-      <c r="AL6" s="188"/>
-      <c r="AM6" s="188"/>
-      <c r="AN6" s="188"/>
-      <c r="AO6" s="188" t="s">
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
+      <c r="AL6" s="175"/>
+      <c r="AM6" s="175"/>
+      <c r="AN6" s="175"/>
+      <c r="AO6" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="AP6" s="188"/>
-      <c r="AQ6" s="188"/>
-      <c r="AR6" s="188"/>
-      <c r="AS6" s="188" t="s">
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="188"/>
-      <c r="AU6" s="188"/>
-      <c r="AV6" s="188" t="s">
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="188"/>
-      <c r="AX6" s="188"/>
-      <c r="AY6" s="188"/>
-      <c r="AZ6" s="188"/>
-      <c r="BA6" s="188"/>
-      <c r="BB6" s="188"/>
-      <c r="BC6" s="192" t="s">
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="175"/>
+      <c r="BC6" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="193"/>
-      <c r="BE6" s="194" t="s">
+      <c r="BD6" s="183"/>
+      <c r="BE6" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="195"/>
-      <c r="BG6" s="195"/>
-      <c r="BH6" s="195"/>
-      <c r="BI6" s="195"/>
-      <c r="BJ6" s="195"/>
-      <c r="BK6" s="196"/>
-      <c r="BL6" s="197" t="s">
+      <c r="BF6" s="185"/>
+      <c r="BG6" s="185"/>
+      <c r="BH6" s="185"/>
+      <c r="BI6" s="185"/>
+      <c r="BJ6" s="185"/>
+      <c r="BK6" s="186"/>
+      <c r="BL6" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="195"/>
-      <c r="BN6" s="195"/>
-      <c r="BO6" s="195"/>
-      <c r="BP6" s="195"/>
-      <c r="BQ6" s="195"/>
-      <c r="BR6" s="195"/>
-      <c r="BS6" s="195"/>
-      <c r="BT6" s="195"/>
-      <c r="BU6" s="195"/>
-      <c r="BV6" s="195"/>
-      <c r="BW6" s="195"/>
-      <c r="BX6" s="195"/>
-      <c r="BY6" s="195"/>
-      <c r="BZ6" s="195"/>
-      <c r="CA6" s="195"/>
-      <c r="CB6" s="195"/>
-      <c r="CC6" s="195"/>
-      <c r="CD6" s="195"/>
-      <c r="CE6" s="195"/>
-      <c r="CF6" s="195"/>
-      <c r="CG6" s="195"/>
-      <c r="CH6" s="195"/>
-      <c r="CI6" s="195"/>
-      <c r="CJ6" s="195"/>
-      <c r="CK6" s="195"/>
-      <c r="CL6" s="195"/>
-      <c r="CM6" s="195"/>
-      <c r="CN6" s="195"/>
-      <c r="CO6" s="195"/>
-      <c r="CP6" s="195"/>
-      <c r="CQ6" s="185" t="s">
+      <c r="BM6" s="185"/>
+      <c r="BN6" s="185"/>
+      <c r="BO6" s="185"/>
+      <c r="BP6" s="185"/>
+      <c r="BQ6" s="185"/>
+      <c r="BR6" s="185"/>
+      <c r="BS6" s="185"/>
+      <c r="BT6" s="185"/>
+      <c r="BU6" s="185"/>
+      <c r="BV6" s="185"/>
+      <c r="BW6" s="185"/>
+      <c r="BX6" s="185"/>
+      <c r="BY6" s="185"/>
+      <c r="BZ6" s="185"/>
+      <c r="CA6" s="185"/>
+      <c r="CB6" s="185"/>
+      <c r="CC6" s="185"/>
+      <c r="CD6" s="185"/>
+      <c r="CE6" s="185"/>
+      <c r="CF6" s="185"/>
+      <c r="CG6" s="185"/>
+      <c r="CH6" s="185"/>
+      <c r="CI6" s="185"/>
+      <c r="CJ6" s="185"/>
+      <c r="CK6" s="185"/>
+      <c r="CL6" s="185"/>
+      <c r="CM6" s="185"/>
+      <c r="CN6" s="185"/>
+      <c r="CO6" s="185"/>
+      <c r="CP6" s="185"/>
+      <c r="CQ6" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="185"/>
-      <c r="CS6" s="167" t="s">
+      <c r="CR6" s="192"/>
+      <c r="CS6" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="167" t="s">
+      <c r="CT6" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="189" t="s">
+      <c r="CU6" s="179" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
       <c r="E7" s="118"/>
       <c r="F7" s="117">
         <v>0.3</v>
@@ -6249,337 +6252,337 @@
       <c r="I7" s="118">
         <v>0.3</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="174">
         <v>42982</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180">
+      <c r="K7" s="174"/>
+      <c r="L7" s="174">
         <v>43046</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="180"/>
-      <c r="S7" s="180"/>
-      <c r="T7" s="181">
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="178">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="181"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="180"/>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="180"/>
-      <c r="AA7" s="180"/>
-      <c r="AB7" s="180"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="180"/>
-      <c r="AF7" s="180"/>
-      <c r="AG7" s="180"/>
-      <c r="AH7" s="180"/>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="180"/>
-      <c r="AM7" s="180"/>
+      <c r="U7" s="178"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
       <c r="AN7" s="91">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="180" t="s">
-        <v>252</v>
-      </c>
-      <c r="AP7" s="180"/>
-      <c r="AQ7" s="180"/>
-      <c r="AR7" s="180"/>
-      <c r="AS7" s="181">
+      <c r="AO7" s="174" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP7" s="174"/>
+      <c r="AQ7" s="174"/>
+      <c r="AR7" s="174"/>
+      <c r="AS7" s="178">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="181"/>
+      <c r="AT7" s="178"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="180" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW7" s="180"/>
-      <c r="AX7" s="180"/>
-      <c r="AY7" s="180"/>
-      <c r="AZ7" s="181">
+      <c r="AV7" s="174" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="178">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="181"/>
+      <c r="BA7" s="178"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="192"/>
-      <c r="BD7" s="193"/>
-      <c r="BE7" s="180" t="s">
+      <c r="BC7" s="182"/>
+      <c r="BD7" s="183"/>
+      <c r="BE7" s="174" t="s">
+        <v>252</v>
+      </c>
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="BF7" s="180"/>
-      <c r="BG7" s="180" t="s">
-        <v>254</v>
-      </c>
-      <c r="BH7" s="180"/>
-      <c r="BI7" s="181">
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="178">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="181"/>
+      <c r="BJ7" s="178"/>
       <c r="BK7" s="99">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="180">
+      <c r="BL7" s="174">
         <v>42982</v>
       </c>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180">
+      <c r="BM7" s="174"/>
+      <c r="BN7" s="174">
         <v>42982</v>
       </c>
-      <c r="BO7" s="180"/>
-      <c r="BP7" s="180">
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174">
         <v>42982</v>
       </c>
-      <c r="BQ7" s="180"/>
-      <c r="BR7" s="180"/>
-      <c r="BS7" s="180"/>
-      <c r="BT7" s="180"/>
-      <c r="BU7" s="180"/>
-      <c r="BV7" s="180"/>
-      <c r="BW7" s="180"/>
-      <c r="BX7" s="180"/>
-      <c r="BY7" s="180"/>
-      <c r="BZ7" s="180"/>
-      <c r="CA7" s="180"/>
-      <c r="CB7" s="180"/>
-      <c r="CC7" s="180"/>
-      <c r="CD7" s="180"/>
-      <c r="CE7" s="180"/>
-      <c r="CF7" s="180"/>
-      <c r="CG7" s="180"/>
-      <c r="CH7" s="180"/>
-      <c r="CI7" s="180"/>
-      <c r="CJ7" s="180"/>
-      <c r="CK7" s="180"/>
-      <c r="CL7" s="180"/>
-      <c r="CM7" s="180"/>
-      <c r="CN7" s="181">
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174"/>
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174"/>
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174"/>
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174"/>
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174"/>
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174"/>
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174"/>
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="178">
         <f>COUNT(BL9,BN9,BP9,BR9,BT9,BV9,BX9,BZ9,CB9,CD9,CF9,CH9,CJ9,CL9,CN9)</f>
         <v>10</v>
       </c>
-      <c r="CO7" s="181"/>
+      <c r="CO7" s="178"/>
       <c r="CP7" s="100">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="185"/>
-      <c r="CR7" s="185"/>
-      <c r="CS7" s="167"/>
-      <c r="CT7" s="167"/>
-      <c r="CU7" s="190"/>
+      <c r="CQ7" s="192"/>
+      <c r="CR7" s="192"/>
+      <c r="CS7" s="188"/>
+      <c r="CT7" s="188"/>
+      <c r="CU7" s="180"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="178" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178" t="s">
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179" t="s">
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
+      <c r="J8" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179" t="s">
+      <c r="M8" s="167"/>
+      <c r="N8" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179" t="s">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="179"/>
-      <c r="R8" s="179" t="s">
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179" t="s">
+      <c r="S8" s="167"/>
+      <c r="T8" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179" t="s">
+      <c r="U8" s="167"/>
+      <c r="V8" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="179"/>
-      <c r="X8" s="179" t="s">
+      <c r="W8" s="167"/>
+      <c r="X8" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179" t="s">
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="179" t="s">
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179" t="s">
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="179" t="s">
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179" t="s">
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="179" t="s">
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179" t="s">
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="179"/>
+      <c r="AM8" s="167"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="179" t="s">
+      <c r="AO8" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="179"/>
-      <c r="AQ8" s="179" t="s">
+      <c r="AP8" s="167"/>
+      <c r="AQ8" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="179"/>
-      <c r="AS8" s="179" t="s">
+      <c r="AR8" s="167"/>
+      <c r="AS8" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="179"/>
+      <c r="AT8" s="167"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="179" t="s">
+      <c r="AV8" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="179"/>
-      <c r="AX8" s="179" t="s">
+      <c r="AW8" s="167"/>
+      <c r="AX8" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="179"/>
-      <c r="AZ8" s="179" t="s">
+      <c r="AY8" s="167"/>
+      <c r="AZ8" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="179"/>
+      <c r="BA8" s="167"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="192"/>
-      <c r="BD8" s="193"/>
-      <c r="BE8" s="201" t="s">
+      <c r="BC8" s="182"/>
+      <c r="BD8" s="183"/>
+      <c r="BE8" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="198"/>
-      <c r="BG8" s="198" t="s">
+      <c r="BF8" s="176"/>
+      <c r="BG8" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="198"/>
-      <c r="BI8" s="198" t="s">
+      <c r="BH8" s="176"/>
+      <c r="BI8" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="198"/>
+      <c r="BJ8" s="176"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="199" t="s">
+      <c r="BL8" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="200"/>
-      <c r="BN8" s="199" t="s">
+      <c r="BM8" s="171"/>
+      <c r="BN8" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="200"/>
-      <c r="BP8" s="199" t="s">
+      <c r="BO8" s="171"/>
+      <c r="BP8" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="200"/>
-      <c r="BR8" s="199" t="s">
+      <c r="BQ8" s="171"/>
+      <c r="BR8" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="200"/>
-      <c r="BT8" s="199" t="s">
+      <c r="BS8" s="171"/>
+      <c r="BT8" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="200"/>
-      <c r="BV8" s="186" t="s">
+      <c r="BU8" s="171"/>
+      <c r="BV8" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="187"/>
-      <c r="BX8" s="186" t="s">
+      <c r="BW8" s="169"/>
+      <c r="BX8" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="187"/>
-      <c r="BZ8" s="186" t="s">
+      <c r="BY8" s="169"/>
+      <c r="BZ8" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="187"/>
-      <c r="CB8" s="186" t="s">
+      <c r="CA8" s="169"/>
+      <c r="CB8" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="187"/>
-      <c r="CD8" s="186" t="s">
+      <c r="CC8" s="169"/>
+      <c r="CD8" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="187"/>
-      <c r="CF8" s="186" t="s">
+      <c r="CE8" s="169"/>
+      <c r="CF8" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="187"/>
-      <c r="CH8" s="186" t="s">
+      <c r="CG8" s="169"/>
+      <c r="CH8" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="187"/>
-      <c r="CJ8" s="186" t="s">
+      <c r="CI8" s="169"/>
+      <c r="CJ8" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="187"/>
-      <c r="CL8" s="186" t="s">
+      <c r="CK8" s="169"/>
+      <c r="CL8" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="187"/>
-      <c r="CN8" s="186" t="s">
+      <c r="CM8" s="169"/>
+      <c r="CN8" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="187"/>
+      <c r="CO8" s="169"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="185"/>
-      <c r="CR8" s="185"/>
-      <c r="CS8" s="167"/>
-      <c r="CT8" s="167"/>
-      <c r="CU8" s="190"/>
+      <c r="CQ8" s="192"/>
+      <c r="CR8" s="192"/>
+      <c r="CS8" s="188"/>
+      <c r="CT8" s="188"/>
+      <c r="CU8" s="180"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6771,9 +6774,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="167"/>
-      <c r="CT9" s="167"/>
-      <c r="CU9" s="191"/>
+      <c r="CS9" s="188"/>
+      <c r="CT9" s="188"/>
+      <c r="CU9" s="181"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -10519,7 +10522,7 @@
         <v>PASSED</v>
       </c>
     </row>
-    <row r="23" spans="1:99">
+    <row r="23" spans="1:99" hidden="1">
       <c r="A23" s="41">
         <f>REGISTRATION!A24</f>
         <v>14</v>
@@ -10769,7 +10772,7 @@
         <v>5</v>
       </c>
       <c r="CU23" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:99">
@@ -22790,6 +22793,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22806,88 +22891,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -22912,7 +22915,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" workbookViewId="0">
       <selection activeCell="P30" sqref="A2:P30"/>
     </sheetView>
   </sheetViews>
@@ -23987,7 +23990,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -27073,10 +27076,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="60" workbookViewId="0">
+      <selection activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27104,106 +27107,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="220"/>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
+      <c r="A3" s="251"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="254" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="254" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="256" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="223"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="224"/>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="257"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="220"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
+      <c r="A10" s="258"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="258"/>
+      <c r="F10" s="258"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="259"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="224"/>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="224"/>
+      <c r="A12" s="257"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="227" t="str">
+      <c r="C13" s="260" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27211,12 +27214,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="219" t="str">
+      <c r="C14" s="253" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27224,12 +27227,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="230" t="str">
+      <c r="C15" s="239" t="str">
         <f>REGISTRATION!A4</f>
         <v>THIRD YEAR</v>
       </c>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27237,12 +27240,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="230" t="str">
+      <c r="C16" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3C</v>
       </c>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
+      <c r="D16" s="239"/>
+      <c r="E16" s="239"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27250,12 +27253,12 @@
       <c r="B17" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="230" t="str">
+      <c r="C17" s="239" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27267,42 +27270,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="234" t="s">
+      <c r="B19" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="240" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="231" t="s">
+      <c r="D19" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="236" t="s">
+      <c r="E19" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="231" t="s">
+      <c r="F19" s="240" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="232"/>
-      <c r="B20" s="235"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="239"/>
+      <c r="A20" s="241"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="248"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="233"/>
+      <c r="A21" s="242"/>
       <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="238"/>
-      <c r="F21" s="240"/>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="249"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -27628,7 +27631,7 @@
         <v>PASSED</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18">
+    <row r="35" spans="1:6" ht="18" hidden="1">
       <c r="A35" s="71">
         <v>14</v>
       </c>
@@ -27655,7 +27658,7 @@
     </row>
     <row r="36" spans="1:6" ht="18">
       <c r="A36" s="65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="66" t="str">
         <f>'DEPT CHAIR'!B22</f>
@@ -27680,7 +27683,8 @@
     </row>
     <row r="37" spans="1:6" ht="18">
       <c r="A37" s="71">
-        <v>16</v>
+        <f>A36+1</f>
+        <v>15</v>
       </c>
       <c r="B37" s="66" t="str">
         <f>'DEPT CHAIR'!B23</f>
@@ -27704,8 +27708,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="18">
-      <c r="A38" s="65">
-        <v>17</v>
+      <c r="A38" s="71">
+        <f t="shared" ref="A38:A44" si="1">A37+1</f>
+        <v>16</v>
       </c>
       <c r="B38" s="66" t="str">
         <f>'DEPT CHAIR'!B24</f>
@@ -27730,7 +27735,8 @@
     </row>
     <row r="39" spans="1:6" ht="18">
       <c r="A39" s="71">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B39" s="66" t="str">
         <f>'DEPT CHAIR'!B25</f>
@@ -27754,8 +27760,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="18">
-      <c r="A40" s="65">
-        <v>19</v>
+      <c r="A40" s="71">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B40" s="66" t="str">
         <f>'DEPT CHAIR'!B26</f>
@@ -27780,7 +27787,8 @@
     </row>
     <row r="41" spans="1:6" ht="18">
       <c r="A41" s="71">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B41" s="66" t="str">
         <f>'DEPT CHAIR'!B27</f>
@@ -27804,8 +27812,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="18">
-      <c r="A42" s="65">
-        <v>21</v>
+      <c r="A42" s="71">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B42" s="66" t="str">
         <f>'DEPT CHAIR'!B28</f>
@@ -27830,7 +27839,8 @@
     </row>
     <row r="43" spans="1:6" ht="18">
       <c r="A43" s="71">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="B43" s="66" t="str">
         <f>'DEPT CHAIR'!B29</f>
@@ -27854,8 +27864,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A44" s="65">
-        <v>23</v>
+      <c r="A44" s="71">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B44" s="66" t="str">
         <f>'DEPT CHAIR'!B30</f>
@@ -27878,14 +27889,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A45" s="247" t="s">
+      <c r="A45" s="223" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="248"/>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="248"/>
-      <c r="F45" s="249"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="224"/>
+      <c r="E45" s="224"/>
+      <c r="F45" s="225"/>
     </row>
     <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="62"/>
@@ -27918,11 +27929,11 @@
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
-      <c r="E49" s="241">
+      <c r="E49" s="250">
         <f ca="1">NOW()</f>
-        <v>43082.758252430554</v>
-      </c>
-      <c r="F49" s="241"/>
+        <v>43084.468364699074</v>
+      </c>
+      <c r="F49" s="250"/>
     </row>
     <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="60"/>
@@ -27932,10 +27943,10 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="73"/>
-      <c r="E50" s="220" t="s">
+      <c r="E50" s="251" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="220"/>
+      <c r="F50" s="251"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="60"/>
@@ -27952,8 +27963,8 @@
       <c r="B52" s="74"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="220"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="251"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="60"/>
@@ -28068,14 +28079,14 @@
       <c r="F66" s="60"/>
     </row>
     <row r="67" spans="1:6" ht="15.75">
-      <c r="A67" s="242" t="s">
+      <c r="A67" s="252" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="242"/>
+      <c r="B67" s="252"/>
+      <c r="C67" s="252"/>
+      <c r="D67" s="252"/>
+      <c r="E67" s="252"/>
+      <c r="F67" s="252"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1">
       <c r="A68" s="60"/>
@@ -28090,124 +28101,124 @@
       <c r="B69" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="260" t="s">
+      <c r="C69" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="229"/>
-      <c r="E69" s="228" t="s">
+      <c r="D69" s="237"/>
+      <c r="E69" s="238" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="229"/>
+      <c r="F69" s="237"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="60"/>
       <c r="B70" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="256">
+      <c r="C70" s="232">
         <f>COUNTIF($D$22:$D$44,"=1.0")+COUNTIF($D$22:$D$44,"=1.25")+(COUNTIF($D$22:$D$44,"=1.50")+COUNTIF($D$22:$D$44,"=1.75"))</f>
         <v>1</v>
       </c>
-      <c r="D70" s="257"/>
-      <c r="E70" s="258">
+      <c r="D70" s="233"/>
+      <c r="E70" s="234">
         <f>(C70/$C$76)*100</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F70" s="259"/>
+      <c r="F70" s="235"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="60"/>
       <c r="B71" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="250">
+      <c r="C71" s="226">
         <f>COUNTIF($D$22:$D$44,"=2.0")+COUNTIF($D$22:$D$44,"=2.25")+(COUNTIF($D$22:$D$44,"=2.50")+COUNTIF($D$22:$D$44,"=2.75"))</f>
         <v>20</v>
       </c>
-      <c r="D71" s="251"/>
-      <c r="E71" s="252">
+      <c r="D71" s="227"/>
+      <c r="E71" s="228">
         <f>(C71/$C$76)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="F71" s="253"/>
+      <c r="F71" s="229"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="60"/>
       <c r="B72" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="250">
+      <c r="C72" s="226">
         <f>COUNTIF($D$22:$D$44,"=3.0")</f>
         <v>1</v>
       </c>
-      <c r="D72" s="251"/>
-      <c r="E72" s="252">
-        <f t="shared" ref="E72:E75" si="1">(C72/$C$76)*100</f>
+      <c r="D72" s="227"/>
+      <c r="E72" s="228">
+        <f t="shared" ref="E72:E75" si="2">(C72/$C$76)*100</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F72" s="253"/>
+      <c r="F72" s="229"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="60"/>
       <c r="B73" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="250">
+      <c r="C73" s="226">
         <f>COUNTIF($D$22:$D$44,"=5.0")</f>
         <v>1</v>
       </c>
-      <c r="D73" s="251"/>
-      <c r="E73" s="252">
-        <f t="shared" si="1"/>
+      <c r="D73" s="227"/>
+      <c r="E73" s="228">
+        <f t="shared" si="2"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F73" s="253"/>
+      <c r="F73" s="229"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="60"/>
       <c r="B74" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="254">
-        <v>0</v>
-      </c>
-      <c r="D74" s="255"/>
-      <c r="E74" s="252">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="253"/>
+      <c r="C74" s="230">
+        <v>0</v>
+      </c>
+      <c r="D74" s="231"/>
+      <c r="E74" s="228">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="229"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="60"/>
       <c r="B75" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="254">
+      <c r="C75" s="230">
         <v>1</v>
       </c>
-      <c r="D75" s="255"/>
-      <c r="E75" s="252">
-        <f t="shared" si="1"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="228">
+        <f t="shared" si="2"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="F75" s="253"/>
+      <c r="F75" s="229"/>
     </row>
     <row r="76" spans="1:6" ht="16.5" thickBot="1">
       <c r="A76" s="60"/>
       <c r="B76" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="243">
+      <c r="C76" s="219">
         <f>SUM(C70:D75)</f>
         <v>24</v>
       </c>
-      <c r="D76" s="244"/>
-      <c r="E76" s="245">
+      <c r="D76" s="220"/>
+      <c r="E76" s="221">
         <f>SUM(E70:F75)</f>
         <v>100.00000000000003</v>
       </c>
-      <c r="F76" s="246"/>
+      <c r="F76" s="222"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="60"/>
@@ -28245,7 +28256,7 @@
       </c>
       <c r="F80" s="60"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:19">
       <c r="A81" s="60"/>
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
@@ -28253,7 +28264,7 @@
       <c r="E81" s="60"/>
       <c r="F81" s="60"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:19">
       <c r="A82" s="60"/>
       <c r="B82" s="74" t="s">
         <v>131</v>
@@ -28265,11 +28276,11 @@
       </c>
       <c r="F82" s="60"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1">
+    <row r="83" spans="1:19" ht="15.75" customHeight="1">
       <c r="A83" s="60"/>
       <c r="B83" s="73" t="str">
         <f>REGISTRATION!P16</f>
-        <v>Renen Paul A. Viado</v>
+        <v>Renen Paul M. Viado</v>
       </c>
       <c r="C83" s="60"/>
       <c r="D83" s="60"/>
@@ -28279,7 +28290,7 @@
       </c>
       <c r="F83" s="60"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:19">
       <c r="A84" s="60"/>
       <c r="B84" s="74" t="s">
         <v>29</v>
@@ -28291,7 +28302,7 @@
       </c>
       <c r="F84" s="60"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:19">
       <c r="A85" s="60"/>
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
@@ -28299,7 +28310,7 @@
       <c r="E85" s="60"/>
       <c r="F85" s="60"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:19">
       <c r="A86" s="60"/>
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
@@ -28307,7 +28318,7 @@
       <c r="E86" s="60"/>
       <c r="F86" s="60"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:19">
       <c r="A87" s="60"/>
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
@@ -28315,7 +28326,7 @@
       <c r="E87" s="60"/>
       <c r="F87" s="60"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:19">
       <c r="A88" s="60"/>
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
@@ -28323,7 +28334,7 @@
       <c r="E88" s="60"/>
       <c r="F88" s="60"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:19" ht="15.75">
       <c r="A89" s="60"/>
       <c r="B89" s="77" t="s">
         <v>133</v>
@@ -28333,7 +28344,7 @@
       <c r="E89" s="60"/>
       <c r="F89" s="60"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75">
+    <row r="90" spans="1:19" ht="15.75">
       <c r="A90" s="60"/>
       <c r="B90" s="77"/>
       <c r="C90" s="60"/>
@@ -28341,7 +28352,7 @@
       <c r="E90" s="60"/>
       <c r="F90" s="60"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:19">
       <c r="A91" s="60"/>
       <c r="B91" s="74" t="s">
         <v>131</v>
@@ -28351,7 +28362,7 @@
       <c r="E91" s="60"/>
       <c r="F91" s="60"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75">
+    <row r="92" spans="1:19" ht="15.75">
       <c r="A92" s="60"/>
       <c r="B92" s="73" t="str">
         <f>REGISTRATION!P17</f>
@@ -28362,7 +28373,7 @@
       <c r="E92" s="60"/>
       <c r="F92" s="60"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:19">
       <c r="A93" s="60"/>
       <c r="B93" s="74" t="s">
         <v>134</v>
@@ -28372,11 +28383,42 @@
       <c r="E93" s="60"/>
       <c r="F93" s="60"/>
     </row>
+    <row r="96" spans="1:19">
+      <c r="S96" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="99" spans="7:7">
       <c r="G99" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A67:F67"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="A45:F45"/>
@@ -28393,32 +28435,6 @@
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F44">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -28426,7 +28442,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="256" scale="75" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="16383" man="1"/>
+  </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="B72:B73" numberStoredAsText="1"/>
   </ignoredErrors>
